--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_3_30.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_3_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2098423.315435819</v>
+        <v>2098015.985364954</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>318754.3114580973</v>
+        <v>318754.3114581002</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736553</v>
+        <v>504792.0292736554</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -671,7 +671,7 @@
         <v>10.00967878293136</v>
       </c>
       <c r="G2" t="n">
-        <v>83.27299737416695</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>378.2098390737216</v>
+        <v>213.9458451323985</v>
       </c>
       <c r="Y2" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D3" t="n">
         <v>137.45025063969</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>82.17142413617712</v>
+        <v>62.34867604629708</v>
       </c>
       <c r="T3" t="n">
         <v>186.7982527956746</v>
@@ -798,7 +798,7 @@
         <v>226.1116663261494</v>
       </c>
       <c r="W3" t="n">
-        <v>238.9027100790231</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>195.9378182409833</v>
@@ -817,28 +817,28 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>50.77333445464513</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>150.9558484244806</v>
       </c>
       <c r="G4" t="n">
-        <v>165.8372140727292</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C5" t="n">
-        <v>218.5192908241036</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>410.0096787829314</v>
@@ -911,7 +911,7 @@
         <v>411.9429466803539</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>66.83561439624837</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -950,13 +950,13 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -975,16 +975,16 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C6" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>39.41273756494273</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>126.9493114463975</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>186.7982527956746</v>
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>167.2305511458285</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>26.24711240959375</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>51.24025878283137</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>110.1310837999073</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1145,13 +1145,13 @@
         <v>10.00967878293136</v>
       </c>
       <c r="G8" t="n">
-        <v>11.94294668035388</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>171.0890268032919</v>
+        <v>18.49006454997377</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V8" t="n">
         <v>333.6094813630181</v>
@@ -1199,7 +1199,7 @@
         <v>378.2098390737216</v>
       </c>
       <c r="Y8" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1209,19 +1209,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C9" t="n">
         <v>160.0866360314548</v>
       </c>
       <c r="D9" t="n">
-        <v>90.19549717494994</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E9" t="n">
         <v>145.5577298436975</v>
       </c>
       <c r="F9" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>127.4412149769483</v>
@@ -1257,16 +1257,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S9" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>186.7982527956746</v>
       </c>
       <c r="U9" t="n">
-        <v>216.3098444776729</v>
+        <v>46.06565554357619</v>
       </c>
       <c r="V9" t="n">
         <v>226.1116663261494</v>
@@ -1278,7 +1278,7 @@
         <v>195.9378182409833</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="10">
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C10" t="n">
         <v>167.9198098429365</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.2305511458285</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>157.7789187685189</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>33.80937303618919</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>26.61010385670627</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>277.0092604360253</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>265.020577393707</v>
@@ -1385,10 +1385,10 @@
         <v>298.8325260922642</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>99.62139136983005</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>57.35610213003367</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,22 +1421,22 @@
         <v>71.88509579130809</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>108.9489477341494</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>139.2413130842301</v>
       </c>
       <c r="V11" t="n">
         <v>220.5156376762044</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>245.8157371541613</v>
       </c>
       <c r="X11" t="n">
-        <v>97.46163785327447</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>276.5125931831067</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>127.4323455528363</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>98.85281891431895</v>
       </c>
       <c r="I12" t="n">
-        <v>67.39308974070319</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1503,7 +1503,7 @@
         <v>186.7625027923461</v>
       </c>
       <c r="U12" t="n">
-        <v>160.7536028555033</v>
+        <v>216.3092609629287</v>
       </c>
       <c r="V12" t="n">
         <v>226.1116663261494</v>
@@ -1515,7 +1515,7 @@
         <v>195.9378182409833</v>
       </c>
       <c r="Y12" t="n">
-        <v>190.5961130869169</v>
+        <v>103.5807258058742</v>
       </c>
     </row>
     <row r="13">
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>68.62597131072233</v>
+        <v>68.62597131072327</v>
       </c>
       <c r="C13" t="n">
         <v>54.82596615612282</v>
@@ -1591,7 +1591,7 @@
         <v>170.2009937809612</v>
       </c>
       <c r="X13" t="n">
-        <v>115.8460957767646</v>
+        <v>115.8460957767643</v>
       </c>
       <c r="Y13" t="n">
         <v>106.720963532832</v>
@@ -1619,13 +1619,13 @@
         <v>296.9158350961177</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>93.12232466134185</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>57.35610213003368</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>71.88509579130809</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1664,13 +1664,13 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>177.7631648719817</v>
+        <v>220.5156376762044</v>
       </c>
       <c r="W14" t="n">
         <v>245.8157371541613</v>
       </c>
       <c r="X14" t="n">
-        <v>265.1159953869079</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>276.5125931831067</v>
@@ -1698,13 +1698,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G15" t="n">
-        <v>14.3385018660226</v>
+        <v>127.4323455528363</v>
       </c>
       <c r="H15" t="n">
         <v>98.85281891431895</v>
       </c>
       <c r="I15" t="n">
-        <v>67.39308974070319</v>
+        <v>26.07845640577087</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>17.32111056647047</v>
+        <v>58.63574390140148</v>
       </c>
       <c r="S15" t="n">
         <v>151.1067464546052</v>
@@ -1743,7 +1743,7 @@
         <v>216.3092609629287</v>
       </c>
       <c r="V15" t="n">
-        <v>226.1116663261494</v>
+        <v>113.0178226393357</v>
       </c>
       <c r="W15" t="n">
         <v>238.9027100790231</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>68.62597131072235</v>
+        <v>68.62597131072233</v>
       </c>
       <c r="C16" t="n">
-        <v>54.82596615612283</v>
+        <v>54.82596615612282</v>
       </c>
       <c r="D16" t="n">
-        <v>38.44733055370122</v>
+        <v>38.44733055370121</v>
       </c>
       <c r="E16" t="n">
-        <v>37.39508040948067</v>
+        <v>37.39508040948066</v>
       </c>
       <c r="F16" t="n">
-        <v>37.86200473766698</v>
+        <v>37.86200473766696</v>
       </c>
       <c r="G16" t="n">
-        <v>54.12927163178259</v>
+        <v>54.12927163178258</v>
       </c>
       <c r="H16" t="n">
-        <v>44.61896381776782</v>
+        <v>44.61896381776781</v>
       </c>
       <c r="I16" t="n">
-        <v>29.44355466213278</v>
+        <v>29.44355466213277</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>34.59837805321934</v>
+        <v>34.59837805321932</v>
       </c>
       <c r="S16" t="n">
-        <v>98.34923509440678</v>
+        <v>98.34923509440677</v>
       </c>
       <c r="T16" t="n">
-        <v>117.7215487038539</v>
+        <v>117.7215487038538</v>
       </c>
       <c r="U16" t="n">
         <v>171.2240878384011</v>
@@ -1844,13 +1844,13 @@
         <v>214.3028457726087</v>
       </c>
       <c r="C17" t="n">
-        <v>202.3141627302905</v>
+        <v>202.3141627302904</v>
       </c>
       <c r="D17" t="n">
         <v>193.2954667748184</v>
       </c>
       <c r="E17" t="n">
-        <v>215.037604344724</v>
+        <v>215.0376043447239</v>
       </c>
       <c r="F17" t="n">
         <v>234.2094204327011</v>
@@ -1859,7 +1859,7 @@
         <v>236.1261114288476</v>
       </c>
       <c r="H17" t="n">
-        <v>153.5230351182403</v>
+        <v>153.5230351182402</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>9.178681127891553</v>
+        <v>9.178681127891496</v>
       </c>
       <c r="T17" t="n">
-        <v>46.24253307073284</v>
+        <v>46.24253307073278</v>
       </c>
       <c r="U17" t="n">
-        <v>76.53489842081359</v>
+        <v>76.53489842081353</v>
       </c>
       <c r="V17" t="n">
-        <v>157.8092230127878</v>
+        <v>157.8092230127868</v>
       </c>
       <c r="W17" t="n">
         <v>183.1093224907447</v>
       </c>
       <c r="X17" t="n">
-        <v>202.4095807234914</v>
+        <v>202.4095807234913</v>
       </c>
       <c r="Y17" t="n">
-        <v>213.8061785196909</v>
+        <v>213.8061785196901</v>
       </c>
     </row>
     <row r="18">
@@ -1938,7 +1938,7 @@
         <v>127.4323455528363</v>
       </c>
       <c r="H18" t="n">
-        <v>98.85281891431895</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>67.39308974070319</v>
@@ -1968,13 +1968,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>58.63574390140148</v>
+        <v>3.080085793974058</v>
       </c>
       <c r="S18" t="n">
         <v>151.1067464546052</v>
       </c>
       <c r="T18" t="n">
-        <v>32.35402577060173</v>
+        <v>186.7625027923461</v>
       </c>
       <c r="U18" t="n">
         <v>216.3092609629287</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>5.919556647305797</v>
+        <v>5.91955664730574</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>76.40919078198479</v>
+        <v>76.40919078198523</v>
       </c>
       <c r="T19" t="n">
-        <v>55.01513404043731</v>
+        <v>55.01513404043725</v>
       </c>
       <c r="U19" t="n">
-        <v>108.5176731749846</v>
+        <v>108.5176731749845</v>
       </c>
       <c r="V19" t="n">
-        <v>82.32769304693139</v>
+        <v>82.32769304693133</v>
       </c>
       <c r="W19" t="n">
         <v>107.4945791175446</v>
       </c>
       <c r="X19" t="n">
-        <v>53.13968111334776</v>
+        <v>53.13968111334771</v>
       </c>
       <c r="Y19" t="n">
-        <v>44.01454886941545</v>
+        <v>44.01454886941539</v>
       </c>
     </row>
     <row r="20">
@@ -2081,13 +2081,13 @@
         <v>214.3028457726087</v>
       </c>
       <c r="C20" t="n">
-        <v>202.3141627302905</v>
+        <v>202.3141627302904</v>
       </c>
       <c r="D20" t="n">
         <v>193.2954667748184</v>
       </c>
       <c r="E20" t="n">
-        <v>215.037604344724</v>
+        <v>215.0376043447239</v>
       </c>
       <c r="F20" t="n">
         <v>234.2094204327011</v>
@@ -2096,7 +2096,7 @@
         <v>236.1261114288476</v>
       </c>
       <c r="H20" t="n">
-        <v>153.5230351182403</v>
+        <v>153.5230351182402</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>9.178681127891553</v>
+        <v>9.178681127891496</v>
       </c>
       <c r="T20" t="n">
-        <v>46.24253307073284</v>
+        <v>46.24253307073278</v>
       </c>
       <c r="U20" t="n">
-        <v>76.53489842081359</v>
+        <v>76.53489842081353</v>
       </c>
       <c r="V20" t="n">
         <v>157.8092230127878</v>
@@ -2144,7 +2144,7 @@
         <v>183.1093224907447</v>
       </c>
       <c r="X20" t="n">
-        <v>202.4095807234914</v>
+        <v>202.4095807234913</v>
       </c>
       <c r="Y20" t="n">
         <v>213.8061785196901</v>
@@ -2178,7 +2178,7 @@
         <v>98.85281891431895</v>
       </c>
       <c r="I21" t="n">
-        <v>67.39308974070319</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>58.63574390140148</v>
       </c>
       <c r="S21" t="n">
         <v>151.1067464546052</v>
@@ -2220,7 +2220,7 @@
         <v>226.1116663261494</v>
       </c>
       <c r="W21" t="n">
-        <v>143.1299769586799</v>
+        <v>151.8873227979803</v>
       </c>
       <c r="X21" t="n">
         <v>195.9378182409833</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>5.919556647305797</v>
+        <v>5.91955664730574</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2260,7 +2260,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>40.76637035099453</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>35.64282043099023</v>
+        <v>76.40919078198523</v>
       </c>
       <c r="T22" t="n">
-        <v>55.01513404043731</v>
+        <v>55.01513404043725</v>
       </c>
       <c r="U22" t="n">
-        <v>108.5176731749846</v>
+        <v>108.5176731749845</v>
       </c>
       <c r="V22" t="n">
-        <v>82.32769304693139</v>
+        <v>82.32769304693133</v>
       </c>
       <c r="W22" t="n">
         <v>107.4945791175446</v>
       </c>
       <c r="X22" t="n">
-        <v>53.13968111334776</v>
+        <v>53.13968111334771</v>
       </c>
       <c r="Y22" t="n">
-        <v>44.01454886941545</v>
+        <v>44.01454886941539</v>
       </c>
     </row>
     <row r="23">
@@ -2318,13 +2318,13 @@
         <v>214.3028457726087</v>
       </c>
       <c r="C23" t="n">
-        <v>202.3141627302905</v>
+        <v>202.3141627302904</v>
       </c>
       <c r="D23" t="n">
         <v>193.2954667748184</v>
       </c>
       <c r="E23" t="n">
-        <v>215.037604344724</v>
+        <v>215.0376043447239</v>
       </c>
       <c r="F23" t="n">
         <v>234.2094204327011</v>
@@ -2333,7 +2333,7 @@
         <v>236.1261114288476</v>
       </c>
       <c r="H23" t="n">
-        <v>153.5230351182403</v>
+        <v>153.5230351182402</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>9.178681127891565</v>
+        <v>9.178681127891508</v>
       </c>
       <c r="T23" t="n">
-        <v>46.24253307073283</v>
+        <v>46.24253307073278</v>
       </c>
       <c r="U23" t="n">
-        <v>76.53489842081359</v>
+        <v>76.53489842081353</v>
       </c>
       <c r="V23" t="n">
         <v>157.8092230127878</v>
@@ -2381,7 +2381,7 @@
         <v>183.1093224907447</v>
       </c>
       <c r="X23" t="n">
-        <v>202.4095807234914</v>
+        <v>202.4095807234913</v>
       </c>
       <c r="Y23" t="n">
         <v>213.8061785196901</v>
@@ -2415,7 +2415,7 @@
         <v>98.85281891431895</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>67.39308974070319</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>58.63574390140148</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>151.1067464546052</v>
@@ -2451,10 +2451,10 @@
         <v>186.7625027923461</v>
       </c>
       <c r="U24" t="n">
-        <v>216.3092609629287</v>
+        <v>120.5365278425857</v>
       </c>
       <c r="V24" t="n">
-        <v>139.0962790451081</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W24" t="n">
         <v>238.9027100790231</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>5.919556647305797</v>
+        <v>5.91955664730574</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>35.64282043099023</v>
+        <v>76.40919078198523</v>
       </c>
       <c r="T25" t="n">
-        <v>55.01513404043731</v>
+        <v>55.01513404043725</v>
       </c>
       <c r="U25" t="n">
-        <v>108.5176731749846</v>
+        <v>108.5176731749845</v>
       </c>
       <c r="V25" t="n">
-        <v>82.32769304693139</v>
+        <v>82.32769304693133</v>
       </c>
       <c r="W25" t="n">
-        <v>148.2609494685392</v>
+        <v>107.4945791175446</v>
       </c>
       <c r="X25" t="n">
-        <v>53.13968111334776</v>
+        <v>53.13968111334771</v>
       </c>
       <c r="Y25" t="n">
-        <v>44.01454886941545</v>
+        <v>44.01454886941539</v>
       </c>
     </row>
     <row r="26">
@@ -2555,7 +2555,7 @@
         <v>277.0092604360253</v>
       </c>
       <c r="C26" t="n">
-        <v>265.020577393707</v>
+        <v>265.0205773937071</v>
       </c>
       <c r="D26" t="n">
         <v>256.001881438235</v>
@@ -2573,7 +2573,7 @@
         <v>216.2294497816569</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>57.35610213003372</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>71.88509579130813</v>
       </c>
       <c r="T26" t="n">
-        <v>44.35568456548764</v>
+        <v>108.9489477341494</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>82.67813209310519</v>
       </c>
       <c r="V26" t="n">
         <v>220.5156376762044</v>
@@ -2621,7 +2621,7 @@
         <v>265.1159953869079</v>
       </c>
       <c r="Y26" t="n">
-        <v>276.5125931831067</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>68.62597131072235</v>
+        <v>68.62597131072238</v>
       </c>
       <c r="C28" t="n">
-        <v>54.82596615612283</v>
+        <v>54.82596615612286</v>
       </c>
       <c r="D28" t="n">
-        <v>38.44733055370122</v>
+        <v>38.44733055370125</v>
       </c>
       <c r="E28" t="n">
-        <v>37.39508040948067</v>
+        <v>37.3950804094807</v>
       </c>
       <c r="F28" t="n">
-        <v>37.86200473766698</v>
+        <v>37.86200473766701</v>
       </c>
       <c r="G28" t="n">
-        <v>54.12927163178259</v>
+        <v>54.12927163178262</v>
       </c>
       <c r="H28" t="n">
-        <v>44.61896381776782</v>
+        <v>44.61896381776785</v>
       </c>
       <c r="I28" t="n">
-        <v>29.44355466213278</v>
+        <v>29.44355466213281</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,19 +2758,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>34.59837805321934</v>
+        <v>34.59837805321936</v>
       </c>
       <c r="S28" t="n">
-        <v>98.34923509440678</v>
+        <v>98.34923509440682</v>
       </c>
       <c r="T28" t="n">
         <v>117.7215487038539</v>
       </c>
       <c r="U28" t="n">
-        <v>171.2240878384011</v>
+        <v>171.2240878384012</v>
       </c>
       <c r="V28" t="n">
-        <v>145.0341077103479</v>
+        <v>145.034107710348</v>
       </c>
       <c r="W28" t="n">
         <v>170.2009937809612</v>
@@ -2792,7 +2792,7 @@
         <v>277.0092604360253</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>265.020577393707</v>
       </c>
       <c r="D29" t="n">
         <v>256.001881438235</v>
@@ -2807,10 +2807,10 @@
         <v>298.8325260922642</v>
       </c>
       <c r="H29" t="n">
-        <v>216.2294497816569</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>57.35610213003365</v>
+        <v>12.39487352876744</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,19 +2840,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>71.88509579130809</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>108.9489477341494</v>
       </c>
       <c r="U29" t="n">
-        <v>139.2413130842301</v>
+        <v>139.2413130842302</v>
       </c>
       <c r="V29" t="n">
         <v>220.5156376762044</v>
       </c>
       <c r="W29" t="n">
-        <v>177.7605403736344</v>
+        <v>245.8157371541613</v>
       </c>
       <c r="X29" t="n">
         <v>265.1159953869079</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.62597131072235</v>
+        <v>68.62597131072236</v>
       </c>
       <c r="C31" t="n">
-        <v>54.82596615612283</v>
+        <v>54.82596615612285</v>
       </c>
       <c r="D31" t="n">
-        <v>38.44733055370122</v>
+        <v>38.44733055370124</v>
       </c>
       <c r="E31" t="n">
-        <v>37.39508040948067</v>
+        <v>37.39508040948068</v>
       </c>
       <c r="F31" t="n">
-        <v>37.86200473766698</v>
+        <v>37.86200473766699</v>
       </c>
       <c r="G31" t="n">
-        <v>54.12927163178259</v>
+        <v>54.12927163178261</v>
       </c>
       <c r="H31" t="n">
-        <v>44.61896381776782</v>
+        <v>44.61896381776783</v>
       </c>
       <c r="I31" t="n">
-        <v>29.44355466213277</v>
+        <v>29.44355466213278</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>34.59837805321931</v>
+        <v>34.59837805321933</v>
       </c>
       <c r="S31" t="n">
-        <v>98.34923509440678</v>
+        <v>98.34923509440679</v>
       </c>
       <c r="T31" t="n">
         <v>117.7215487038539</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>244.9069251095645</v>
+        <v>244.9069251095644</v>
       </c>
       <c r="C32" t="n">
         <v>232.9182420672462</v>
       </c>
       <c r="D32" t="n">
-        <v>223.8995461117742</v>
+        <v>223.8995461117741</v>
       </c>
       <c r="E32" t="n">
         <v>245.6416836816797</v>
       </c>
       <c r="F32" t="n">
-        <v>264.8134997696569</v>
+        <v>264.8134997696568</v>
       </c>
       <c r="G32" t="n">
-        <v>266.7301907658034</v>
+        <v>266.7301907658033</v>
       </c>
       <c r="H32" t="n">
-        <v>184.1271144551961</v>
+        <v>184.127114455196</v>
       </c>
       <c r="I32" t="n">
-        <v>25.25376680357289</v>
+        <v>25.25376680357283</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>39.78276046484731</v>
+        <v>39.78276046484726</v>
       </c>
       <c r="T32" t="n">
-        <v>76.84661240768858</v>
+        <v>76.84661240768853</v>
       </c>
       <c r="U32" t="n">
         <v>107.1389777577693</v>
       </c>
       <c r="V32" t="n">
-        <v>188.4133023497436</v>
+        <v>188.4133023497435</v>
       </c>
       <c r="W32" t="n">
-        <v>213.7134018277005</v>
+        <v>213.7134018277004</v>
       </c>
       <c r="X32" t="n">
         <v>233.0136600604471</v>
       </c>
       <c r="Y32" t="n">
-        <v>244.4102578566459</v>
+        <v>244.4102578566458</v>
       </c>
     </row>
     <row r="33">
@@ -3184,25 +3184,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>36.52363598426155</v>
+        <v>36.52363598426149</v>
       </c>
       <c r="C34" t="n">
-        <v>22.72363082966203</v>
+        <v>22.72363082966197</v>
       </c>
       <c r="D34" t="n">
-        <v>6.344995227240418</v>
+        <v>6.344995227240361</v>
       </c>
       <c r="E34" t="n">
-        <v>5.292745083019867</v>
+        <v>5.29274508301981</v>
       </c>
       <c r="F34" t="n">
-        <v>5.759669411206175</v>
+        <v>5.759669411206119</v>
       </c>
       <c r="G34" t="n">
-        <v>22.02693630532179</v>
+        <v>22.02693630532173</v>
       </c>
       <c r="H34" t="n">
-        <v>12.51662849130702</v>
+        <v>12.51662849130696</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>2.496042726758529</v>
+        <v>2.496042726758472</v>
       </c>
       <c r="S34" t="n">
-        <v>66.24689976794598</v>
+        <v>66.24689976794592</v>
       </c>
       <c r="T34" t="n">
-        <v>85.61921337739305</v>
+        <v>85.619213377393</v>
       </c>
       <c r="U34" t="n">
         <v>139.1217525119403</v>
@@ -3247,13 +3247,13 @@
         <v>112.9317723838871</v>
       </c>
       <c r="W34" t="n">
-        <v>138.0986584545004</v>
+        <v>138.0986584545003</v>
       </c>
       <c r="X34" t="n">
-        <v>83.74376045030351</v>
+        <v>83.74376045030345</v>
       </c>
       <c r="Y34" t="n">
-        <v>74.6186282063712</v>
+        <v>74.61862820637114</v>
       </c>
     </row>
     <row r="35">
@@ -3281,10 +3281,10 @@
         <v>246.7766973991895</v>
       </c>
       <c r="H35" t="n">
-        <v>164.1736210885821</v>
+        <v>164.1736210885822</v>
       </c>
       <c r="I35" t="n">
-        <v>5.300273436958975</v>
+        <v>5.300273436959003</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>19.8292670982334</v>
+        <v>19.82926709823342</v>
       </c>
       <c r="T35" t="n">
-        <v>56.89311904107467</v>
+        <v>56.8931190410747</v>
       </c>
       <c r="U35" t="n">
-        <v>87.18548439115543</v>
+        <v>87.18548439115546</v>
       </c>
       <c r="V35" t="n">
         <v>168.4598089831297</v>
@@ -3354,7 +3354,7 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F36" t="n">
-        <v>133.346860069625</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G36" t="n">
         <v>127.4323455528363</v>
@@ -3393,7 +3393,7 @@
         <v>58.63574390140148</v>
       </c>
       <c r="S36" t="n">
-        <v>151.1067464546052</v>
+        <v>151.106746454606</v>
       </c>
       <c r="T36" t="n">
         <v>186.7625027923461</v>
@@ -3421,10 +3421,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>16.57014261764763</v>
+        <v>16.57014261764766</v>
       </c>
       <c r="C37" t="n">
-        <v>2.770137463048115</v>
+        <v>2.770137463048144</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3436,7 +3436,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.073442938707875</v>
+        <v>2.073442938707903</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>46.29340640133206</v>
+        <v>46.29340640133209</v>
       </c>
       <c r="T37" t="n">
-        <v>65.66572001077914</v>
+        <v>65.66572001077917</v>
       </c>
       <c r="U37" t="n">
         <v>119.1682591453264</v>
       </c>
       <c r="V37" t="n">
-        <v>92.97827901727322</v>
+        <v>92.97827901727325</v>
       </c>
       <c r="W37" t="n">
         <v>118.1451650878865</v>
       </c>
       <c r="X37" t="n">
-        <v>63.7902670836896</v>
+        <v>63.79026708368963</v>
       </c>
       <c r="Y37" t="n">
-        <v>54.66513483975729</v>
+        <v>54.66513483975731</v>
       </c>
     </row>
     <row r="38">
@@ -3500,28 +3500,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>224.9534317429507</v>
+        <v>224.9534317429506</v>
       </c>
       <c r="C38" t="n">
-        <v>212.9647487006324</v>
+        <v>212.9647487006323</v>
       </c>
       <c r="D38" t="n">
-        <v>203.9460527451604</v>
+        <v>203.9460527451603</v>
       </c>
       <c r="E38" t="n">
-        <v>225.688190315066</v>
+        <v>225.6881903150658</v>
       </c>
       <c r="F38" t="n">
-        <v>244.8600064030431</v>
+        <v>244.860006403043</v>
       </c>
       <c r="G38" t="n">
-        <v>246.7766973991896</v>
+        <v>246.7766973991895</v>
       </c>
       <c r="H38" t="n">
-        <v>164.1736210885823</v>
+        <v>164.1736210885822</v>
       </c>
       <c r="I38" t="n">
-        <v>5.300273436959117</v>
+        <v>5.300273436959003</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>19.82926709823354</v>
+        <v>19.82926709823342</v>
       </c>
       <c r="T38" t="n">
-        <v>56.89311904107481</v>
+        <v>56.8931190410747</v>
       </c>
       <c r="U38" t="n">
-        <v>87.18548439115557</v>
+        <v>87.18548439115546</v>
       </c>
       <c r="V38" t="n">
-        <v>168.4598089831298</v>
+        <v>168.4598089831297</v>
       </c>
       <c r="W38" t="n">
-        <v>193.7599084610867</v>
+        <v>193.7599084610866</v>
       </c>
       <c r="X38" t="n">
-        <v>213.0601666938333</v>
+        <v>213.0601666938332</v>
       </c>
       <c r="Y38" t="n">
-        <v>224.4567644900321</v>
+        <v>224.456764490032</v>
       </c>
     </row>
     <row r="39">
@@ -3600,7 +3600,7 @@
         <v>98.85281891431895</v>
       </c>
       <c r="I39" t="n">
-        <v>67.39308974070426</v>
+        <v>67.39308974070319</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,10 +3627,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>58.63574390140149</v>
+        <v>58.63574390140148</v>
       </c>
       <c r="S39" t="n">
-        <v>151.1067464546052</v>
+        <v>151.106746454606</v>
       </c>
       <c r="T39" t="n">
         <v>186.7625027923461</v>
@@ -3658,10 +3658,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>16.57014261764778</v>
+        <v>16.57014261764766</v>
       </c>
       <c r="C40" t="n">
-        <v>2.770137463048258</v>
+        <v>2.770137463048144</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3673,7 +3673,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.073442938708017</v>
+        <v>2.073442938707903</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>46.29340640133221</v>
+        <v>46.29340640133209</v>
       </c>
       <c r="T40" t="n">
-        <v>65.66572001077928</v>
+        <v>65.66572001077917</v>
       </c>
       <c r="U40" t="n">
-        <v>119.1682591453266</v>
+        <v>119.1682591453264</v>
       </c>
       <c r="V40" t="n">
-        <v>92.97827901727337</v>
+        <v>92.97827901727325</v>
       </c>
       <c r="W40" t="n">
-        <v>118.1451650878866</v>
+        <v>118.1451650878865</v>
       </c>
       <c r="X40" t="n">
-        <v>63.79026708368974</v>
+        <v>63.79026708368963</v>
       </c>
       <c r="Y40" t="n">
-        <v>54.66513483975743</v>
+        <v>54.66513483975731</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3758,7 @@
         <v>164.1736210885822</v>
       </c>
       <c r="I41" t="n">
-        <v>5.300273436958975</v>
+        <v>5.300273436959003</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>19.82926709823339</v>
+        <v>19.82926709823342</v>
       </c>
       <c r="T41" t="n">
-        <v>56.89311904107468</v>
+        <v>56.8931190410747</v>
       </c>
       <c r="U41" t="n">
-        <v>87.18548439115543</v>
+        <v>87.18548439115546</v>
       </c>
       <c r="V41" t="n">
         <v>168.4598089831297</v>
@@ -3834,7 +3834,7 @@
         <v>127.4323455528363</v>
       </c>
       <c r="H42" t="n">
-        <v>98.85281891431895</v>
+        <v>98.85281891432001</v>
       </c>
       <c r="I42" t="n">
         <v>67.39308974070319</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>58.63574390140149</v>
+        <v>58.63574390140148</v>
       </c>
       <c r="S42" t="n">
         <v>151.1067464546052</v>
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16.57014261764763</v>
+        <v>16.57014261764766</v>
       </c>
       <c r="C43" t="n">
-        <v>2.770137463048115</v>
+        <v>2.770137463048144</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3910,7 +3910,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.073442938707875</v>
+        <v>2.073442938707903</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>46.29340640133206</v>
+        <v>46.29340640133209</v>
       </c>
       <c r="T43" t="n">
-        <v>65.66572001077914</v>
+        <v>65.66572001077917</v>
       </c>
       <c r="U43" t="n">
         <v>119.1682591453264</v>
       </c>
       <c r="V43" t="n">
-        <v>92.97827901727322</v>
+        <v>92.97827901727325</v>
       </c>
       <c r="W43" t="n">
         <v>118.1451650878865</v>
       </c>
       <c r="X43" t="n">
-        <v>63.7902670836896</v>
+        <v>63.79026708368963</v>
       </c>
       <c r="Y43" t="n">
-        <v>54.66513483975729</v>
+        <v>54.66513483975731</v>
       </c>
     </row>
     <row r="44">
@@ -3977,13 +3977,13 @@
         <v>224.9534317429506</v>
       </c>
       <c r="C44" t="n">
-        <v>212.9647487006323</v>
+        <v>212.9647487006324</v>
       </c>
       <c r="D44" t="n">
         <v>203.9460527451603</v>
       </c>
       <c r="E44" t="n">
-        <v>225.6881903150658</v>
+        <v>225.6881903150659</v>
       </c>
       <c r="F44" t="n">
         <v>244.860006403043</v>
@@ -3992,10 +3992,10 @@
         <v>246.7766973991895</v>
       </c>
       <c r="H44" t="n">
-        <v>164.1736210885821</v>
+        <v>164.1736210885822</v>
       </c>
       <c r="I44" t="n">
-        <v>5.300273436958975</v>
+        <v>5.300273436957686</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>19.8292670982334</v>
+        <v>19.82926709823346</v>
       </c>
       <c r="T44" t="n">
-        <v>56.89311904107467</v>
+        <v>56.89311904107473</v>
       </c>
       <c r="U44" t="n">
-        <v>87.18548439115543</v>
+        <v>87.18548439115548</v>
       </c>
       <c r="V44" t="n">
         <v>168.4598089831297</v>
@@ -4040,7 +4040,7 @@
         <v>193.7599084610866</v>
       </c>
       <c r="X44" t="n">
-        <v>213.0601666938332</v>
+        <v>213.0601666938333</v>
       </c>
       <c r="Y44" t="n">
         <v>224.456764490032</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>58.63574390140238</v>
+        <v>58.63574390140149</v>
       </c>
       <c r="S45" t="n">
         <v>151.1067464546052</v>
@@ -4132,10 +4132,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.57014261764763</v>
+        <v>16.57014261764769</v>
       </c>
       <c r="C46" t="n">
-        <v>2.770137463048115</v>
+        <v>2.770137463048172</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4147,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.073442938707875</v>
+        <v>2.073442938707932</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>46.29340640133206</v>
+        <v>46.29340640133212</v>
       </c>
       <c r="T46" t="n">
-        <v>65.66572001077914</v>
+        <v>65.6657200107792</v>
       </c>
       <c r="U46" t="n">
-        <v>119.1682591453264</v>
+        <v>119.1682591453265</v>
       </c>
       <c r="V46" t="n">
-        <v>92.97827901727322</v>
+        <v>92.97827901727328</v>
       </c>
       <c r="W46" t="n">
         <v>118.1451650878865</v>
       </c>
       <c r="X46" t="n">
-        <v>63.7902670836896</v>
+        <v>63.79026708368966</v>
       </c>
       <c r="Y46" t="n">
-        <v>54.66513483975729</v>
+        <v>54.66513483975734</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>687.9397543960242</v>
+        <v>637.9958435128586</v>
       </c>
       <c r="C2" t="n">
-        <v>306.0059957288316</v>
+        <v>637.9958435128586</v>
       </c>
       <c r="D2" t="n">
-        <v>306.0059957288316</v>
+        <v>637.9958435128586</v>
       </c>
       <c r="E2" t="n">
-        <v>306.0059957288316</v>
+        <v>637.9958435128586</v>
       </c>
       <c r="F2" t="n">
-        <v>295.895209079406</v>
+        <v>627.8850568634331</v>
       </c>
       <c r="G2" t="n">
-        <v>211.7810703176212</v>
+        <v>211.7810703176211</v>
       </c>
       <c r="H2" t="n">
-        <v>211.7810703176212</v>
+        <v>211.7810703176211</v>
       </c>
       <c r="I2" t="n">
-        <v>38.96387152641717</v>
+        <v>38.9638715264171</v>
       </c>
       <c r="J2" t="n">
-        <v>110.9624157992228</v>
+        <v>38.9638715264171</v>
       </c>
       <c r="K2" t="n">
-        <v>201.1439436796845</v>
+        <v>279.1042435711998</v>
       </c>
       <c r="L2" t="n">
-        <v>549.0293167646307</v>
+        <v>626.9896166561462</v>
       </c>
       <c r="M2" t="n">
-        <v>942.2684830177186</v>
+        <v>942.268483017715</v>
       </c>
       <c r="N2" t="n">
-        <v>1320.599841705434</v>
+        <v>1320.599841705431</v>
       </c>
       <c r="O2" t="n">
-        <v>1625.604426178268</v>
+        <v>1625.604426178265</v>
       </c>
       <c r="P2" t="n">
-        <v>1853.761322634321</v>
+        <v>1853.761322634318</v>
       </c>
       <c r="Q2" t="n">
-        <v>1948.193576320858</v>
+        <v>1948.193576320855</v>
       </c>
       <c r="R2" t="n">
-        <v>1857.555289816712</v>
+        <v>1857.555289816708</v>
       </c>
       <c r="S2" t="n">
-        <v>1857.555289816712</v>
+        <v>1670.326314447062</v>
       </c>
       <c r="T2" t="n">
-        <v>1857.555289816712</v>
+        <v>1445.967368178073</v>
       </c>
       <c r="U2" t="n">
-        <v>1857.555289816712</v>
+        <v>1191.082031892067</v>
       </c>
       <c r="V2" t="n">
-        <v>1857.555289816712</v>
+        <v>854.1027577880086</v>
       </c>
       <c r="W2" t="n">
-        <v>1857.555289816712</v>
+        <v>854.1027577880086</v>
       </c>
       <c r="X2" t="n">
-        <v>1475.525149338205</v>
+        <v>637.9958435128586</v>
       </c>
       <c r="Y2" t="n">
-        <v>1081.983293914043</v>
+        <v>637.9958435128586</v>
       </c>
     </row>
     <row r="3">
@@ -4383,7 +4383,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>756.5729592694159</v>
+        <v>918.2766320284612</v>
       </c>
       <c r="C3" t="n">
         <v>756.5729592694159</v>
@@ -4392,67 +4392,67 @@
         <v>617.734322259628</v>
       </c>
       <c r="E3" t="n">
-        <v>470.7063123164993</v>
+        <v>470.7063123164992</v>
       </c>
       <c r="F3" t="n">
-        <v>336.0125142663736</v>
+        <v>336.0125142663735</v>
       </c>
       <c r="G3" t="n">
-        <v>207.2840142896582</v>
+        <v>207.284014289658</v>
       </c>
       <c r="H3" t="n">
-        <v>107.3461568363562</v>
+        <v>107.3461568363561</v>
       </c>
       <c r="I3" t="n">
-        <v>38.96387152641717</v>
+        <v>38.9638715264171</v>
       </c>
       <c r="J3" t="n">
-        <v>99.21801805952332</v>
+        <v>38.9638715264171</v>
       </c>
       <c r="K3" t="n">
-        <v>99.21801805952332</v>
+        <v>38.9638715264171</v>
       </c>
       <c r="L3" t="n">
-        <v>465.039863229639</v>
+        <v>404.7857166965327</v>
       </c>
       <c r="M3" t="n">
-        <v>613.9481663360036</v>
+        <v>771.7197961215952</v>
       </c>
       <c r="N3" t="n">
-        <v>1096.126076475416</v>
+        <v>1253.897706261007</v>
       </c>
       <c r="O3" t="n">
-        <v>1488.326027259567</v>
+        <v>1646.097657045158</v>
       </c>
       <c r="P3" t="n">
-        <v>1790.421946535264</v>
+        <v>1948.193576320855</v>
       </c>
       <c r="Q3" t="n">
-        <v>1948.193576320858</v>
+        <v>1948.193576320855</v>
       </c>
       <c r="R3" t="n">
-        <v>1888.409307415804</v>
+        <v>1948.193576320855</v>
       </c>
       <c r="S3" t="n">
-        <v>1805.407868894413</v>
+        <v>1885.21511566803</v>
       </c>
       <c r="T3" t="n">
-        <v>1616.722765060398</v>
+        <v>1696.530011834015</v>
       </c>
       <c r="U3" t="n">
-        <v>1616.722765060398</v>
+        <v>1696.530011834015</v>
       </c>
       <c r="V3" t="n">
-        <v>1388.327142508732</v>
+        <v>1468.134389282349</v>
       </c>
       <c r="W3" t="n">
-        <v>1147.011273742042</v>
+        <v>1468.134389282349</v>
       </c>
       <c r="X3" t="n">
-        <v>949.0942856198371</v>
+        <v>1270.217401160143</v>
       </c>
       <c r="Y3" t="n">
-        <v>756.5729592694159</v>
+        <v>1077.696074809722</v>
       </c>
     </row>
     <row r="4">
@@ -4462,37 +4462,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>571.0231167723497</v>
+        <v>571.0231167723496</v>
       </c>
       <c r="C4" t="n">
-        <v>571.0231167723497</v>
+        <v>519.7369203535161</v>
       </c>
       <c r="D4" t="n">
-        <v>571.0231167723497</v>
+        <v>519.7369203535161</v>
       </c>
       <c r="E4" t="n">
-        <v>419.0141025336685</v>
+        <v>519.7369203535161</v>
       </c>
       <c r="F4" t="n">
-        <v>266.5334475594456</v>
+        <v>367.2562653792933</v>
       </c>
       <c r="G4" t="n">
-        <v>99.02111011224446</v>
+        <v>198.3365167471433</v>
       </c>
       <c r="H4" t="n">
-        <v>99.02111011224446</v>
+        <v>38.9638715264171</v>
       </c>
       <c r="I4" t="n">
-        <v>99.02111011224446</v>
+        <v>38.9638715264171</v>
       </c>
       <c r="J4" t="n">
-        <v>38.96387152641717</v>
+        <v>38.9638715264171</v>
       </c>
       <c r="K4" t="n">
-        <v>72.56805927106058</v>
+        <v>72.56805927106052</v>
       </c>
       <c r="L4" t="n">
-        <v>173.1751386713201</v>
+        <v>173.17513867132</v>
       </c>
       <c r="M4" t="n">
         <v>291.1686447989218</v>
@@ -4501,37 +4501,37 @@
         <v>409.5909865485222</v>
       </c>
       <c r="O4" t="n">
-        <v>508.0546330442119</v>
+        <v>508.0546330442118</v>
       </c>
       <c r="P4" t="n">
-        <v>571.0231167723497</v>
+        <v>571.0231167723496</v>
       </c>
       <c r="Q4" t="n">
-        <v>571.0231167723497</v>
+        <v>571.0231167723496</v>
       </c>
       <c r="R4" t="n">
-        <v>571.0231167723497</v>
+        <v>571.0231167723496</v>
       </c>
       <c r="S4" t="n">
-        <v>571.0231167723497</v>
+        <v>571.0231167723496</v>
       </c>
       <c r="T4" t="n">
-        <v>571.0231167723497</v>
+        <v>571.0231167723496</v>
       </c>
       <c r="U4" t="n">
-        <v>571.0231167723497</v>
+        <v>571.0231167723496</v>
       </c>
       <c r="V4" t="n">
-        <v>571.0231167723497</v>
+        <v>571.0231167723496</v>
       </c>
       <c r="W4" t="n">
-        <v>571.0231167723497</v>
+        <v>571.0231167723496</v>
       </c>
       <c r="X4" t="n">
-        <v>571.0231167723497</v>
+        <v>571.0231167723496</v>
       </c>
       <c r="Y4" t="n">
-        <v>571.0231167723497</v>
+        <v>571.0231167723496</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1857.555289816712</v>
+        <v>936.7297703744309</v>
       </c>
       <c r="C5" t="n">
-        <v>1636.828733428728</v>
+        <v>936.7297703744309</v>
       </c>
       <c r="D5" t="n">
-        <v>1264.004768655952</v>
+        <v>936.7297703744309</v>
       </c>
       <c r="E5" t="n">
-        <v>869.2190487620588</v>
+        <v>936.7297703744309</v>
       </c>
       <c r="F5" t="n">
-        <v>455.0678580722292</v>
+        <v>522.5785796846012</v>
       </c>
       <c r="G5" t="n">
-        <v>38.96387152641717</v>
+        <v>106.4745931387892</v>
       </c>
       <c r="H5" t="n">
-        <v>38.96387152641717</v>
+        <v>38.9638715264171</v>
       </c>
       <c r="I5" t="n">
-        <v>38.96387152641717</v>
+        <v>38.9638715264171</v>
       </c>
       <c r="J5" t="n">
         <v>110.9624157992228</v>
       </c>
       <c r="K5" t="n">
-        <v>351.1027878440056</v>
+        <v>201.1439436796808</v>
       </c>
       <c r="L5" t="n">
-        <v>698.9881609289519</v>
+        <v>549.0293167646271</v>
       </c>
       <c r="M5" t="n">
-        <v>1092.22732718204</v>
+        <v>942.268483017715</v>
       </c>
       <c r="N5" t="n">
-        <v>1320.599841705434</v>
+        <v>1320.599841705431</v>
       </c>
       <c r="O5" t="n">
-        <v>1625.604426178268</v>
+        <v>1625.604426178265</v>
       </c>
       <c r="P5" t="n">
-        <v>1853.761322634321</v>
+        <v>1853.761322634318</v>
       </c>
       <c r="Q5" t="n">
-        <v>1948.193576320858</v>
+        <v>1948.193576320855</v>
       </c>
       <c r="R5" t="n">
-        <v>1857.555289816712</v>
+        <v>1948.193576320855</v>
       </c>
       <c r="S5" t="n">
-        <v>1857.555289816712</v>
+        <v>1948.193576320855</v>
       </c>
       <c r="T5" t="n">
-        <v>1857.555289816712</v>
+        <v>1948.193576320855</v>
       </c>
       <c r="U5" t="n">
-        <v>1857.555289816712</v>
+        <v>1693.308240034849</v>
       </c>
       <c r="V5" t="n">
-        <v>1857.555289816712</v>
+        <v>1693.308240034849</v>
       </c>
       <c r="W5" t="n">
-        <v>1857.555289816712</v>
+        <v>1330.77330989245</v>
       </c>
       <c r="X5" t="n">
-        <v>1857.555289816712</v>
+        <v>1330.77330989245</v>
       </c>
       <c r="Y5" t="n">
-        <v>1857.555289816712</v>
+        <v>1330.77330989245</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>308.8606756205962</v>
+        <v>521.4444315129067</v>
       </c>
       <c r="C6" t="n">
-        <v>147.1570028615509</v>
+        <v>521.4444315129067</v>
       </c>
       <c r="D6" t="n">
-        <v>107.3461568363562</v>
+        <v>382.6057945031188</v>
       </c>
       <c r="E6" t="n">
-        <v>107.3461568363562</v>
+        <v>235.57778455999</v>
       </c>
       <c r="F6" t="n">
-        <v>107.3461568363562</v>
+        <v>107.3461568363561</v>
       </c>
       <c r="G6" t="n">
-        <v>107.3461568363562</v>
+        <v>107.3461568363561</v>
       </c>
       <c r="H6" t="n">
-        <v>107.3461568363562</v>
+        <v>107.3461568363561</v>
       </c>
       <c r="I6" t="n">
-        <v>38.96387152641717</v>
+        <v>38.9638715264171</v>
       </c>
       <c r="J6" t="n">
-        <v>99.21801805952332</v>
+        <v>38.9638715264171</v>
       </c>
       <c r="K6" t="n">
-        <v>328.708570619712</v>
+        <v>268.4544240866057</v>
       </c>
       <c r="L6" t="n">
-        <v>694.5304157898277</v>
+        <v>634.2762692567214</v>
       </c>
       <c r="M6" t="n">
-        <v>1163.919746905749</v>
+        <v>771.7197961215952</v>
       </c>
       <c r="N6" t="n">
-        <v>1646.097657045161</v>
+        <v>1253.897706261007</v>
       </c>
       <c r="O6" t="n">
-        <v>1646.097657045161</v>
+        <v>1646.097657045158</v>
       </c>
       <c r="P6" t="n">
-        <v>1948.193576320858</v>
+        <v>1948.193576320855</v>
       </c>
       <c r="Q6" t="n">
-        <v>1948.193576320858</v>
+        <v>1948.193576320855</v>
       </c>
       <c r="R6" t="n">
-        <v>1888.409307415804</v>
+        <v>1948.193576320855</v>
       </c>
       <c r="S6" t="n">
-        <v>1735.609820428544</v>
+        <v>1948.193576320855</v>
       </c>
       <c r="T6" t="n">
-        <v>1546.92471659453</v>
+        <v>1759.50847248684</v>
       </c>
       <c r="U6" t="n">
-        <v>1328.42992419284</v>
+        <v>1541.01368008515</v>
       </c>
       <c r="V6" t="n">
-        <v>1100.034301641174</v>
+        <v>1312.618057533484</v>
       </c>
       <c r="W6" t="n">
-        <v>858.7184328744837</v>
+        <v>1071.302188766794</v>
       </c>
       <c r="X6" t="n">
-        <v>660.8014447522783</v>
+        <v>873.3852006445887</v>
       </c>
       <c r="Y6" t="n">
-        <v>468.2801184018571</v>
+        <v>680.8638742941675</v>
       </c>
     </row>
     <row r="7">
@@ -4699,37 +4699,37 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>360.9555133308045</v>
+        <v>519.2652796179744</v>
       </c>
       <c r="C7" t="n">
-        <v>360.9555133308045</v>
+        <v>519.2652796179744</v>
       </c>
       <c r="D7" t="n">
-        <v>207.8836201585672</v>
+        <v>519.2652796179744</v>
       </c>
       <c r="E7" t="n">
-        <v>207.8836201585672</v>
+        <v>367.2562653792933</v>
       </c>
       <c r="F7" t="n">
-        <v>207.8836201585672</v>
+        <v>367.2562653792933</v>
       </c>
       <c r="G7" t="n">
-        <v>38.96387152641717</v>
+        <v>198.3365167471433</v>
       </c>
       <c r="H7" t="n">
-        <v>38.96387152641717</v>
+        <v>38.9638715264171</v>
       </c>
       <c r="I7" t="n">
-        <v>38.96387152641717</v>
+        <v>38.9638715264171</v>
       </c>
       <c r="J7" t="n">
-        <v>38.96387152641717</v>
+        <v>38.9638715264171</v>
       </c>
       <c r="K7" t="n">
-        <v>72.56805927106058</v>
+        <v>72.56805927106052</v>
       </c>
       <c r="L7" t="n">
-        <v>173.1751386713201</v>
+        <v>173.17513867132</v>
       </c>
       <c r="M7" t="n">
         <v>291.1686447989218</v>
@@ -4738,37 +4738,37 @@
         <v>409.5909865485222</v>
       </c>
       <c r="O7" t="n">
-        <v>508.0546330442119</v>
+        <v>508.0546330442118</v>
       </c>
       <c r="P7" t="n">
-        <v>571.0231167723497</v>
+        <v>571.0231167723496</v>
       </c>
       <c r="Q7" t="n">
-        <v>571.0231167723497</v>
+        <v>571.0231167723496</v>
       </c>
       <c r="R7" t="n">
-        <v>571.0231167723497</v>
+        <v>571.0231167723496</v>
       </c>
       <c r="S7" t="n">
-        <v>571.0231167723497</v>
+        <v>571.0231167723496</v>
       </c>
       <c r="T7" t="n">
-        <v>571.0231167723497</v>
+        <v>571.0231167723496</v>
       </c>
       <c r="U7" t="n">
-        <v>571.0231167723497</v>
+        <v>571.0231167723496</v>
       </c>
       <c r="V7" t="n">
-        <v>571.0231167723497</v>
+        <v>571.0231167723496</v>
       </c>
       <c r="W7" t="n">
-        <v>571.0231167723497</v>
+        <v>571.0231167723496</v>
       </c>
       <c r="X7" t="n">
-        <v>544.5108820151843</v>
+        <v>571.0231167723496</v>
       </c>
       <c r="Y7" t="n">
-        <v>544.5108820151843</v>
+        <v>519.2652796179744</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>237.0158240472368</v>
+        <v>486.9158621751982</v>
       </c>
       <c r="C8" t="n">
-        <v>237.0158240472368</v>
+        <v>486.9158621751982</v>
       </c>
       <c r="D8" t="n">
-        <v>237.0158240472368</v>
+        <v>486.9158621751982</v>
       </c>
       <c r="E8" t="n">
-        <v>237.0158240472368</v>
+        <v>486.9158621751982</v>
       </c>
       <c r="F8" t="n">
-        <v>226.9050373978112</v>
+        <v>476.8050755257726</v>
       </c>
       <c r="G8" t="n">
-        <v>214.8414548924032</v>
+        <v>60.70108897996062</v>
       </c>
       <c r="H8" t="n">
-        <v>214.8414548924032</v>
+        <v>60.70108897996062</v>
       </c>
       <c r="I8" t="n">
         <v>42.02425610119923</v>
@@ -4835,19 +4835,19 @@
         <v>1823.345543186168</v>
       </c>
       <c r="U8" t="n">
-        <v>1823.345543186168</v>
+        <v>1568.460206900163</v>
       </c>
       <c r="V8" t="n">
-        <v>1486.36626908211</v>
+        <v>1231.480932796104</v>
       </c>
       <c r="W8" t="n">
-        <v>1123.831338939711</v>
+        <v>868.9460026537049</v>
       </c>
       <c r="X8" t="n">
-        <v>741.8011984612042</v>
+        <v>486.9158621751982</v>
       </c>
       <c r="Y8" t="n">
-        <v>348.2593430370422</v>
+        <v>486.9158621751982</v>
       </c>
     </row>
     <row r="9">
@@ -4857,16 +4857,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>873.6049423964351</v>
+        <v>786.6432185531175</v>
       </c>
       <c r="C9" t="n">
-        <v>711.9012696373899</v>
+        <v>624.9395457940723</v>
       </c>
       <c r="D9" t="n">
-        <v>620.7947068344101</v>
+        <v>486.1009087842844</v>
       </c>
       <c r="E9" t="n">
-        <v>473.7666968912813</v>
+        <v>339.0728988411556</v>
       </c>
       <c r="F9" t="n">
         <v>339.0728988411556</v>
@@ -4881,19 +4881,19 @@
         <v>42.02425610119923</v>
       </c>
       <c r="J9" t="n">
-        <v>102.2784026343054</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K9" t="n">
-        <v>331.768955194494</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="L9" t="n">
-        <v>331.768955194494</v>
+        <v>252.8463055811703</v>
       </c>
       <c r="M9" t="n">
-        <v>816.8023087047204</v>
+        <v>737.8796590913968</v>
       </c>
       <c r="N9" t="n">
-        <v>1328.067954827843</v>
+        <v>1249.145305214519</v>
       </c>
       <c r="O9" t="n">
         <v>1641.34525599867</v>
@@ -4905,28 +4905,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R9" t="n">
-        <v>2101.212805059961</v>
+        <v>2041.428536154907</v>
       </c>
       <c r="S9" t="n">
-        <v>1948.413318072701</v>
+        <v>2041.428536154907</v>
       </c>
       <c r="T9" t="n">
-        <v>1759.728214238687</v>
+        <v>1852.743432320892</v>
       </c>
       <c r="U9" t="n">
-        <v>1541.233421836997</v>
+        <v>1806.212467125361</v>
       </c>
       <c r="V9" t="n">
-        <v>1312.837799285331</v>
+        <v>1577.816844573695</v>
       </c>
       <c r="W9" t="n">
-        <v>1071.521930518641</v>
+        <v>1336.500975807005</v>
       </c>
       <c r="X9" t="n">
-        <v>873.6049423964351</v>
+        <v>1138.583987684799</v>
       </c>
       <c r="Y9" t="n">
-        <v>873.6049423964351</v>
+        <v>946.0626613343784</v>
       </c>
     </row>
     <row r="10">
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>539.9326194923951</v>
+        <v>363.6492398782001</v>
       </c>
       <c r="C10" t="n">
-        <v>370.3166499540754</v>
+        <v>194.0332703398804</v>
       </c>
       <c r="D10" t="n">
-        <v>370.3166499540754</v>
+        <v>194.0332703398804</v>
       </c>
       <c r="E10" t="n">
-        <v>370.3166499540754</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F10" t="n">
-        <v>370.3166499540754</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G10" t="n">
-        <v>201.3969013219254</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H10" t="n">
         <v>42.02425610119923</v>
@@ -4990,22 +4990,22 @@
         <v>574.0835013471317</v>
       </c>
       <c r="T10" t="n">
-        <v>539.9326194923951</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U10" t="n">
-        <v>539.9326194923951</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="V10" t="n">
-        <v>539.9326194923951</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="W10" t="n">
-        <v>539.9326194923951</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="X10" t="n">
-        <v>539.9326194923951</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="Y10" t="n">
-        <v>539.9326194923951</v>
+        <v>547.2046085625799</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1456.795014973472</v>
+        <v>1615.358139720809</v>
       </c>
       <c r="C11" t="n">
-        <v>1189.097462050536</v>
+        <v>1347.660586797873</v>
       </c>
       <c r="D11" t="n">
-        <v>930.5097030220154</v>
+        <v>1089.072827769352</v>
       </c>
       <c r="E11" t="n">
-        <v>649.9601888723785</v>
+        <v>808.5233136197155</v>
       </c>
       <c r="F11" t="n">
-        <v>350.0452039268054</v>
+        <v>508.6083286741422</v>
       </c>
       <c r="G11" t="n">
-        <v>48.19416746997285</v>
+        <v>206.7572922173097</v>
       </c>
       <c r="H11" t="n">
-        <v>48.19416746997285</v>
+        <v>106.1296241669765</v>
       </c>
       <c r="I11" t="n">
-        <v>48.19416746997285</v>
+        <v>48.19416746997282</v>
       </c>
       <c r="J11" t="n">
-        <v>121.5855860797092</v>
+        <v>121.5855860797091</v>
       </c>
       <c r="K11" t="n">
         <v>363.8135156901272</v>
       </c>
       <c r="L11" t="n">
-        <v>773.9111227032348</v>
+        <v>714.2886885297112</v>
       </c>
       <c r="M11" t="n">
-        <v>1170.031940184348</v>
+        <v>1222.37241126077</v>
       </c>
       <c r="N11" t="n">
-        <v>1551.291578229631</v>
+        <v>1639.09527704531</v>
       </c>
       <c r="O11" t="n">
-        <v>1971.024159113535</v>
+        <v>1946.864952679269</v>
       </c>
       <c r="P11" t="n">
-        <v>2201.540996902964</v>
+        <v>2289.344695718642</v>
       </c>
       <c r="Q11" t="n">
-        <v>2409.708373498643</v>
+        <v>2385.549167064376</v>
       </c>
       <c r="R11" t="n">
-        <v>2409.708373498643</v>
+        <v>2409.708373498641</v>
       </c>
       <c r="S11" t="n">
-        <v>2337.097165628634</v>
+        <v>2337.097165628632</v>
       </c>
       <c r="T11" t="n">
-        <v>2337.097165628634</v>
+        <v>2227.047723472926</v>
       </c>
       <c r="U11" t="n">
-        <v>2337.097165628634</v>
+        <v>2086.399932478754</v>
       </c>
       <c r="V11" t="n">
-        <v>2114.354097268832</v>
+        <v>1863.656864118952</v>
       </c>
       <c r="W11" t="n">
-        <v>2114.354097268832</v>
+        <v>1615.358139720809</v>
       </c>
       <c r="X11" t="n">
-        <v>2015.907998427141</v>
+        <v>1615.358139720809</v>
       </c>
       <c r="Y11" t="n">
-        <v>1736.602348747235</v>
+        <v>1615.358139720809</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>827.2516542154336</v>
+        <v>859.0291584312071</v>
       </c>
       <c r="C12" t="n">
-        <v>665.5479814563884</v>
+        <v>697.3254856721618</v>
       </c>
       <c r="D12" t="n">
-        <v>526.7093444466004</v>
+        <v>558.4868486623739</v>
       </c>
       <c r="E12" t="n">
-        <v>379.6813345034717</v>
+        <v>411.4588387192451</v>
       </c>
       <c r="F12" t="n">
-        <v>244.9875364533461</v>
+        <v>276.7650406691195</v>
       </c>
       <c r="G12" t="n">
-        <v>116.2679954908852</v>
+        <v>148.0454997066586</v>
       </c>
       <c r="H12" t="n">
-        <v>116.2679954908852</v>
+        <v>48.19416746997282</v>
       </c>
       <c r="I12" t="n">
-        <v>48.19416746997285</v>
+        <v>48.19416746997282</v>
       </c>
       <c r="J12" t="n">
         <v>109.2779004160104</v>
       </c>
       <c r="K12" t="n">
-        <v>340.1863482904787</v>
+        <v>184.2181896826532</v>
       </c>
       <c r="L12" t="n">
-        <v>551.9465700819694</v>
+        <v>551.9465700819676</v>
       </c>
       <c r="M12" t="n">
-        <v>1039.204760279214</v>
+        <v>1039.204760279212</v>
       </c>
       <c r="N12" t="n">
-        <v>1552.754127896251</v>
+        <v>1552.754127896249</v>
       </c>
       <c r="O12" t="n">
-        <v>1947.043237686125</v>
+        <v>1947.043237686123</v>
       </c>
       <c r="P12" t="n">
-        <v>2250.815891247427</v>
+        <v>2250.815891247425</v>
       </c>
       <c r="Q12" t="n">
-        <v>2409.708373498643</v>
+        <v>2409.708373498641</v>
       </c>
       <c r="R12" t="n">
-        <v>2350.480349355813</v>
+        <v>2350.480349355811</v>
       </c>
       <c r="S12" t="n">
-        <v>2197.847272128939</v>
+        <v>2197.847272128937</v>
       </c>
       <c r="T12" t="n">
-        <v>2009.198279409398</v>
+        <v>2009.198279409396</v>
       </c>
       <c r="U12" t="n">
-        <v>1846.820902787677</v>
+        <v>1790.704076416539</v>
       </c>
       <c r="V12" t="n">
-        <v>1618.425280236011</v>
+        <v>1562.308453864872</v>
       </c>
       <c r="W12" t="n">
-        <v>1377.109411469321</v>
+        <v>1320.992585098183</v>
       </c>
       <c r="X12" t="n">
-        <v>1179.192423347116</v>
+        <v>1123.075596975977</v>
       </c>
       <c r="Y12" t="n">
-        <v>986.6710969966946</v>
+        <v>1018.448601212468</v>
       </c>
     </row>
     <row r="13">
@@ -5179,10 +5179,10 @@
         <v>292.5337693008133</v>
       </c>
       <c r="D13" t="n">
-        <v>253.6980818728323</v>
+        <v>253.6980818728322</v>
       </c>
       <c r="E13" t="n">
-        <v>215.9252733784074</v>
+        <v>215.9252733784073</v>
       </c>
       <c r="F13" t="n">
         <v>177.6808241484407</v>
@@ -5191,10 +5191,10 @@
         <v>123.0047921971452</v>
       </c>
       <c r="H13" t="n">
-        <v>77.93513177515746</v>
+        <v>77.93513177515744</v>
       </c>
       <c r="I13" t="n">
-        <v>48.19416746997285</v>
+        <v>48.19416746997282</v>
       </c>
       <c r="J13" t="n">
         <v>101.8154290374142</v>
@@ -5203,13 +5203,13 @@
         <v>248.2377908802536</v>
       </c>
       <c r="L13" t="n">
-        <v>461.9022251974608</v>
+        <v>461.9022251974607</v>
       </c>
       <c r="M13" t="n">
-        <v>693.0125802956952</v>
+        <v>693.0125802956954</v>
       </c>
       <c r="N13" t="n">
-        <v>924.5243328134414</v>
+        <v>924.5243328134417</v>
       </c>
       <c r="O13" t="n">
         <v>1135.991394735336</v>
@@ -5230,19 +5230,19 @@
         <v>1133.420825973694</v>
       </c>
       <c r="U13" t="n">
-        <v>960.467201894501</v>
+        <v>960.4672018945012</v>
       </c>
       <c r="V13" t="n">
         <v>813.96810319718</v>
       </c>
       <c r="W13" t="n">
-        <v>642.0479074588353</v>
+        <v>642.0479074588354</v>
       </c>
       <c r="X13" t="n">
-        <v>525.031649098467</v>
+        <v>525.0316490984679</v>
       </c>
       <c r="Y13" t="n">
-        <v>417.2326960350004</v>
+        <v>417.2326960350013</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1154.94397851664</v>
+        <v>1306.94238941702</v>
       </c>
       <c r="C14" t="n">
-        <v>887.2464255937033</v>
+        <v>1039.244836494083</v>
       </c>
       <c r="D14" t="n">
-        <v>628.6586665651832</v>
+        <v>780.6570774655629</v>
       </c>
       <c r="E14" t="n">
-        <v>348.1091524155463</v>
+        <v>500.107563315926</v>
       </c>
       <c r="F14" t="n">
-        <v>48.19416746997285</v>
+        <v>200.1925783703526</v>
       </c>
       <c r="G14" t="n">
-        <v>48.19416746997285</v>
+        <v>106.1296241669765</v>
       </c>
       <c r="H14" t="n">
-        <v>48.19416746997285</v>
+        <v>106.1296241669765</v>
       </c>
       <c r="I14" t="n">
-        <v>48.19416746997285</v>
+        <v>48.19416746997282</v>
       </c>
       <c r="J14" t="n">
-        <v>233.5484913296547</v>
+        <v>121.5855860797091</v>
       </c>
       <c r="K14" t="n">
-        <v>475.7764209400729</v>
+        <v>475.7764209400728</v>
       </c>
       <c r="L14" t="n">
         <v>826.2515937796568</v>
@@ -5288,40 +5288,40 @@
         <v>1222.37241126077</v>
       </c>
       <c r="N14" t="n">
-        <v>1663.254483479576</v>
+        <v>1603.632049306053</v>
       </c>
       <c r="O14" t="n">
-        <v>2082.987064363481</v>
+        <v>1911.401724940012</v>
       </c>
       <c r="P14" t="n">
-        <v>2313.503902152909</v>
+        <v>2177.381790468697</v>
       </c>
       <c r="Q14" t="n">
-        <v>2409.708373498643</v>
+        <v>2385.549167064376</v>
       </c>
       <c r="R14" t="n">
-        <v>2409.708373498643</v>
+        <v>2409.708373498641</v>
       </c>
       <c r="S14" t="n">
-        <v>2409.708373498643</v>
+        <v>2337.097165628633</v>
       </c>
       <c r="T14" t="n">
-        <v>2409.708373498643</v>
+        <v>2337.097165628633</v>
       </c>
       <c r="U14" t="n">
-        <v>2409.708373498643</v>
+        <v>2337.097165628633</v>
       </c>
       <c r="V14" t="n">
-        <v>2230.149621102702</v>
+        <v>2114.354097268831</v>
       </c>
       <c r="W14" t="n">
-        <v>1981.850896704559</v>
+        <v>1866.055372870688</v>
       </c>
       <c r="X14" t="n">
-        <v>1714.056961970308</v>
+        <v>1866.055372870688</v>
       </c>
       <c r="Y14" t="n">
-        <v>1434.751312290402</v>
+        <v>1586.749723190782</v>
       </c>
     </row>
     <row r="15">
@@ -5331,34 +5331,34 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>812.8667807078633</v>
+        <v>885.3710335885514</v>
       </c>
       <c r="C15" t="n">
-        <v>651.163107948818</v>
+        <v>723.6673608295062</v>
       </c>
       <c r="D15" t="n">
-        <v>512.3244709390301</v>
+        <v>584.8287238197182</v>
       </c>
       <c r="E15" t="n">
-        <v>365.2964609959013</v>
+        <v>437.8007138765894</v>
       </c>
       <c r="F15" t="n">
-        <v>230.6026629457756</v>
+        <v>303.1069158264638</v>
       </c>
       <c r="G15" t="n">
-        <v>216.119327727571</v>
+        <v>174.3873748640029</v>
       </c>
       <c r="H15" t="n">
-        <v>116.2679954908852</v>
+        <v>74.53604262731713</v>
       </c>
       <c r="I15" t="n">
-        <v>48.19416746997285</v>
+        <v>48.19416746997282</v>
       </c>
       <c r="J15" t="n">
         <v>109.2779004160104</v>
       </c>
       <c r="K15" t="n">
-        <v>340.1863482904787</v>
+        <v>340.1863482904786</v>
       </c>
       <c r="L15" t="n">
         <v>707.914728689793</v>
@@ -5367,40 +5367,40 @@
         <v>1195.172918887037</v>
       </c>
       <c r="N15" t="n">
-        <v>1708.722286504074</v>
+        <v>1552.754127896249</v>
       </c>
       <c r="O15" t="n">
-        <v>2103.011396293949</v>
+        <v>1947.043237686123</v>
       </c>
       <c r="P15" t="n">
-        <v>2406.78404985525</v>
+        <v>2250.815891247425</v>
       </c>
       <c r="Q15" t="n">
-        <v>2409.708373498643</v>
+        <v>2409.708373498641</v>
       </c>
       <c r="R15" t="n">
-        <v>2392.21230221938</v>
+        <v>2350.480349355811</v>
       </c>
       <c r="S15" t="n">
-        <v>2239.579224992506</v>
+        <v>2197.847272128937</v>
       </c>
       <c r="T15" t="n">
-        <v>2050.930232272964</v>
+        <v>2009.198279409396</v>
       </c>
       <c r="U15" t="n">
-        <v>1832.436029280107</v>
+        <v>1790.704076416539</v>
       </c>
       <c r="V15" t="n">
-        <v>1604.040406728441</v>
+        <v>1676.544659609129</v>
       </c>
       <c r="W15" t="n">
-        <v>1362.724537961751</v>
+        <v>1435.228790842439</v>
       </c>
       <c r="X15" t="n">
-        <v>1164.807549839545</v>
+        <v>1237.311802720233</v>
       </c>
       <c r="Y15" t="n">
-        <v>972.2862234891243</v>
+        <v>1044.790476369812</v>
       </c>
     </row>
     <row r="16">
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>347.913533094877</v>
+        <v>347.9135330948769</v>
       </c>
       <c r="C16" t="n">
-        <v>292.5337693008136</v>
+        <v>292.5337693008134</v>
       </c>
       <c r="D16" t="n">
-        <v>253.6980818728325</v>
+        <v>253.6980818728323</v>
       </c>
       <c r="E16" t="n">
-        <v>215.9252733784076</v>
+        <v>215.9252733784074</v>
       </c>
       <c r="F16" t="n">
-        <v>177.6808241484409</v>
+        <v>177.6808241484408</v>
       </c>
       <c r="G16" t="n">
-        <v>123.0047921971454</v>
+        <v>123.0047921971453</v>
       </c>
       <c r="H16" t="n">
-        <v>77.93513177515774</v>
+        <v>77.93513177515743</v>
       </c>
       <c r="I16" t="n">
-        <v>48.19416746997285</v>
+        <v>48.19416746997282</v>
       </c>
       <c r="J16" t="n">
         <v>101.8154290374142</v>
@@ -5440,7 +5440,7 @@
         <v>248.2377908802536</v>
       </c>
       <c r="L16" t="n">
-        <v>461.9022251974608</v>
+        <v>461.9022251974609</v>
       </c>
       <c r="M16" t="n">
         <v>693.0125802956953</v>
@@ -5467,19 +5467,19 @@
         <v>1133.420825973694</v>
       </c>
       <c r="U16" t="n">
-        <v>960.4672018945012</v>
+        <v>960.4672018945008</v>
       </c>
       <c r="V16" t="n">
-        <v>813.96810319718</v>
+        <v>813.9681031971797</v>
       </c>
       <c r="W16" t="n">
-        <v>642.0479074588352</v>
+        <v>642.0479074588351</v>
       </c>
       <c r="X16" t="n">
-        <v>525.0316490984673</v>
+        <v>525.0316490984671</v>
       </c>
       <c r="Y16" t="n">
-        <v>417.2326960350006</v>
+        <v>417.2326960350005</v>
       </c>
     </row>
     <row r="17">
@@ -5495,10 +5495,10 @@
         <v>1090.811983731924</v>
       </c>
       <c r="D17" t="n">
-        <v>895.5640374947335</v>
+        <v>895.5640374947336</v>
       </c>
       <c r="E17" t="n">
-        <v>678.3543361364265</v>
+        <v>678.3543361364266</v>
       </c>
       <c r="F17" t="n">
         <v>441.7791639821829</v>
@@ -5507,10 +5507,10 @@
         <v>203.2679403166802</v>
       </c>
       <c r="H17" t="n">
-        <v>48.19416746997285</v>
+        <v>48.19416746997282</v>
       </c>
       <c r="I17" t="n">
-        <v>53.4909768780219</v>
+        <v>53.49097687802192</v>
       </c>
       <c r="J17" t="n">
         <v>300.9246512544862</v>
@@ -5519,46 +5519,46 @@
         <v>543.1525808649043</v>
       </c>
       <c r="L17" t="n">
-        <v>893.6277537044882</v>
+        <v>997.8369332031237</v>
       </c>
       <c r="M17" t="n">
-        <v>1289.748571185601</v>
+        <v>1393.957750684237</v>
       </c>
       <c r="N17" t="n">
-        <v>1671.008209230885</v>
+        <v>1775.21738872952</v>
       </c>
       <c r="O17" t="n">
-        <v>2082.987064363481</v>
+        <v>2082.987064363479</v>
       </c>
       <c r="P17" t="n">
-        <v>2313.503902152909</v>
+        <v>2313.503902152907</v>
       </c>
       <c r="Q17" t="n">
-        <v>2409.708373498643</v>
+        <v>2409.708373498641</v>
       </c>
       <c r="R17" t="n">
-        <v>2409.708373498643</v>
+        <v>2409.708373498641</v>
       </c>
       <c r="S17" t="n">
-        <v>2400.436978419964</v>
+        <v>2400.436978419963</v>
       </c>
       <c r="T17" t="n">
-        <v>2353.727349055588</v>
+        <v>2353.727349055586</v>
       </c>
       <c r="U17" t="n">
-        <v>2276.419370852746</v>
+        <v>2276.419370852744</v>
       </c>
       <c r="V17" t="n">
-        <v>2117.016115284273</v>
+        <v>2117.016115284272</v>
       </c>
       <c r="W17" t="n">
         <v>1932.05720367746</v>
       </c>
       <c r="X17" t="n">
-        <v>1727.60308173454</v>
+        <v>1727.603081734539</v>
       </c>
       <c r="Y17" t="n">
-        <v>1511.637244845964</v>
+        <v>1511.637244845963</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>927.1029864521196</v>
+        <v>827.2516542154336</v>
       </c>
       <c r="C18" t="n">
-        <v>765.3993136930743</v>
+        <v>665.5479814563884</v>
       </c>
       <c r="D18" t="n">
-        <v>626.5606766832864</v>
+        <v>526.7093444466004</v>
       </c>
       <c r="E18" t="n">
-        <v>479.5326667401575</v>
+        <v>379.6813345034717</v>
       </c>
       <c r="F18" t="n">
-        <v>344.8388686900319</v>
+        <v>244.987536453346</v>
       </c>
       <c r="G18" t="n">
-        <v>216.119327727571</v>
+        <v>116.2679954908851</v>
       </c>
       <c r="H18" t="n">
-        <v>116.2679954908852</v>
+        <v>116.2679954908851</v>
       </c>
       <c r="I18" t="n">
-        <v>48.19416746997285</v>
+        <v>48.19416746997282</v>
       </c>
       <c r="J18" t="n">
         <v>109.2779004160104</v>
       </c>
       <c r="K18" t="n">
-        <v>184.2181896826551</v>
+        <v>340.1863482904786</v>
       </c>
       <c r="L18" t="n">
-        <v>551.9465700819694</v>
+        <v>707.914728689793</v>
       </c>
       <c r="M18" t="n">
-        <v>1039.204760279214</v>
+        <v>1195.172918887037</v>
       </c>
       <c r="N18" t="n">
-        <v>1552.754127896251</v>
+        <v>1708.722286504074</v>
       </c>
       <c r="O18" t="n">
-        <v>1947.043237686125</v>
+        <v>2103.011396293949</v>
       </c>
       <c r="P18" t="n">
-        <v>2250.815891247427</v>
+        <v>2406.78404985525</v>
       </c>
       <c r="Q18" t="n">
-        <v>2409.708373498643</v>
+        <v>2409.708373498641</v>
       </c>
       <c r="R18" t="n">
-        <v>2350.480349355813</v>
+        <v>2406.59717572695</v>
       </c>
       <c r="S18" t="n">
-        <v>2197.847272128939</v>
+        <v>2253.964098500076</v>
       </c>
       <c r="T18" t="n">
-        <v>2165.16643801722</v>
+        <v>2065.315105780534</v>
       </c>
       <c r="U18" t="n">
-        <v>1946.672235024363</v>
+        <v>1846.820902787677</v>
       </c>
       <c r="V18" t="n">
-        <v>1718.276612472697</v>
+        <v>1618.425280236011</v>
       </c>
       <c r="W18" t="n">
-        <v>1476.960743706007</v>
+        <v>1377.109411469321</v>
       </c>
       <c r="X18" t="n">
-        <v>1279.043755583802</v>
+        <v>1179.192423347116</v>
       </c>
       <c r="Y18" t="n">
-        <v>1086.522429233381</v>
+        <v>986.6710969966946</v>
       </c>
     </row>
     <row r="19">
@@ -5647,34 +5647,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>48.19416746997285</v>
+        <v>48.19416746997282</v>
       </c>
       <c r="C19" t="n">
-        <v>48.19416746997285</v>
+        <v>48.19416746997282</v>
       </c>
       <c r="D19" t="n">
-        <v>48.19416746997285</v>
+        <v>48.19416746997282</v>
       </c>
       <c r="E19" t="n">
-        <v>48.19416746997285</v>
+        <v>48.19416746997282</v>
       </c>
       <c r="F19" t="n">
-        <v>48.19416746997285</v>
+        <v>48.19416746997282</v>
       </c>
       <c r="G19" t="n">
-        <v>48.19416746997285</v>
+        <v>48.19416746997282</v>
       </c>
       <c r="H19" t="n">
-        <v>48.19416746997285</v>
+        <v>48.19416746997282</v>
       </c>
       <c r="I19" t="n">
-        <v>48.19416746997285</v>
+        <v>48.19416746997282</v>
       </c>
       <c r="J19" t="n">
-        <v>48.19416746997285</v>
+        <v>48.19416746997282</v>
       </c>
       <c r="K19" t="n">
-        <v>82.65362406286671</v>
+        <v>82.65362406286667</v>
       </c>
       <c r="L19" t="n">
         <v>184.3551531301284</v>
@@ -5698,25 +5698,25 @@
         <v>586.4144268557827</v>
       </c>
       <c r="S19" t="n">
-        <v>509.2334260658991</v>
+        <v>509.2334260658986</v>
       </c>
       <c r="T19" t="n">
-        <v>453.6625836008109</v>
+        <v>453.6625836008105</v>
       </c>
       <c r="U19" t="n">
-        <v>344.0487723129477</v>
+        <v>344.0487723129473</v>
       </c>
       <c r="V19" t="n">
-        <v>260.8894864069563</v>
+        <v>260.8894864069561</v>
       </c>
       <c r="W19" t="n">
-        <v>152.3091034599416</v>
+        <v>152.3091034599414</v>
       </c>
       <c r="X19" t="n">
-        <v>98.6326578909034</v>
+        <v>98.63265789090326</v>
       </c>
       <c r="Y19" t="n">
-        <v>54.17351761876659</v>
+        <v>54.1735176187665</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1295.16972386353</v>
+        <v>1295.169723863529</v>
       </c>
       <c r="C20" t="n">
-        <v>1090.811983731924</v>
+        <v>1090.811983731923</v>
       </c>
       <c r="D20" t="n">
-        <v>895.5640374947334</v>
+        <v>895.5640374947327</v>
       </c>
       <c r="E20" t="n">
-        <v>678.3543361364266</v>
+        <v>678.3543361364257</v>
       </c>
       <c r="F20" t="n">
-        <v>441.7791639821833</v>
+        <v>441.7791639821821</v>
       </c>
       <c r="G20" t="n">
         <v>203.2679403166802</v>
       </c>
       <c r="H20" t="n">
-        <v>48.19416746997285</v>
+        <v>48.19416746997282</v>
       </c>
       <c r="I20" t="n">
-        <v>53.4909768780219</v>
+        <v>53.49097687802192</v>
       </c>
       <c r="J20" t="n">
-        <v>126.8823954877582</v>
+        <v>300.9246512544862</v>
       </c>
       <c r="K20" t="n">
-        <v>369.1103250981763</v>
+        <v>543.1525808649043</v>
       </c>
       <c r="L20" t="n">
-        <v>719.5854979377602</v>
+        <v>893.6277537044882</v>
       </c>
       <c r="M20" t="n">
-        <v>1219.91549491751</v>
+        <v>1393.957750684237</v>
       </c>
       <c r="N20" t="n">
-        <v>1601.175132962794</v>
+        <v>1775.21738872952</v>
       </c>
       <c r="O20" t="n">
-        <v>1908.944808596753</v>
+        <v>2082.987064363479</v>
       </c>
       <c r="P20" t="n">
-        <v>2139.461646386181</v>
+        <v>2313.503902152907</v>
       </c>
       <c r="Q20" t="n">
-        <v>2409.708373498643</v>
+        <v>2409.708373498641</v>
       </c>
       <c r="R20" t="n">
-        <v>2409.708373498643</v>
+        <v>2409.708373498641</v>
       </c>
       <c r="S20" t="n">
-        <v>2400.436978419964</v>
+        <v>2400.436978419963</v>
       </c>
       <c r="T20" t="n">
-        <v>2353.727349055588</v>
+        <v>2353.727349055586</v>
       </c>
       <c r="U20" t="n">
-        <v>2276.419370852746</v>
+        <v>2276.419370852744</v>
       </c>
       <c r="V20" t="n">
-        <v>2117.016115284273</v>
+        <v>2117.016115284271</v>
       </c>
       <c r="W20" t="n">
-        <v>1932.05720367746</v>
+        <v>1932.057203677458</v>
       </c>
       <c r="X20" t="n">
-        <v>1727.603081734539</v>
+        <v>1727.603081734538</v>
       </c>
       <c r="Y20" t="n">
-        <v>1511.637244845963</v>
+        <v>1511.637244845962</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>927.1029864521196</v>
+        <v>859.0291584312071</v>
       </c>
       <c r="C21" t="n">
-        <v>765.3993136930743</v>
+        <v>697.3254856721618</v>
       </c>
       <c r="D21" t="n">
-        <v>626.5606766832864</v>
+        <v>558.4868486623739</v>
       </c>
       <c r="E21" t="n">
-        <v>479.5326667401575</v>
+        <v>411.4588387192451</v>
       </c>
       <c r="F21" t="n">
-        <v>344.8388686900319</v>
+        <v>276.7650406691195</v>
       </c>
       <c r="G21" t="n">
-        <v>216.119327727571</v>
+        <v>148.0454997066586</v>
       </c>
       <c r="H21" t="n">
-        <v>116.2679954908852</v>
+        <v>48.19416746997282</v>
       </c>
       <c r="I21" t="n">
-        <v>48.19416746997285</v>
+        <v>48.19416746997282</v>
       </c>
       <c r="J21" t="n">
-        <v>109.2779004160104</v>
+        <v>48.19416746997282</v>
       </c>
       <c r="K21" t="n">
-        <v>340.1863482904787</v>
+        <v>184.2181896826532</v>
       </c>
       <c r="L21" t="n">
-        <v>707.914728689793</v>
+        <v>551.9465700819676</v>
       </c>
       <c r="M21" t="n">
-        <v>1195.172918887037</v>
+        <v>1039.204760279212</v>
       </c>
       <c r="N21" t="n">
-        <v>1708.722286504074</v>
+        <v>1552.754127896249</v>
       </c>
       <c r="O21" t="n">
-        <v>1947.043237686125</v>
+        <v>1947.043237686123</v>
       </c>
       <c r="P21" t="n">
-        <v>2250.815891247427</v>
+        <v>2250.815891247425</v>
       </c>
       <c r="Q21" t="n">
-        <v>2409.708373498643</v>
+        <v>2409.708373498641</v>
       </c>
       <c r="R21" t="n">
-        <v>2409.708373498643</v>
+        <v>2350.480349355811</v>
       </c>
       <c r="S21" t="n">
-        <v>2257.075296271769</v>
+        <v>2197.847272128937</v>
       </c>
       <c r="T21" t="n">
-        <v>2068.426303552227</v>
+        <v>2009.198279409396</v>
       </c>
       <c r="U21" t="n">
-        <v>1849.93210055937</v>
+        <v>1790.704076416539</v>
       </c>
       <c r="V21" t="n">
-        <v>1621.536478007704</v>
+        <v>1562.308453864872</v>
       </c>
       <c r="W21" t="n">
-        <v>1476.960743706007</v>
+        <v>1408.886915685094</v>
       </c>
       <c r="X21" t="n">
-        <v>1279.043755583802</v>
+        <v>1210.969927562889</v>
       </c>
       <c r="Y21" t="n">
-        <v>1086.522429233381</v>
+        <v>1018.448601212468</v>
       </c>
     </row>
     <row r="22">
@@ -5884,34 +5884,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>89.3723193396643</v>
+        <v>48.19416746997282</v>
       </c>
       <c r="C22" t="n">
-        <v>89.3723193396643</v>
+        <v>48.19416746997282</v>
       </c>
       <c r="D22" t="n">
-        <v>89.3723193396643</v>
+        <v>48.19416746997282</v>
       </c>
       <c r="E22" t="n">
-        <v>89.3723193396643</v>
+        <v>48.19416746997282</v>
       </c>
       <c r="F22" t="n">
-        <v>89.3723193396643</v>
+        <v>48.19416746997282</v>
       </c>
       <c r="G22" t="n">
-        <v>89.3723193396643</v>
+        <v>48.19416746997282</v>
       </c>
       <c r="H22" t="n">
-        <v>89.3723193396643</v>
+        <v>48.19416746997282</v>
       </c>
       <c r="I22" t="n">
-        <v>89.3723193396643</v>
+        <v>48.19416746997282</v>
       </c>
       <c r="J22" t="n">
-        <v>48.19416746997285</v>
+        <v>48.19416746997282</v>
       </c>
       <c r="K22" t="n">
-        <v>82.65362406286671</v>
+        <v>82.65362406286667</v>
       </c>
       <c r="L22" t="n">
         <v>184.3551531301284</v>
@@ -5935,25 +5935,25 @@
         <v>586.4144268557827</v>
       </c>
       <c r="S22" t="n">
-        <v>550.4115779355906</v>
+        <v>509.2334260658986</v>
       </c>
       <c r="T22" t="n">
-        <v>494.8407354705024</v>
+        <v>453.6625836008105</v>
       </c>
       <c r="U22" t="n">
-        <v>385.2269241826392</v>
+        <v>344.0487723129473</v>
       </c>
       <c r="V22" t="n">
-        <v>302.0676382766478</v>
+        <v>260.8894864069561</v>
       </c>
       <c r="W22" t="n">
-        <v>193.487255329633</v>
+        <v>152.3091034599414</v>
       </c>
       <c r="X22" t="n">
-        <v>139.8108097605949</v>
+        <v>98.63265789090326</v>
       </c>
       <c r="Y22" t="n">
-        <v>95.35166948845803</v>
+        <v>54.1735176187665</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1295.169723863531</v>
+        <v>1295.16972386353</v>
       </c>
       <c r="C23" t="n">
         <v>1090.811983731924</v>
       </c>
       <c r="D23" t="n">
-        <v>895.5640374947341</v>
+        <v>895.5640374947334</v>
       </c>
       <c r="E23" t="n">
-        <v>678.354336136427</v>
+        <v>678.3543361364262</v>
       </c>
       <c r="F23" t="n">
-        <v>441.7791639821835</v>
+        <v>441.7791639821828</v>
       </c>
       <c r="G23" t="n">
         <v>203.2679403166802</v>
@@ -5987,28 +5987,28 @@
         <v>48.19416746997285</v>
       </c>
       <c r="J23" t="n">
-        <v>121.5855860797092</v>
+        <v>144.8530180353485</v>
       </c>
       <c r="K23" t="n">
-        <v>363.8135156901272</v>
+        <v>387.0809476457666</v>
       </c>
       <c r="L23" t="n">
-        <v>714.2886885297112</v>
+        <v>737.5561204853506</v>
       </c>
       <c r="M23" t="n">
-        <v>1219.91549491751</v>
+        <v>1133.676937966463</v>
       </c>
       <c r="N23" t="n">
-        <v>1601.175132962794</v>
+        <v>1514.936576011747</v>
       </c>
       <c r="O23" t="n">
-        <v>2082.987064363481</v>
+        <v>1996.748507412434</v>
       </c>
       <c r="P23" t="n">
-        <v>2313.503902152909</v>
+        <v>2227.265345201862</v>
       </c>
       <c r="Q23" t="n">
-        <v>2409.708373498643</v>
+        <v>2323.469816547596</v>
       </c>
       <c r="R23" t="n">
         <v>2409.708373498643</v>
@@ -6023,16 +6023,16 @@
         <v>2276.419370852745</v>
       </c>
       <c r="V23" t="n">
-        <v>2117.016115284273</v>
+        <v>2117.016115284272</v>
       </c>
       <c r="W23" t="n">
         <v>1932.05720367746</v>
       </c>
       <c r="X23" t="n">
-        <v>1727.60308173454</v>
+        <v>1727.603081734539</v>
       </c>
       <c r="Y23" t="n">
-        <v>1511.637244845964</v>
+        <v>1511.637244845963</v>
       </c>
     </row>
     <row r="24">
@@ -6042,34 +6042,34 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>859.0291584312073</v>
+        <v>927.1029864521196</v>
       </c>
       <c r="C24" t="n">
-        <v>697.325485672162</v>
+        <v>765.3993136930743</v>
       </c>
       <c r="D24" t="n">
-        <v>558.4868486623741</v>
+        <v>626.5606766832864</v>
       </c>
       <c r="E24" t="n">
-        <v>411.4588387192453</v>
+        <v>479.5326667401575</v>
       </c>
       <c r="F24" t="n">
-        <v>276.7650406691196</v>
+        <v>344.8388686900319</v>
       </c>
       <c r="G24" t="n">
-        <v>148.0454997066587</v>
+        <v>216.119327727571</v>
       </c>
       <c r="H24" t="n">
-        <v>48.19416746997285</v>
+        <v>116.2679954908852</v>
       </c>
       <c r="I24" t="n">
         <v>48.19416746997285</v>
       </c>
       <c r="J24" t="n">
-        <v>48.19416746997285</v>
+        <v>109.2779004160104</v>
       </c>
       <c r="K24" t="n">
-        <v>279.1026153444411</v>
+        <v>184.2181896826551</v>
       </c>
       <c r="L24" t="n">
         <v>551.9465700819694</v>
@@ -6090,28 +6090,28 @@
         <v>2409.708373498643</v>
       </c>
       <c r="R24" t="n">
-        <v>2350.480349355813</v>
+        <v>2409.708373498643</v>
       </c>
       <c r="S24" t="n">
-        <v>2197.847272128939</v>
+        <v>2257.075296271769</v>
       </c>
       <c r="T24" t="n">
-        <v>2009.198279409398</v>
+        <v>2068.426303552227</v>
       </c>
       <c r="U24" t="n">
-        <v>1790.70407641654</v>
+        <v>1946.672235024363</v>
       </c>
       <c r="V24" t="n">
-        <v>1650.202784451785</v>
+        <v>1718.276612472697</v>
       </c>
       <c r="W24" t="n">
-        <v>1408.886915685095</v>
+        <v>1476.960743706007</v>
       </c>
       <c r="X24" t="n">
-        <v>1210.969927562889</v>
+        <v>1279.043755583802</v>
       </c>
       <c r="Y24" t="n">
-        <v>1018.448601212468</v>
+        <v>1086.522429233381</v>
       </c>
     </row>
     <row r="25">
@@ -6172,25 +6172,25 @@
         <v>586.4144268557827</v>
       </c>
       <c r="S25" t="n">
-        <v>550.4115779355906</v>
+        <v>509.2334260658986</v>
       </c>
       <c r="T25" t="n">
-        <v>494.8407354705024</v>
+        <v>453.6625836008105</v>
       </c>
       <c r="U25" t="n">
-        <v>385.2269241826392</v>
+        <v>344.0487723129473</v>
       </c>
       <c r="V25" t="n">
-        <v>302.0676382766478</v>
+        <v>260.8894864069561</v>
       </c>
       <c r="W25" t="n">
-        <v>152.3091034599416</v>
+        <v>152.3091034599414</v>
       </c>
       <c r="X25" t="n">
-        <v>98.6326578909034</v>
+        <v>98.63265789090329</v>
       </c>
       <c r="Y25" t="n">
-        <v>54.17351761876659</v>
+        <v>54.17351761876653</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1687.621920200123</v>
+        <v>1745.557376897127</v>
       </c>
       <c r="C26" t="n">
-        <v>1419.924367277186</v>
+        <v>1477.85982397419</v>
       </c>
       <c r="D26" t="n">
-        <v>1161.336608248666</v>
+        <v>1219.27206494567</v>
       </c>
       <c r="E26" t="n">
-        <v>880.7870940990297</v>
+        <v>938.7225507960331</v>
       </c>
       <c r="F26" t="n">
-        <v>580.8721091534562</v>
+        <v>638.8075658504597</v>
       </c>
       <c r="G26" t="n">
-        <v>279.0210726966234</v>
+        <v>336.9565293936272</v>
       </c>
       <c r="H26" t="n">
-        <v>60.60748705858616</v>
+        <v>118.54294375559</v>
       </c>
       <c r="I26" t="n">
-        <v>60.60748705858616</v>
+        <v>60.60748705858622</v>
       </c>
       <c r="J26" t="n">
         <v>245.961810918268</v>
@@ -6239,37 +6239,37 @@
         <v>2063.896989894449</v>
       </c>
       <c r="O26" t="n">
-        <v>2455.56802685999</v>
+        <v>2483.629570778353</v>
       </c>
       <c r="P26" t="n">
-        <v>2798.047769899364</v>
+        <v>2826.109313817727</v>
       </c>
       <c r="Q26" t="n">
-        <v>3006.215146495043</v>
+        <v>3030.374352929311</v>
       </c>
       <c r="R26" t="n">
-        <v>3030.374352929308</v>
+        <v>3030.374352929311</v>
       </c>
       <c r="S26" t="n">
-        <v>3030.374352929308</v>
+        <v>2957.763145059302</v>
       </c>
       <c r="T26" t="n">
-        <v>2985.570631145987</v>
+        <v>2847.713702903596</v>
       </c>
       <c r="U26" t="n">
-        <v>2985.570631145987</v>
+        <v>2764.200438163086</v>
       </c>
       <c r="V26" t="n">
-        <v>2762.827562786185</v>
+        <v>2541.457369803283</v>
       </c>
       <c r="W26" t="n">
-        <v>2514.528838388042</v>
+        <v>2293.15864540514</v>
       </c>
       <c r="X26" t="n">
-        <v>2246.734903653792</v>
+        <v>2025.36471067089</v>
       </c>
       <c r="Y26" t="n">
-        <v>1967.429253973886</v>
+        <v>2025.36471067089</v>
       </c>
     </row>
     <row r="27">
@@ -6279,19 +6279,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>939.5163060407327</v>
+        <v>939.516306040733</v>
       </c>
       <c r="C27" t="n">
-        <v>777.8126332816875</v>
+        <v>777.8126332816877</v>
       </c>
       <c r="D27" t="n">
-        <v>638.9739962718995</v>
+        <v>638.9739962718998</v>
       </c>
       <c r="E27" t="n">
-        <v>491.9459863287708</v>
+        <v>491.9459863287709</v>
       </c>
       <c r="F27" t="n">
-        <v>357.2521882786451</v>
+        <v>357.2521882786452</v>
       </c>
       <c r="G27" t="n">
         <v>228.5326473161843</v>
@@ -6300,19 +6300,19 @@
         <v>128.6813150794985</v>
       </c>
       <c r="I27" t="n">
-        <v>60.60748705858616</v>
+        <v>60.60748705858622</v>
       </c>
       <c r="J27" t="n">
-        <v>121.6912200046237</v>
+        <v>121.6912200046238</v>
       </c>
       <c r="K27" t="n">
         <v>352.599667879092</v>
       </c>
       <c r="L27" t="n">
-        <v>720.3280482784063</v>
+        <v>720.3280482784064</v>
       </c>
       <c r="M27" t="n">
-        <v>1207.58623847565</v>
+        <v>1207.586238475651</v>
       </c>
       <c r="N27" t="n">
         <v>1721.135606092687</v>
@@ -6361,46 +6361,46 @@
         <v>360.3268526834902</v>
       </c>
       <c r="C28" t="n">
-        <v>304.9470888894268</v>
+        <v>304.9470888894267</v>
       </c>
       <c r="D28" t="n">
-        <v>266.1114014614457</v>
+        <v>266.1114014614456</v>
       </c>
       <c r="E28" t="n">
-        <v>228.3385929670208</v>
+        <v>228.3385929670206</v>
       </c>
       <c r="F28" t="n">
         <v>190.0941437370541</v>
       </c>
       <c r="G28" t="n">
-        <v>135.4181117857586</v>
+        <v>135.4181117857585</v>
       </c>
       <c r="H28" t="n">
-        <v>90.34845136377078</v>
+        <v>90.34845136377088</v>
       </c>
       <c r="I28" t="n">
-        <v>60.60748705858616</v>
+        <v>60.60748705858622</v>
       </c>
       <c r="J28" t="n">
-        <v>114.2287486260272</v>
+        <v>114.2287486260275</v>
       </c>
       <c r="K28" t="n">
-        <v>260.6511104688666</v>
+        <v>260.6511104688669</v>
       </c>
       <c r="L28" t="n">
-        <v>474.3155447860738</v>
+        <v>474.3155447860741</v>
       </c>
       <c r="M28" t="n">
-        <v>705.4258998843083</v>
+        <v>705.4258998843086</v>
       </c>
       <c r="N28" t="n">
-        <v>936.9376524020545</v>
+        <v>936.9376524020547</v>
       </c>
       <c r="O28" t="n">
-        <v>1148.404714323949</v>
+        <v>1148.40471432395</v>
       </c>
       <c r="P28" t="n">
-        <v>1324.226439511511</v>
+        <v>1324.22643951151</v>
       </c>
       <c r="Q28" t="n">
         <v>1399.035319149661</v>
@@ -6415,7 +6415,7 @@
         <v>1145.834145562307</v>
       </c>
       <c r="U28" t="n">
-        <v>972.8805214831143</v>
+        <v>972.8805214831144</v>
       </c>
       <c r="V28" t="n">
         <v>826.3814227857932</v>
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1477.85982397419</v>
+        <v>1481.728408833568</v>
       </c>
       <c r="C29" t="n">
-        <v>1477.85982397419</v>
+        <v>1214.030855910631</v>
       </c>
       <c r="D29" t="n">
-        <v>1219.27206494567</v>
+        <v>955.4430968821108</v>
       </c>
       <c r="E29" t="n">
-        <v>938.7225507960333</v>
+        <v>674.8935827324739</v>
       </c>
       <c r="F29" t="n">
-        <v>638.8075658504598</v>
+        <v>374.9785977869004</v>
       </c>
       <c r="G29" t="n">
-        <v>336.9565293936273</v>
+        <v>73.12756133006849</v>
       </c>
       <c r="H29" t="n">
-        <v>118.5429437555898</v>
+        <v>73.12756133006849</v>
       </c>
       <c r="I29" t="n">
-        <v>60.60748705858616</v>
+        <v>60.60748705858622</v>
       </c>
       <c r="J29" t="n">
-        <v>245.9618109182681</v>
+        <v>245.9618109182682</v>
       </c>
       <c r="K29" t="n">
-        <v>600.1526457786318</v>
+        <v>600.1526457786319</v>
       </c>
       <c r="L29" t="n">
-        <v>1062.590723868162</v>
+        <v>1034.5291799498</v>
       </c>
       <c r="M29" t="n">
-        <v>1570.67444659922</v>
+        <v>1542.612902680859</v>
       </c>
       <c r="N29" t="n">
-        <v>2063.89698989445</v>
+        <v>2035.835445976088</v>
       </c>
       <c r="O29" t="n">
-        <v>2455.56802685999</v>
+        <v>2455.568026859993</v>
       </c>
       <c r="P29" t="n">
-        <v>2798.047769899364</v>
+        <v>2798.047769899367</v>
       </c>
       <c r="Q29" t="n">
-        <v>3006.215146495043</v>
+        <v>3006.215146495046</v>
       </c>
       <c r="R29" t="n">
-        <v>3030.374352929308</v>
+        <v>3030.374352929311</v>
       </c>
       <c r="S29" t="n">
-        <v>2957.7631450593</v>
+        <v>3030.374352929311</v>
       </c>
       <c r="T29" t="n">
-        <v>2847.713702903593</v>
+        <v>2920.324910773604</v>
       </c>
       <c r="U29" t="n">
-        <v>2707.065911909422</v>
+        <v>2779.677119779432</v>
       </c>
       <c r="V29" t="n">
-        <v>2484.322843549619</v>
+        <v>2556.93405141963</v>
       </c>
       <c r="W29" t="n">
-        <v>2304.766742162109</v>
+        <v>2308.635327021487</v>
       </c>
       <c r="X29" t="n">
-        <v>2036.972807427859</v>
+        <v>2040.841392287237</v>
       </c>
       <c r="Y29" t="n">
-        <v>1757.667157747953</v>
+        <v>1761.535742607331</v>
       </c>
     </row>
     <row r="30">
@@ -6516,19 +6516,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>939.5163060407327</v>
+        <v>939.516306040733</v>
       </c>
       <c r="C30" t="n">
-        <v>777.8126332816875</v>
+        <v>777.8126332816877</v>
       </c>
       <c r="D30" t="n">
-        <v>638.9739962718995</v>
+        <v>638.9739962718998</v>
       </c>
       <c r="E30" t="n">
-        <v>491.9459863287708</v>
+        <v>491.9459863287709</v>
       </c>
       <c r="F30" t="n">
-        <v>357.2521882786451</v>
+        <v>357.2521882786452</v>
       </c>
       <c r="G30" t="n">
         <v>228.5326473161843</v>
@@ -6537,19 +6537,19 @@
         <v>128.6813150794985</v>
       </c>
       <c r="I30" t="n">
-        <v>60.60748705858616</v>
+        <v>60.60748705858622</v>
       </c>
       <c r="J30" t="n">
         <v>121.6912200046238</v>
       </c>
       <c r="K30" t="n">
-        <v>352.5996678790905</v>
+        <v>352.5996678790922</v>
       </c>
       <c r="L30" t="n">
-        <v>720.3280482784049</v>
+        <v>720.3280482784066</v>
       </c>
       <c r="M30" t="n">
-        <v>1207.586238475649</v>
+        <v>1207.586238475651</v>
       </c>
       <c r="N30" t="n">
         <v>1721.135606092686</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>360.3268526834893</v>
+        <v>360.3268526834898</v>
       </c>
       <c r="C31" t="n">
-        <v>304.9470888894259</v>
+        <v>304.9470888894264</v>
       </c>
       <c r="D31" t="n">
-        <v>266.1114014614448</v>
+        <v>266.1114014614453</v>
       </c>
       <c r="E31" t="n">
-        <v>228.3385929670199</v>
+        <v>228.3385929670204</v>
       </c>
       <c r="F31" t="n">
-        <v>190.0941437370532</v>
+        <v>190.0941437370537</v>
       </c>
       <c r="G31" t="n">
-        <v>135.4181117857577</v>
+        <v>135.4181117857586</v>
       </c>
       <c r="H31" t="n">
-        <v>90.34845136377021</v>
+        <v>90.34845136377085</v>
       </c>
       <c r="I31" t="n">
-        <v>60.60748705858616</v>
+        <v>60.60748705858622</v>
       </c>
       <c r="J31" t="n">
-        <v>114.2287486260274</v>
+        <v>114.2287486260272</v>
       </c>
       <c r="K31" t="n">
-        <v>260.6511104688668</v>
+        <v>260.6511104688666</v>
       </c>
       <c r="L31" t="n">
-        <v>474.315544786074</v>
+        <v>474.3155447860738</v>
       </c>
       <c r="M31" t="n">
-        <v>705.4258998843086</v>
+        <v>705.4258998843084</v>
       </c>
       <c r="N31" t="n">
-        <v>936.9376524020543</v>
+        <v>936.9376524020546</v>
       </c>
       <c r="O31" t="n">
-        <v>1148.404714323949</v>
+        <v>1148.40471432395</v>
       </c>
       <c r="P31" t="n">
         <v>1324.22643951151</v>
       </c>
       <c r="Q31" t="n">
-        <v>1399.03531914966</v>
+        <v>1399.035319149661</v>
       </c>
       <c r="R31" t="n">
         <v>1364.087462530247</v>
       </c>
       <c r="S31" t="n">
-        <v>1264.744800818724</v>
+        <v>1264.744800818725</v>
       </c>
       <c r="T31" t="n">
-        <v>1145.834145562306</v>
+        <v>1145.834145562307</v>
       </c>
       <c r="U31" t="n">
-        <v>972.8805214831133</v>
+        <v>972.8805214831142</v>
       </c>
       <c r="V31" t="n">
-        <v>826.3814227857921</v>
+        <v>826.3814227857929</v>
       </c>
       <c r="W31" t="n">
-        <v>654.4612270474474</v>
+        <v>654.4612270474481</v>
       </c>
       <c r="X31" t="n">
-        <v>537.4449686870794</v>
+        <v>537.4449686870801</v>
       </c>
       <c r="Y31" t="n">
-        <v>429.6460156236129</v>
+        <v>429.6460156236134</v>
       </c>
     </row>
     <row r="32">
@@ -6674,73 +6674,73 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1515.51078294333</v>
+        <v>1515.510782943329</v>
       </c>
       <c r="C32" t="n">
-        <v>1280.239831360253</v>
+        <v>1280.239831360252</v>
       </c>
       <c r="D32" t="n">
         <v>1054.078673671592</v>
       </c>
       <c r="E32" t="n">
-        <v>805.9557608618145</v>
+        <v>805.955760861814</v>
       </c>
       <c r="F32" t="n">
-        <v>538.4673772561005</v>
+        <v>538.4673772561</v>
       </c>
       <c r="G32" t="n">
-        <v>269.0429421391273</v>
+        <v>269.042942139127</v>
       </c>
       <c r="H32" t="n">
-        <v>83.05595784094844</v>
+        <v>83.05595784094835</v>
       </c>
       <c r="I32" t="n">
-        <v>57.5471024838041</v>
+        <v>57.54710248380408</v>
       </c>
       <c r="J32" t="n">
         <v>274.6827383166822</v>
       </c>
       <c r="K32" t="n">
-        <v>660.654885150242</v>
+        <v>516.9106679271002</v>
       </c>
       <c r="L32" t="n">
         <v>1011.130057989826</v>
       </c>
       <c r="M32" t="n">
-        <v>1550.995092694081</v>
+        <v>1407.250875470939</v>
       </c>
       <c r="N32" t="n">
-        <v>1932.254730739364</v>
+        <v>1788.510513516223</v>
       </c>
       <c r="O32" t="n">
-        <v>2383.768623596465</v>
+        <v>2207.204862201298</v>
       </c>
       <c r="P32" t="n">
-        <v>2637.40643562133</v>
+        <v>2581.465917213868</v>
       </c>
       <c r="Q32" t="n">
-        <v>2877.355124190205</v>
+        <v>2821.414605782743</v>
       </c>
       <c r="R32" t="n">
-        <v>2877.355124190205</v>
+        <v>2877.355124190204</v>
       </c>
       <c r="S32" t="n">
-        <v>2837.170517660057</v>
+        <v>2837.170517660056</v>
       </c>
       <c r="T32" t="n">
         <v>2759.547676844209</v>
       </c>
       <c r="U32" t="n">
-        <v>2651.326487189897</v>
+        <v>2651.326487189896</v>
       </c>
       <c r="V32" t="n">
-        <v>2461.010020169954</v>
+        <v>2461.010020169953</v>
       </c>
       <c r="W32" t="n">
-        <v>2245.137897111671</v>
+        <v>2245.13789711167</v>
       </c>
       <c r="X32" t="n">
-        <v>2009.77056371728</v>
+        <v>2009.770563717279</v>
       </c>
       <c r="Y32" t="n">
         <v>1762.891515377233</v>
@@ -6774,16 +6774,16 @@
         <v>125.6209305047164</v>
       </c>
       <c r="I33" t="n">
-        <v>57.5471024838041</v>
+        <v>57.54710248380408</v>
       </c>
       <c r="J33" t="n">
-        <v>118.6308354298417</v>
+        <v>118.630835429841</v>
       </c>
       <c r="K33" t="n">
-        <v>349.5392833043099</v>
+        <v>349.5392833043093</v>
       </c>
       <c r="L33" t="n">
-        <v>717.2676637036243</v>
+        <v>717.2676637036236</v>
       </c>
       <c r="M33" t="n">
         <v>1204.525853900868</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>132.965895764367</v>
+        <v>132.9658957643667</v>
       </c>
       <c r="C34" t="n">
-        <v>110.012733310163</v>
+        <v>110.0127333101627</v>
       </c>
       <c r="D34" t="n">
-        <v>103.6036472220413</v>
+        <v>103.6036472220411</v>
       </c>
       <c r="E34" t="n">
-        <v>98.25744006747581</v>
+        <v>98.25744006747561</v>
       </c>
       <c r="F34" t="n">
-        <v>92.43959217736857</v>
+        <v>92.43959217736843</v>
       </c>
       <c r="G34" t="n">
-        <v>70.19016156593241</v>
+        <v>70.19016156593233</v>
       </c>
       <c r="H34" t="n">
-        <v>57.5471024838041</v>
+        <v>57.54710248380408</v>
       </c>
       <c r="I34" t="n">
-        <v>57.5471024838041</v>
+        <v>57.54710248380408</v>
       </c>
       <c r="J34" t="n">
-        <v>57.5471024838041</v>
+        <v>91.28028195150397</v>
       </c>
       <c r="K34" t="n">
-        <v>92.00655907669795</v>
+        <v>125.7397385443978</v>
       </c>
       <c r="L34" t="n">
-        <v>193.7080881439596</v>
+        <v>371.1854848348013</v>
       </c>
       <c r="M34" t="n">
-        <v>312.8555379922486</v>
+        <v>490.3329346830902</v>
       </c>
       <c r="N34" t="n">
-        <v>432.4043852600493</v>
+        <v>609.8817819508909</v>
       </c>
       <c r="O34" t="n">
-        <v>672.231913011046</v>
+        <v>709.3859386228402</v>
       </c>
       <c r="P34" t="n">
-        <v>879.8349501718031</v>
+        <v>773.2447585604556</v>
       </c>
       <c r="Q34" t="n">
-        <v>879.8349501718031</v>
+        <v>879.8349501718021</v>
       </c>
       <c r="R34" t="n">
-        <v>877.313694892249</v>
+        <v>877.3136948922481</v>
       </c>
       <c r="S34" t="n">
-        <v>810.3976345205864</v>
+        <v>810.3976345205856</v>
       </c>
       <c r="T34" t="n">
-        <v>723.9135806040277</v>
+        <v>723.9135806040269</v>
       </c>
       <c r="U34" t="n">
-        <v>583.3865578646941</v>
+        <v>583.3865578646934</v>
       </c>
       <c r="V34" t="n">
-        <v>469.3140605072323</v>
+        <v>469.3140605072317</v>
       </c>
       <c r="W34" t="n">
-        <v>329.8204661087471</v>
+        <v>329.8204661087465</v>
       </c>
       <c r="X34" t="n">
-        <v>245.2308090882385</v>
+        <v>245.230809088238</v>
       </c>
       <c r="Y34" t="n">
-        <v>169.8584573646312</v>
+        <v>169.8584573646308</v>
       </c>
     </row>
     <row r="35">
@@ -6911,61 +6911,61 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1368.255564941932</v>
+        <v>1368.255564941933</v>
       </c>
       <c r="C35" t="n">
-        <v>1153.139657163515</v>
+        <v>1153.139657163516</v>
       </c>
       <c r="D35" t="n">
-        <v>947.1335432795152</v>
+        <v>947.1335432795158</v>
       </c>
       <c r="E35" t="n">
-        <v>719.1656742743982</v>
+        <v>719.1656742743986</v>
       </c>
       <c r="F35" t="n">
-        <v>471.8323344733446</v>
+        <v>471.8323344733451</v>
       </c>
       <c r="G35" t="n">
-        <v>222.5629431610316</v>
+        <v>222.5629431610317</v>
       </c>
       <c r="H35" t="n">
-        <v>56.73100266751429</v>
+        <v>56.73100266751433</v>
       </c>
       <c r="I35" t="n">
-        <v>51.37719111503048</v>
+        <v>51.37719111503049</v>
       </c>
       <c r="J35" t="n">
-        <v>237.2886616938254</v>
+        <v>124.7686097247668</v>
       </c>
       <c r="K35" t="n">
-        <v>479.5165913042435</v>
+        <v>366.9965393351849</v>
       </c>
       <c r="L35" t="n">
-        <v>993.489939799917</v>
+        <v>754.2972873034196</v>
       </c>
       <c r="M35" t="n">
-        <v>1553.108932937119</v>
+        <v>1313.916280440622</v>
       </c>
       <c r="N35" t="n">
-        <v>1934.368570982403</v>
+        <v>1695.175918485906</v>
       </c>
       <c r="O35" t="n">
-        <v>2242.138246616362</v>
+        <v>2166.443769775954</v>
       </c>
       <c r="P35" t="n">
-        <v>2472.65508440579</v>
+        <v>2396.960607565382</v>
       </c>
       <c r="Q35" t="n">
-        <v>2568.859555751524</v>
+        <v>2493.165078911116</v>
       </c>
       <c r="R35" t="n">
-        <v>2568.859555751524</v>
+        <v>2568.859555751525</v>
       </c>
       <c r="S35" t="n">
-        <v>2548.829993026035</v>
+        <v>2548.829993026036</v>
       </c>
       <c r="T35" t="n">
-        <v>2491.362196014849</v>
+        <v>2491.36219601485</v>
       </c>
       <c r="U35" t="n">
         <v>2403.296050165197</v>
@@ -6980,7 +6980,7 @@
         <v>1822.205258106561</v>
       </c>
       <c r="Y35" t="n">
-        <v>1595.481253571175</v>
+        <v>1595.481253571176</v>
       </c>
     </row>
     <row r="36">
@@ -6990,16 +6990,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>930.2860100971777</v>
+        <v>930.2860100971772</v>
       </c>
       <c r="C36" t="n">
-        <v>768.5823373381324</v>
+        <v>768.5823373381319</v>
       </c>
       <c r="D36" t="n">
-        <v>629.7437003283445</v>
+        <v>629.7437003283439</v>
       </c>
       <c r="E36" t="n">
-        <v>482.7156903852157</v>
+        <v>482.7156903852151</v>
       </c>
       <c r="F36" t="n">
         <v>348.0218923350895</v>
@@ -7011,16 +7011,16 @@
         <v>119.4510191359428</v>
       </c>
       <c r="I36" t="n">
-        <v>51.37719111503048</v>
+        <v>51.37719111503049</v>
       </c>
       <c r="J36" t="n">
-        <v>112.460924061068</v>
+        <v>112.4609240610681</v>
       </c>
       <c r="K36" t="n">
-        <v>343.369371935536</v>
+        <v>343.3693719355363</v>
       </c>
       <c r="L36" t="n">
-        <v>711.0977523348504</v>
+        <v>711.0977523348506</v>
       </c>
       <c r="M36" t="n">
         <v>1198.355942532095</v>
@@ -7056,10 +7056,10 @@
         <v>1480.143767351065</v>
       </c>
       <c r="X36" t="n">
-        <v>1282.22677922886</v>
+        <v>1282.226779228859</v>
       </c>
       <c r="Y36" t="n">
-        <v>1089.705452878439</v>
+        <v>1089.705452878438</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>54.17530976457403</v>
+        <v>56.26969657134973</v>
       </c>
       <c r="C37" t="n">
-        <v>51.37719111503048</v>
+        <v>53.47157792180615</v>
       </c>
       <c r="D37" t="n">
-        <v>51.37719111503048</v>
+        <v>53.47157792180615</v>
       </c>
       <c r="E37" t="n">
-        <v>53.47157792180611</v>
+        <v>53.47157792180615</v>
       </c>
       <c r="F37" t="n">
-        <v>53.47157792180611</v>
+        <v>53.47157792180615</v>
       </c>
       <c r="G37" t="n">
-        <v>51.37719111503048</v>
+        <v>51.37719111503049</v>
       </c>
       <c r="H37" t="n">
-        <v>51.37719111503048</v>
+        <v>51.37719111503049</v>
       </c>
       <c r="I37" t="n">
-        <v>51.37719111503048</v>
+        <v>51.37719111503049</v>
       </c>
       <c r="J37" t="n">
-        <v>51.37719111503048</v>
+        <v>51.37719111503049</v>
       </c>
       <c r="K37" t="n">
-        <v>85.83664770792433</v>
+        <v>135.6163424690318</v>
       </c>
       <c r="L37" t="n">
-        <v>187.538176775186</v>
+        <v>237.3178715362935</v>
       </c>
       <c r="M37" t="n">
-        <v>306.6856266234749</v>
+        <v>356.4653213845825</v>
       </c>
       <c r="N37" t="n">
-        <v>426.2344738912756</v>
+        <v>476.0141686523831</v>
       </c>
       <c r="O37" t="n">
-        <v>525.7386305632249</v>
+        <v>575.5183253243324</v>
       </c>
       <c r="P37" t="n">
-        <v>589.5974505008403</v>
+        <v>639.3771452619478</v>
       </c>
       <c r="Q37" t="n">
-        <v>619.9998823217151</v>
+        <v>639.3771452619478</v>
       </c>
       <c r="R37" t="n">
-        <v>637.2827584551719</v>
+        <v>639.3771452619478</v>
       </c>
       <c r="S37" t="n">
-        <v>590.5217418881698</v>
+        <v>592.6161286949457</v>
       </c>
       <c r="T37" t="n">
-        <v>524.1927317762717</v>
+        <v>526.2871185830476</v>
       </c>
       <c r="U37" t="n">
-        <v>403.8207528415985</v>
+        <v>405.9151396483744</v>
       </c>
       <c r="V37" t="n">
-        <v>309.9032992887973</v>
+        <v>311.9976860955731</v>
       </c>
       <c r="W37" t="n">
-        <v>190.5647486949725</v>
+        <v>192.6591355017483</v>
       </c>
       <c r="X37" t="n">
-        <v>126.1301354791245</v>
+        <v>128.2245222859002</v>
       </c>
       <c r="Y37" t="n">
-        <v>70.9128275601777</v>
+        <v>73.00721436695343</v>
       </c>
     </row>
     <row r="38">
@@ -7151,22 +7151,22 @@
         <v>1368.255564941932</v>
       </c>
       <c r="C38" t="n">
-        <v>1153.139657163515</v>
+        <v>1153.139657163516</v>
       </c>
       <c r="D38" t="n">
-        <v>947.1335432795147</v>
+        <v>947.1335432795153</v>
       </c>
       <c r="E38" t="n">
-        <v>719.1656742743978</v>
+        <v>719.1656742743983</v>
       </c>
       <c r="F38" t="n">
-        <v>471.832334473344</v>
+        <v>471.8323344733446</v>
       </c>
       <c r="G38" t="n">
         <v>222.5629431610319</v>
       </c>
       <c r="H38" t="n">
-        <v>56.73100266751444</v>
+        <v>56.73100266751432</v>
       </c>
       <c r="I38" t="n">
         <v>51.37719111503048</v>
@@ -7175,13 +7175,13 @@
         <v>124.7686097247668</v>
       </c>
       <c r="K38" t="n">
-        <v>366.9965393351848</v>
+        <v>530.4947149912743</v>
       </c>
       <c r="L38" t="n">
-        <v>717.4717121747688</v>
+        <v>880.9698878308583</v>
       </c>
       <c r="M38" t="n">
-        <v>1113.592529655882</v>
+        <v>1277.090705311971</v>
       </c>
       <c r="N38" t="n">
         <v>1658.350343357255</v>
@@ -7199,7 +7199,7 @@
         <v>2568.859555751524</v>
       </c>
       <c r="S38" t="n">
-        <v>2548.829993026035</v>
+        <v>2548.829993026036</v>
       </c>
       <c r="T38" t="n">
         <v>2491.362196014849</v>
@@ -7208,13 +7208,13 @@
         <v>2403.296050165197</v>
       </c>
       <c r="V38" t="n">
-        <v>2233.134626949914</v>
+        <v>2233.134626949915</v>
       </c>
       <c r="W38" t="n">
         <v>2037.417547696292</v>
       </c>
       <c r="X38" t="n">
-        <v>1822.205258106561</v>
+        <v>1822.205258106562</v>
       </c>
       <c r="Y38" t="n">
         <v>1595.481253571175</v>
@@ -7227,37 +7227,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>930.2860100971782</v>
+        <v>930.2860100971772</v>
       </c>
       <c r="C39" t="n">
-        <v>768.5823373381329</v>
+        <v>768.5823373381319</v>
       </c>
       <c r="D39" t="n">
-        <v>629.743700328345</v>
+        <v>629.7437003283439</v>
       </c>
       <c r="E39" t="n">
-        <v>482.7156903852162</v>
+        <v>482.7156903852151</v>
       </c>
       <c r="F39" t="n">
-        <v>348.0218923350906</v>
+        <v>348.0218923350895</v>
       </c>
       <c r="G39" t="n">
-        <v>219.3023513726297</v>
+        <v>219.3023513726286</v>
       </c>
       <c r="H39" t="n">
-        <v>119.4510191359439</v>
+        <v>119.4510191359428</v>
       </c>
       <c r="I39" t="n">
         <v>51.37719111503048</v>
       </c>
       <c r="J39" t="n">
-        <v>112.4609240610681</v>
+        <v>112.4609240610683</v>
       </c>
       <c r="K39" t="n">
-        <v>343.3693719355363</v>
+        <v>343.3693719355365</v>
       </c>
       <c r="L39" t="n">
-        <v>711.0977523348504</v>
+        <v>711.0977523348508</v>
       </c>
       <c r="M39" t="n">
         <v>1198.355942532095</v>
@@ -7281,22 +7281,22 @@
         <v>2356.99845438182</v>
       </c>
       <c r="T39" t="n">
-        <v>2168.349461662279</v>
+        <v>2168.349461662278</v>
       </c>
       <c r="U39" t="n">
-        <v>1949.855258669422</v>
+        <v>1949.855258669421</v>
       </c>
       <c r="V39" t="n">
-        <v>1721.459636117756</v>
+        <v>1721.459636117755</v>
       </c>
       <c r="W39" t="n">
         <v>1480.143767351065</v>
       </c>
       <c r="X39" t="n">
-        <v>1282.22677922886</v>
+        <v>1282.226779228859</v>
       </c>
       <c r="Y39" t="n">
-        <v>1089.705452878439</v>
+        <v>1089.705452878438</v>
       </c>
     </row>
     <row r="40">
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>56.26969657134995</v>
+        <v>56.26969657134973</v>
       </c>
       <c r="C40" t="n">
-        <v>53.47157792180626</v>
+        <v>53.47157792180614</v>
       </c>
       <c r="D40" t="n">
-        <v>53.47157792180626</v>
+        <v>53.47157792180614</v>
       </c>
       <c r="E40" t="n">
-        <v>53.47157792180626</v>
+        <v>53.47157792180614</v>
       </c>
       <c r="F40" t="n">
-        <v>53.47157792180626</v>
+        <v>53.47157792180614</v>
       </c>
       <c r="G40" t="n">
         <v>51.37719111503048</v>
@@ -7333,49 +7333,49 @@
         <v>51.37719111503048</v>
       </c>
       <c r="K40" t="n">
-        <v>118.3334663355762</v>
+        <v>85.83664770792434</v>
       </c>
       <c r="L40" t="n">
-        <v>220.0349954028379</v>
+        <v>187.538176775186</v>
       </c>
       <c r="M40" t="n">
-        <v>339.1824452511269</v>
+        <v>306.6856266234749</v>
       </c>
       <c r="N40" t="n">
-        <v>458.7312925189275</v>
+        <v>476.0141686523831</v>
       </c>
       <c r="O40" t="n">
-        <v>558.2354491908768</v>
+        <v>575.5183253243324</v>
       </c>
       <c r="P40" t="n">
-        <v>622.0942691284922</v>
+        <v>639.3771452619478</v>
       </c>
       <c r="Q40" t="n">
-        <v>622.0942691284922</v>
+        <v>639.3771452619478</v>
       </c>
       <c r="R40" t="n">
-        <v>639.377145261949</v>
+        <v>639.3771452619478</v>
       </c>
       <c r="S40" t="n">
-        <v>592.6161286949467</v>
+        <v>592.6161286949457</v>
       </c>
       <c r="T40" t="n">
-        <v>526.2871185830485</v>
+        <v>526.2871185830476</v>
       </c>
       <c r="U40" t="n">
-        <v>405.9151396483752</v>
+        <v>405.9151396483744</v>
       </c>
       <c r="V40" t="n">
-        <v>311.9976860955738</v>
+        <v>311.9976860955731</v>
       </c>
       <c r="W40" t="n">
-        <v>192.6591355017489</v>
+        <v>192.6591355017483</v>
       </c>
       <c r="X40" t="n">
-        <v>128.2245222859007</v>
+        <v>128.2245222859002</v>
       </c>
       <c r="Y40" t="n">
-        <v>73.00721436695378</v>
+        <v>73.00721436695343</v>
       </c>
     </row>
     <row r="41">
@@ -7388,55 +7388,55 @@
         <v>1368.255564941932</v>
       </c>
       <c r="C41" t="n">
-        <v>1153.139657163516</v>
+        <v>1153.139657163515</v>
       </c>
       <c r="D41" t="n">
-        <v>947.1335432795154</v>
+        <v>947.1335432795149</v>
       </c>
       <c r="E41" t="n">
-        <v>719.165674274398</v>
+        <v>719.1656742743978</v>
       </c>
       <c r="F41" t="n">
-        <v>471.8323344733449</v>
+        <v>471.8323344733445</v>
       </c>
       <c r="G41" t="n">
-        <v>222.5629431610323</v>
+        <v>222.5629431610319</v>
       </c>
       <c r="H41" t="n">
-        <v>56.7310026675143</v>
+        <v>56.73100266751432</v>
       </c>
       <c r="I41" t="n">
         <v>51.37719111503048</v>
       </c>
       <c r="J41" t="n">
-        <v>124.7686097247668</v>
+        <v>161.5941848534171</v>
       </c>
       <c r="K41" t="n">
-        <v>530.4947149912745</v>
+        <v>403.8221144638352</v>
       </c>
       <c r="L41" t="n">
-        <v>1044.468063486948</v>
+        <v>754.2972873034191</v>
       </c>
       <c r="M41" t="n">
-        <v>1553.10893293712</v>
+        <v>1313.916280440621</v>
       </c>
       <c r="N41" t="n">
-        <v>1934.368570982404</v>
+        <v>1695.175918485905</v>
       </c>
       <c r="O41" t="n">
-        <v>2242.138246616362</v>
+        <v>2166.443769775954</v>
       </c>
       <c r="P41" t="n">
-        <v>2472.655084405791</v>
+        <v>2396.960607565382</v>
       </c>
       <c r="Q41" t="n">
-        <v>2568.859555751524</v>
+        <v>2493.165078911115</v>
       </c>
       <c r="R41" t="n">
         <v>2568.859555751524</v>
       </c>
       <c r="S41" t="n">
-        <v>2548.829993026035</v>
+        <v>2548.829993026036</v>
       </c>
       <c r="T41" t="n">
         <v>2491.362196014849</v>
@@ -7448,7 +7448,7 @@
         <v>2233.134626949914</v>
       </c>
       <c r="W41" t="n">
-        <v>2037.417547696292</v>
+        <v>2037.417547696291</v>
       </c>
       <c r="X41" t="n">
         <v>1822.205258106561</v>
@@ -7464,22 +7464,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>930.2860100971774</v>
+        <v>930.2860100971782</v>
       </c>
       <c r="C42" t="n">
-        <v>768.5823373381322</v>
+        <v>768.5823373381329</v>
       </c>
       <c r="D42" t="n">
-        <v>629.7437003283444</v>
+        <v>629.743700328345</v>
       </c>
       <c r="E42" t="n">
-        <v>482.7156903852156</v>
+        <v>482.7156903852162</v>
       </c>
       <c r="F42" t="n">
-        <v>348.0218923350899</v>
+        <v>348.0218923350906</v>
       </c>
       <c r="G42" t="n">
-        <v>219.3023513726289</v>
+        <v>219.3023513726297</v>
       </c>
       <c r="H42" t="n">
         <v>119.4510191359428</v>
@@ -7488,7 +7488,7 @@
         <v>51.37719111503048</v>
       </c>
       <c r="J42" t="n">
-        <v>112.460924061068</v>
+        <v>112.4609240610681</v>
       </c>
       <c r="K42" t="n">
         <v>343.3693719355363</v>
@@ -7518,22 +7518,22 @@
         <v>2356.99845438182</v>
       </c>
       <c r="T42" t="n">
-        <v>2168.349461662278</v>
+        <v>2168.349461662279</v>
       </c>
       <c r="U42" t="n">
-        <v>1949.855258669421</v>
+        <v>1949.855258669422</v>
       </c>
       <c r="V42" t="n">
-        <v>1721.459636117755</v>
+        <v>1721.459636117756</v>
       </c>
       <c r="W42" t="n">
         <v>1480.143767351065</v>
       </c>
       <c r="X42" t="n">
-        <v>1282.226779228859</v>
+        <v>1282.22677922886</v>
       </c>
       <c r="Y42" t="n">
-        <v>1089.705452878438</v>
+        <v>1089.705452878439</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>54.17530976457404</v>
+        <v>56.26969657134973</v>
       </c>
       <c r="C43" t="n">
+        <v>53.47157792180614</v>
+      </c>
+      <c r="D43" t="n">
+        <v>53.47157792180614</v>
+      </c>
+      <c r="E43" t="n">
+        <v>53.47157792180614</v>
+      </c>
+      <c r="F43" t="n">
+        <v>53.47157792180614</v>
+      </c>
+      <c r="G43" t="n">
         <v>51.37719111503048</v>
       </c>
-      <c r="D43" t="n">
+      <c r="H43" t="n">
         <v>51.37719111503048</v>
       </c>
-      <c r="E43" t="n">
+      <c r="I43" t="n">
         <v>51.37719111503048</v>
       </c>
-      <c r="F43" t="n">
-        <v>65.42907683088414</v>
-      </c>
-      <c r="G43" t="n">
-        <v>63.33469002410851</v>
-      </c>
-      <c r="H43" t="n">
-        <v>63.33469002410851</v>
-      </c>
-      <c r="I43" t="n">
-        <v>63.33469002410851</v>
-      </c>
       <c r="J43" t="n">
-        <v>63.33469002410851</v>
+        <v>51.37719111503048</v>
       </c>
       <c r="K43" t="n">
-        <v>116.2390795287991</v>
+        <v>85.83664770792434</v>
       </c>
       <c r="L43" t="n">
-        <v>217.9406085960608</v>
+        <v>187.538176775186</v>
       </c>
       <c r="M43" t="n">
-        <v>337.0880584443497</v>
+        <v>356.4653213845825</v>
       </c>
       <c r="N43" t="n">
-        <v>456.6369057121503</v>
+        <v>476.0141686523831</v>
       </c>
       <c r="O43" t="n">
-        <v>556.1410623840997</v>
+        <v>575.5183253243324</v>
       </c>
       <c r="P43" t="n">
-        <v>619.9998823217151</v>
+        <v>639.3771452619478</v>
       </c>
       <c r="Q43" t="n">
-        <v>619.9998823217151</v>
+        <v>639.3771452619478</v>
       </c>
       <c r="R43" t="n">
-        <v>637.2827584551719</v>
+        <v>639.3771452619478</v>
       </c>
       <c r="S43" t="n">
-        <v>590.5217418881698</v>
+        <v>592.6161286949457</v>
       </c>
       <c r="T43" t="n">
-        <v>524.1927317762717</v>
+        <v>526.2871185830476</v>
       </c>
       <c r="U43" t="n">
-        <v>403.8207528415985</v>
+        <v>405.9151396483744</v>
       </c>
       <c r="V43" t="n">
-        <v>309.9032992887973</v>
+        <v>311.9976860955731</v>
       </c>
       <c r="W43" t="n">
-        <v>190.5647486949725</v>
+        <v>192.6591355017483</v>
       </c>
       <c r="X43" t="n">
-        <v>126.1301354791245</v>
+        <v>128.2245222859002</v>
       </c>
       <c r="Y43" t="n">
-        <v>70.9128275601777</v>
+        <v>73.00721436695343</v>
       </c>
     </row>
     <row r="44">
@@ -7622,52 +7622,52 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1368.255564941931</v>
+        <v>1368.255564941932</v>
       </c>
       <c r="C44" t="n">
         <v>1153.139657163515</v>
       </c>
       <c r="D44" t="n">
-        <v>947.1335432795149</v>
+        <v>947.1335432795152</v>
       </c>
       <c r="E44" t="n">
         <v>719.165674274398</v>
       </c>
       <c r="F44" t="n">
-        <v>471.8323344733449</v>
+        <v>471.8323344733444</v>
       </c>
       <c r="G44" t="n">
-        <v>222.5629431610323</v>
+        <v>222.5629431610315</v>
       </c>
       <c r="H44" t="n">
-        <v>56.73100266751429</v>
+        <v>56.731002667513</v>
       </c>
       <c r="I44" t="n">
         <v>51.37719111503048</v>
       </c>
       <c r="J44" t="n">
-        <v>124.7686097247668</v>
+        <v>161.5941848534176</v>
       </c>
       <c r="K44" t="n">
-        <v>366.9965393351848</v>
+        <v>567.3202901199252</v>
       </c>
       <c r="L44" t="n">
-        <v>880.9698878308583</v>
+        <v>917.7954629595091</v>
       </c>
       <c r="M44" t="n">
-        <v>1440.58888096806</v>
+        <v>1313.916280440622</v>
       </c>
       <c r="N44" t="n">
-        <v>1934.368570982403</v>
+        <v>1695.175918485905</v>
       </c>
       <c r="O44" t="n">
-        <v>2242.138246616362</v>
+        <v>2002.945594119864</v>
       </c>
       <c r="P44" t="n">
-        <v>2472.65508440579</v>
+        <v>2396.960607565382</v>
       </c>
       <c r="Q44" t="n">
-        <v>2568.859555751524</v>
+        <v>2493.165078911115</v>
       </c>
       <c r="R44" t="n">
         <v>2568.859555751524</v>
@@ -7685,13 +7685,13 @@
         <v>2233.134626949914</v>
       </c>
       <c r="W44" t="n">
-        <v>2037.417547696291</v>
+        <v>2037.417547696292</v>
       </c>
       <c r="X44" t="n">
-        <v>1822.20525810656</v>
+        <v>1822.205258106561</v>
       </c>
       <c r="Y44" t="n">
-        <v>1595.481253571174</v>
+        <v>1595.481253571175</v>
       </c>
     </row>
     <row r="45">
@@ -7701,37 +7701,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>930.2860100971772</v>
+        <v>930.2860100971778</v>
       </c>
       <c r="C45" t="n">
-        <v>768.5823373381319</v>
+        <v>768.5823373381327</v>
       </c>
       <c r="D45" t="n">
-        <v>629.7437003283439</v>
+        <v>629.7437003283449</v>
       </c>
       <c r="E45" t="n">
-        <v>482.7156903852151</v>
+        <v>482.715690385216</v>
       </c>
       <c r="F45" t="n">
-        <v>348.0218923350895</v>
+        <v>348.0218923350903</v>
       </c>
       <c r="G45" t="n">
-        <v>219.3023513726286</v>
+        <v>219.302351372629</v>
       </c>
       <c r="H45" t="n">
-        <v>119.4510191359428</v>
+        <v>119.4510191359432</v>
       </c>
       <c r="I45" t="n">
         <v>51.37719111503048</v>
       </c>
       <c r="J45" t="n">
-        <v>112.460924061068</v>
+        <v>112.4609240610682</v>
       </c>
       <c r="K45" t="n">
-        <v>343.3693719355363</v>
+        <v>343.3693719355364</v>
       </c>
       <c r="L45" t="n">
-        <v>711.0977523348506</v>
+        <v>711.0977523348507</v>
       </c>
       <c r="M45" t="n">
         <v>1198.355942532095</v>
@@ -7749,28 +7749,28 @@
         <v>2568.859555751524</v>
       </c>
       <c r="R45" t="n">
-        <v>2509.631531608693</v>
+        <v>2509.631531608694</v>
       </c>
       <c r="S45" t="n">
         <v>2356.99845438182</v>
       </c>
       <c r="T45" t="n">
-        <v>2168.349461662278</v>
+        <v>2168.349461662279</v>
       </c>
       <c r="U45" t="n">
-        <v>1949.855258669421</v>
+        <v>1949.855258669422</v>
       </c>
       <c r="V45" t="n">
-        <v>1721.459636117755</v>
+        <v>1721.459636117756</v>
       </c>
       <c r="W45" t="n">
         <v>1480.143767351065</v>
       </c>
       <c r="X45" t="n">
-        <v>1282.226779228859</v>
+        <v>1282.22677922886</v>
       </c>
       <c r="Y45" t="n">
-        <v>1089.705452878438</v>
+        <v>1089.705452878439</v>
       </c>
     </row>
     <row r="46">
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>56.26969657134966</v>
+        <v>56.26969657134978</v>
       </c>
       <c r="C46" t="n">
-        <v>53.47157792180611</v>
+        <v>53.47157792180617</v>
       </c>
       <c r="D46" t="n">
-        <v>53.47157792180611</v>
+        <v>53.47157792180617</v>
       </c>
       <c r="E46" t="n">
-        <v>53.47157792180611</v>
+        <v>53.47157792180617</v>
       </c>
       <c r="F46" t="n">
-        <v>53.47157792180611</v>
+        <v>53.47157792180617</v>
       </c>
       <c r="G46" t="n">
         <v>51.37719111503048</v>
@@ -7807,49 +7807,49 @@
         <v>51.37719111503048</v>
       </c>
       <c r="K46" t="n">
-        <v>118.3334663355748</v>
+        <v>85.83664770792433</v>
       </c>
       <c r="L46" t="n">
-        <v>220.0349954028364</v>
+        <v>187.538176775186</v>
       </c>
       <c r="M46" t="n">
-        <v>339.1824452511254</v>
+        <v>306.6856266234749</v>
       </c>
       <c r="N46" t="n">
-        <v>458.731292518926</v>
+        <v>426.2344738912756</v>
       </c>
       <c r="O46" t="n">
-        <v>558.2354491908753</v>
+        <v>525.7386305632249</v>
       </c>
       <c r="P46" t="n">
-        <v>622.0942691284907</v>
+        <v>639.377145261948</v>
       </c>
       <c r="Q46" t="n">
-        <v>622.0942691284907</v>
+        <v>639.377145261948</v>
       </c>
       <c r="R46" t="n">
-        <v>639.3771452619476</v>
+        <v>639.377145261948</v>
       </c>
       <c r="S46" t="n">
-        <v>592.6161286949455</v>
+        <v>592.6161286949459</v>
       </c>
       <c r="T46" t="n">
-        <v>526.2871185830473</v>
+        <v>526.2871185830478</v>
       </c>
       <c r="U46" t="n">
-        <v>405.9151396483742</v>
+        <v>405.9151396483746</v>
       </c>
       <c r="V46" t="n">
-        <v>311.9976860955729</v>
+        <v>311.9976860955733</v>
       </c>
       <c r="W46" t="n">
-        <v>192.6591355017482</v>
+        <v>192.6591355017485</v>
       </c>
       <c r="X46" t="n">
-        <v>128.2245222859001</v>
+        <v>128.2245222859003</v>
       </c>
       <c r="Y46" t="n">
-        <v>73.00721436695333</v>
+        <v>73.00721436695352</v>
       </c>
     </row>
   </sheetData>
@@ -7976,16 +7976,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>219.8255997236959</v>
+        <v>147.0997974279326</v>
       </c>
       <c r="K2" t="n">
-        <v>269.9154563785534</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L2" t="n">
         <v>542.9595789155856</v>
       </c>
       <c r="M2" t="n">
-        <v>584.3675935406823</v>
+        <v>505.6198158724811</v>
       </c>
       <c r="N2" t="n">
         <v>568.5510017355793</v>
@@ -8055,7 +8055,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J3" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K3" t="n">
         <v>111.9961691666667</v>
@@ -8064,10 +8064,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M3" t="n">
-        <v>265.8963299418062</v>
+        <v>486.1243868293798</v>
       </c>
       <c r="N3" t="n">
-        <v>593.763535147923</v>
+        <v>593.7635351479221</v>
       </c>
       <c r="O3" t="n">
         <v>512.0210150597484</v>
@@ -8076,7 +8076,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q3" t="n">
-        <v>273.1004740566038</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R3" t="n">
         <v>59.17817075471706</v>
@@ -8216,7 +8216,7 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K5" t="n">
-        <v>421.3890363425141</v>
+        <v>269.9154563785498</v>
       </c>
       <c r="L5" t="n">
         <v>542.9595789155856</v>
@@ -8225,7 +8225,7 @@
         <v>584.3675935406823</v>
       </c>
       <c r="N5" t="n">
-        <v>417.0774217716186</v>
+        <v>568.5510017355793</v>
       </c>
       <c r="O5" t="n">
         <v>495.0402356415689</v>
@@ -8292,7 +8292,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J6" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K6" t="n">
         <v>343.8048081163522</v>
@@ -8301,13 +8301,13 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M6" t="n">
-        <v>589.6145400524692</v>
+        <v>254.3157478796942</v>
       </c>
       <c r="N6" t="n">
-        <v>593.763535147923</v>
+        <v>593.7635351479221</v>
       </c>
       <c r="O6" t="n">
-        <v>115.8594486111111</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P6" t="n">
         <v>414.0015992319183</v>
@@ -8529,13 +8529,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J9" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K9" t="n">
-        <v>343.8048081163522</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L9" t="n">
-        <v>112.5754335711478</v>
+        <v>325.5269987024317</v>
       </c>
       <c r="M9" t="n">
         <v>605.4165828749999</v>
@@ -8544,7 +8544,7 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O9" t="n">
-        <v>432.3011669654819</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P9" t="n">
         <v>414.0015992319183</v>
@@ -8769,10 +8769,10 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K12" t="n">
-        <v>343.8048081163522</v>
+        <v>186.2612135629932</v>
       </c>
       <c r="L12" t="n">
-        <v>324.5488543411397</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M12" t="n">
         <v>605.4165828749999</v>
@@ -9015,7 +9015,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N15" t="n">
-        <v>623.1450866466196</v>
+        <v>465.6014920932605</v>
       </c>
       <c r="O15" t="n">
         <v>512.0210150597484</v>
@@ -9024,7 +9024,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q15" t="n">
-        <v>115.5568795032466</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R15" t="n">
         <v>59.17817075471706</v>
@@ -9243,7 +9243,7 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K18" t="n">
-        <v>186.261213562995</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L18" t="n">
         <v>482.0924488944969</v>
@@ -9261,7 +9261,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q18" t="n">
-        <v>273.1004740566038</v>
+        <v>115.5568795032447</v>
       </c>
       <c r="R18" t="n">
         <v>59.17817075471706</v>
@@ -9477,10 +9477,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J21" t="n">
-        <v>163.9183459425315</v>
+        <v>102.2176055929986</v>
       </c>
       <c r="K21" t="n">
-        <v>343.8048081163522</v>
+        <v>247.9619539125261</v>
       </c>
       <c r="L21" t="n">
         <v>482.0924488944969</v>
@@ -9492,7 +9492,7 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O21" t="n">
-        <v>354.4774205063911</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P21" t="n">
         <v>414.0015992319183</v>
@@ -9714,13 +9714,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J24" t="n">
-        <v>102.2176055929986</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K24" t="n">
-        <v>343.8048081163522</v>
+        <v>186.261213562995</v>
       </c>
       <c r="L24" t="n">
-        <v>386.2495946906726</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M24" t="n">
         <v>605.4165828749999</v>
@@ -9963,7 +9963,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N27" t="n">
-        <v>623.1450866466189</v>
+        <v>623.1450866466187</v>
       </c>
       <c r="O27" t="n">
         <v>512.0210150597484</v>
@@ -10191,7 +10191,7 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K30" t="n">
-        <v>343.8048081163506</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L30" t="n">
         <v>482.0924488944969</v>
@@ -10200,7 +10200,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N30" t="n">
-        <v>623.1450866466196</v>
+        <v>623.1450866466179</v>
       </c>
       <c r="O30" t="n">
         <v>512.0210150597484</v>
@@ -10425,7 +10425,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J33" t="n">
-        <v>163.9183459425315</v>
+        <v>163.9183459425309</v>
       </c>
       <c r="K33" t="n">
         <v>343.8048081163522</v>
@@ -10437,7 +10437,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N33" t="n">
-        <v>623.1450866466189</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O33" t="n">
         <v>512.0210150597484</v>
@@ -10899,7 +10899,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J39" t="n">
-        <v>163.9183459425315</v>
+        <v>163.9183459425317</v>
       </c>
       <c r="K39" t="n">
         <v>343.8048081163522</v>
@@ -11151,7 +11151,7 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O42" t="n">
-        <v>512.0210150597484</v>
+        <v>512.0210150597485</v>
       </c>
       <c r="P42" t="n">
         <v>414.0015992319183</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>277.0092604360253</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23273,10 +23273,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>216.2294497816569</v>
+        <v>116.6080584118268</v>
       </c>
       <c r="I11" t="n">
-        <v>57.35610213003367</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,22 +23309,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>108.9489477341494</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>139.2413130842301</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>245.8157371541613</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>167.6543575336334</v>
+        <v>265.1159953869079</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>276.5125931831067</v>
       </c>
     </row>
     <row r="12">
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>-9.390888067173364e-13</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23507,13 +23507,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>298.8325260922642</v>
+        <v>205.7102014309223</v>
       </c>
       <c r="H14" t="n">
         <v>216.2294497816569</v>
       </c>
       <c r="I14" t="n">
-        <v>57.35610213003369</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>71.8850957913081</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>108.9489477341494</v>
@@ -23552,13 +23552,13 @@
         <v>139.2413130842301</v>
       </c>
       <c r="V14" t="n">
-        <v>42.75247280422266</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>265.1159953869079</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23789,7 +23789,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>9.812950452214863e-13</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -24461,7 +24461,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>57.35610213003368</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24491,13 +24491,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>71.8850957913081</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>64.59326316866175</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>139.2413130842301</v>
+        <v>56.56318099112499</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24509,7 +24509,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>276.5125931831067</v>
       </c>
     </row>
     <row r="27">
@@ -24680,7 +24680,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>265.020577393707</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -24695,10 +24695,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>216.2294497816569</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>44.96122860126622</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24728,7 +24728,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>71.8850957913081</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24740,7 +24740,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>68.05519678052693</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -25883,7 +25883,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>1.34559030584569e-12</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>727717.0925010038</v>
+        <v>727717.0925010034</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>727717.0925010038</v>
+        <v>727717.0925010036</v>
       </c>
     </row>
     <row r="7">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>776150.8237378763</v>
+        <v>776150.8237378766</v>
       </c>
     </row>
     <row r="12">
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>575718.0453706365</v>
+        <v>575718.0453706367</v>
       </c>
       <c r="C2" t="n">
-        <v>575718.0453706364</v>
+        <v>575718.0453706366</v>
       </c>
       <c r="D2" t="n">
         <v>575718.0453706365</v>
@@ -26323,37 +26323,37 @@
         <v>519883.8646977902</v>
       </c>
       <c r="F2" t="n">
-        <v>519883.8646977906</v>
+        <v>519883.8646977901</v>
       </c>
       <c r="G2" t="n">
+        <v>575718.0453706358</v>
+      </c>
+      <c r="H2" t="n">
+        <v>575718.045370636</v>
+      </c>
+      <c r="I2" t="n">
         <v>575718.0453706359</v>
       </c>
-      <c r="H2" t="n">
-        <v>575718.0453706357</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
+        <v>555833.4216524354</v>
+      </c>
+      <c r="K2" t="n">
+        <v>555833.4216524356</v>
+      </c>
+      <c r="L2" t="n">
+        <v>575718.0453706349</v>
+      </c>
+      <c r="M2" t="n">
+        <v>575718.045370636</v>
+      </c>
+      <c r="N2" t="n">
         <v>575718.0453706358</v>
       </c>
-      <c r="J2" t="n">
-        <v>555833.4216524352</v>
-      </c>
-      <c r="K2" t="n">
-        <v>555833.4216524354</v>
-      </c>
-      <c r="L2" t="n">
-        <v>575718.0453706353</v>
-      </c>
-      <c r="M2" t="n">
-        <v>575718.0453706357</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
+        <v>575718.0453706358</v>
+      </c>
+      <c r="P2" t="n">
         <v>575718.045370636</v>
-      </c>
-      <c r="O2" t="n">
-        <v>575718.0453706355</v>
-      </c>
-      <c r="P2" t="n">
-        <v>575718.0453706358</v>
       </c>
     </row>
     <row r="3">
@@ -26363,46 +26363,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>163221.1189693437</v>
+        <v>163221.1189693435</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>11883.09075580688</v>
+        <v>11883.09075580716</v>
       </c>
       <c r="E3" t="n">
-        <v>116815.4080464712</v>
+        <v>116815.408046471</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>50165.13173073324</v>
+        <v>50165.13173073328</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.209268702950794e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>208341.6156199806</v>
+        <v>208341.6156199805</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>75846.99999190189</v>
+        <v>75846.99999190198</v>
       </c>
       <c r="M3" t="n">
-        <v>15962.79469329113</v>
+        <v>15962.79469329106</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>40309.94321871782</v>
+        <v>40309.94321871764</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,34 +26415,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>228310.8279918282</v>
+        <v>228310.8279918284</v>
       </c>
       <c r="C4" t="n">
-        <v>228310.8279918282</v>
+        <v>228310.8279918284</v>
       </c>
       <c r="D4" t="n">
         <v>219386.7809755888</v>
       </c>
       <c r="E4" t="n">
-        <v>170056.5694057943</v>
+        <v>170056.5694057942</v>
       </c>
       <c r="F4" t="n">
         <v>170056.5694057943</v>
       </c>
       <c r="G4" t="n">
-        <v>212298.2149863611</v>
+        <v>212298.2149863612</v>
       </c>
       <c r="H4" t="n">
         <v>212298.2149863611</v>
       </c>
       <c r="I4" t="n">
-        <v>212298.2149863611</v>
+        <v>212298.2149863612</v>
       </c>
       <c r="J4" t="n">
-        <v>194818.0890070216</v>
+        <v>194818.0890070217</v>
       </c>
       <c r="K4" t="n">
-        <v>194818.0890070215</v>
+        <v>194818.0890070217</v>
       </c>
       <c r="L4" t="n">
         <v>209634.8156223679</v>
@@ -26454,7 +26454,7 @@
         <v>209249.2231236644</v>
       </c>
       <c r="O4" t="n">
-        <v>209249.2231236645</v>
+        <v>209249.2231236644</v>
       </c>
       <c r="P4" t="n">
         <v>209249.2231236644</v>
@@ -26467,43 +26467,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63240.14236007705</v>
+        <v>63240.14236007699</v>
       </c>
       <c r="C5" t="n">
-        <v>63240.14236007705</v>
+        <v>63240.14236007699</v>
       </c>
       <c r="D5" t="n">
         <v>65566.03463691141</v>
       </c>
       <c r="E5" t="n">
-        <v>46225.14601348076</v>
+        <v>46225.14601348073</v>
       </c>
       <c r="F5" t="n">
-        <v>46225.14601348076</v>
+        <v>46225.14601348073</v>
       </c>
       <c r="G5" t="n">
-        <v>51496.81158781952</v>
+        <v>51496.8115878195</v>
       </c>
       <c r="H5" t="n">
-        <v>51496.81158781952</v>
+        <v>51496.8115878195</v>
       </c>
       <c r="I5" t="n">
-        <v>51496.81158781952</v>
+        <v>51496.81158781953</v>
       </c>
       <c r="J5" t="n">
-        <v>55659.26890082687</v>
+        <v>55659.26890082691</v>
       </c>
       <c r="K5" t="n">
-        <v>55659.26890082687</v>
+        <v>55659.26890082692</v>
       </c>
       <c r="L5" t="n">
-        <v>56032.18785255274</v>
+        <v>56032.18785255273</v>
       </c>
       <c r="M5" t="n">
-        <v>53020.52544612265</v>
+        <v>53020.52544612267</v>
       </c>
       <c r="N5" t="n">
-        <v>53020.52544612264</v>
+        <v>53020.52544612266</v>
       </c>
       <c r="O5" t="n">
         <v>53020.52544612266</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>120945.9560493875</v>
+        <v>120945.9560493878</v>
       </c>
       <c r="C6" t="n">
-        <v>284167.0750187311</v>
+        <v>284167.0750187312</v>
       </c>
       <c r="D6" t="n">
-        <v>278882.1390023294</v>
+        <v>278882.1390023292</v>
       </c>
       <c r="E6" t="n">
-        <v>186786.7412320439</v>
+        <v>186600.627296468</v>
       </c>
       <c r="F6" t="n">
-        <v>303602.1492785155</v>
+        <v>303416.0353429389</v>
       </c>
       <c r="G6" t="n">
-        <v>261757.8870657221</v>
+        <v>261757.8870657218</v>
       </c>
       <c r="H6" t="n">
+        <v>311923.0187964555</v>
+      </c>
+      <c r="I6" t="n">
         <v>311923.0187964551</v>
       </c>
-      <c r="I6" t="n">
-        <v>311923.0187964552</v>
-      </c>
       <c r="J6" t="n">
-        <v>97014.4481246061</v>
+        <v>96948.16604554567</v>
       </c>
       <c r="K6" t="n">
-        <v>305356.0637445871</v>
+        <v>305289.7816655263</v>
       </c>
       <c r="L6" t="n">
-        <v>234204.0419038128</v>
+        <v>234204.0419038123</v>
       </c>
       <c r="M6" t="n">
-        <v>297485.5021075575</v>
+        <v>297485.5021075578</v>
       </c>
       <c r="N6" t="n">
-        <v>313448.2968008491</v>
+        <v>313448.2968008487</v>
       </c>
       <c r="O6" t="n">
-        <v>273138.3535821305</v>
+        <v>273138.3535821311</v>
       </c>
       <c r="P6" t="n">
-        <v>313448.2968008487</v>
+        <v>313448.296800849</v>
       </c>
     </row>
   </sheetData>
@@ -26698,16 +26698,16 @@
         <v>113.0938436868137</v>
       </c>
       <c r="G2" t="n">
-        <v>175.8002583502302</v>
+        <v>175.8002583502303</v>
       </c>
       <c r="H2" t="n">
-        <v>175.8002583502302</v>
+        <v>175.8002583502303</v>
       </c>
       <c r="I2" t="n">
-        <v>175.8002583502302</v>
+        <v>175.8002583502303</v>
       </c>
       <c r="J2" t="n">
-        <v>113.0938436868137</v>
+        <v>113.0938436868136</v>
       </c>
       <c r="K2" t="n">
         <v>113.0938436868137</v>
@@ -26719,13 +26719,13 @@
         <v>165.1496723798884</v>
       </c>
       <c r="N2" t="n">
-        <v>165.1496723798882</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="O2" t="n">
         <v>165.1496723798884</v>
       </c>
       <c r="P2" t="n">
-        <v>165.1496723798884</v>
+        <v>165.1496723798883</v>
       </c>
     </row>
     <row r="3">
@@ -26771,13 +26771,13 @@
         <v>4.123504192415339</v>
       </c>
       <c r="N3" t="n">
+        <v>4.123504192415339</v>
+      </c>
+      <c r="O3" t="n">
+        <v>4.123504192415339</v>
+      </c>
+      <c r="P3" t="n">
         <v>4.123504192415302</v>
-      </c>
-      <c r="O3" t="n">
-        <v>4.123504192415303</v>
-      </c>
-      <c r="P3" t="n">
-        <v>4.123504192415303</v>
       </c>
     </row>
     <row r="4">
@@ -26787,40 +26787,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>487.0483940802146</v>
+        <v>487.0483940802137</v>
       </c>
       <c r="C4" t="n">
-        <v>487.0483940802146</v>
+        <v>487.0483940802137</v>
       </c>
       <c r="D4" t="n">
         <v>525.3032012649903</v>
       </c>
       <c r="E4" t="n">
-        <v>602.4270933746607</v>
+        <v>602.4270933746602</v>
       </c>
       <c r="F4" t="n">
-        <v>602.4270933746607</v>
+        <v>602.4270933746602</v>
       </c>
       <c r="G4" t="n">
-        <v>602.4270933746607</v>
+        <v>602.4270933746602</v>
       </c>
       <c r="H4" t="n">
-        <v>602.4270933746607</v>
+        <v>602.4270933746602</v>
       </c>
       <c r="I4" t="n">
         <v>602.4270933746607</v>
       </c>
       <c r="J4" t="n">
-        <v>757.593588232327</v>
+        <v>757.5935882323276</v>
       </c>
       <c r="K4" t="n">
-        <v>757.593588232327</v>
+        <v>757.5935882323276</v>
       </c>
       <c r="L4" t="n">
-        <v>719.3387810475513</v>
+        <v>719.338781047551</v>
       </c>
       <c r="M4" t="n">
-        <v>642.2148889378809</v>
+        <v>642.2148889378811</v>
       </c>
       <c r="N4" t="n">
         <v>642.214888937881</v>
@@ -26829,7 +26829,7 @@
         <v>642.214888937881</v>
       </c>
       <c r="P4" t="n">
-        <v>642.2148889378809</v>
+        <v>642.214888937881</v>
       </c>
     </row>
   </sheetData>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>62.70641466341655</v>
+        <v>62.7064146634166</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>50.38742902339713</v>
+        <v>50.38742902339705</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>94.80874998987736</v>
+        <v>94.80874998987747</v>
       </c>
       <c r="M2" t="n">
-        <v>19.95349336661391</v>
+        <v>19.95349336661383</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>50.38742902339727</v>
+        <v>50.38742902339705</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>487.0483940802146</v>
+        <v>487.0483940802137</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>38.2548071847757</v>
+        <v>38.25480718477661</v>
       </c>
       <c r="E4" t="n">
-        <v>77.12389210967035</v>
+        <v>77.1238921096699</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="J4" t="n">
-        <v>642.2148889378809</v>
+        <v>642.2148889378807</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>62.70641466341655</v>
+        <v>62.7064146634166</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>50.38742902339713</v>
+        <v>50.38742902339705</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>487.0483940802146</v>
+        <v>487.0483940802137</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>38.2548071847757</v>
+        <v>38.25480718477661</v>
       </c>
       <c r="M4" t="n">
-        <v>77.12389210967035</v>
+        <v>77.1238921096699</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D2" t="n">
         <v>369.0957251250487</v>
@@ -27391,7 +27391,7 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>328.6699493061869</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>329.4930616586638</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>358.909580840975</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>164.2639939413231</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="3">
@@ -27455,10 +27455,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27503,10 +27503,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S3" t="n">
-        <v>69.10006798120999</v>
+        <v>88.92281607109004</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -27518,7 +27518,7 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -27537,28 +27537,28 @@
         <v>181.719814997536</v>
       </c>
       <c r="C4" t="n">
-        <v>167.9198098429365</v>
+        <v>117.1464753882914</v>
       </c>
       <c r="D4" t="n">
         <v>151.5411742405149</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.393337073099332</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>157.7789187685189</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>142.7610139533483</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>159.5951302564171</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,7 +27631,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>329.4930616586638</v>
+        <v>262.6574472624154</v>
       </c>
       <c r="I5" t="n">
         <v>171.0890268032919</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S5" t="n">
         <v>185.3566856159496</v>
@@ -27670,13 +27670,13 @@
         <v>222.1153568062989</v>
       </c>
       <c r="U5" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>333.6094813630181</v>
       </c>
       <c r="W5" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>378.2098390737216</v>
@@ -27695,16 +27695,16 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D6" t="n">
-        <v>98.03751307474731</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>133.3468600696244</v>
+        <v>6.397548623226854</v>
       </c>
       <c r="G6" t="n">
         <v>127.4412149769483</v>
@@ -27740,10 +27740,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -27771,16 +27771,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C7" t="n">
         <v>167.9198098429365</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E7" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>150.9558484244806</v>
@@ -27789,7 +27789,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>157.7789187685189</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>142.7610139533483</v>
@@ -27837,10 +27837,10 @@
         <v>283.2948374677749</v>
       </c>
       <c r="X7" t="n">
-        <v>202.6928270539842</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y7" t="n">
-        <v>219.8148072196457</v>
+        <v>168.5745484368143</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>279.9720203229316</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C8" t="n">
         <v>378.1144210805207</v>
@@ -27865,13 +27865,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>329.4930616586638</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>152.5989622533182</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,7 +27907,7 @@
         <v>222.1153568062989</v>
       </c>
       <c r="U8" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="9">
@@ -27929,19 +27929,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>47.25475346474011</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -27977,16 +27977,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>170.2441889340967</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -27998,7 +27998,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28017,16 +28017,16 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E10" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>150.9558484244806</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I10" t="n">
         <v>142.7610139533483</v>
@@ -28062,7 +28062,7 @@
         <v>211.5726649703493</v>
       </c>
       <c r="T10" t="n">
-        <v>197.0377906162888</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U10" t="n">
         <v>284.3183371157911</v>
@@ -28077,7 +28077,7 @@
         <v>228.939939463578</v>
       </c>
       <c r="Y10" t="n">
-        <v>219.8148072196457</v>
+        <v>193.2047033629394</v>
       </c>
     </row>
     <row r="11">
@@ -28117,25 +28117,25 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>60.22468098335719</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>113.0938436868137</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>35.82144216086488</v>
       </c>
       <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
         <v>113.0938436868137</v>
       </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
       <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
         <v>113.0938436868137</v>
-      </c>
-      <c r="R11" t="n">
-        <v>88.69060486432404</v>
       </c>
       <c r="S11" t="n">
         <v>113.0938436868137</v>
@@ -28184,10 +28184,10 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>98.85281891431895</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>67.39308974070319</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28223,7 +28223,7 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>55.55565810742544</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -28235,7 +28235,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>87.01538728104276</v>
       </c>
     </row>
     <row r="13">
@@ -28348,11 +28348,11 @@
         <v>113.0938436868137</v>
       </c>
       <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
         <v>113.0938436868137</v>
       </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
@@ -28360,19 +28360,19 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>60.22468098335673</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>35.82144216086519</v>
+      </c>
+      <c r="Q14" t="n">
         <v>113.0938436868137</v>
       </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
       <c r="R14" t="n">
-        <v>88.69060486432404</v>
+        <v>113.0938436868137</v>
       </c>
       <c r="S14" t="n">
         <v>113.0938436868137</v>
@@ -28418,52 +28418,52 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>41.31463333493232</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
         <v>113.0938436868137</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R15" t="n">
-        <v>41.31463333493101</v>
-      </c>
-      <c r="S15" t="n">
-        <v>0</v>
-      </c>
-      <c r="T15" t="n">
-        <v>0</v>
-      </c>
-      <c r="U15" t="n">
-        <v>0</v>
-      </c>
-      <c r="V15" t="n">
-        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -28561,37 +28561,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>175.8002583502302</v>
+        <v>175.8002583502303</v>
       </c>
       <c r="C17" t="n">
-        <v>175.8002583502302</v>
+        <v>175.8002583502303</v>
       </c>
       <c r="D17" t="n">
-        <v>175.8002583502302</v>
+        <v>175.8002583502303</v>
       </c>
       <c r="E17" t="n">
-        <v>175.8002583502302</v>
+        <v>175.8002583502303</v>
       </c>
       <c r="F17" t="n">
-        <v>175.8002583502302</v>
+        <v>175.8002583502303</v>
       </c>
       <c r="G17" t="n">
-        <v>175.8002583502302</v>
+        <v>175.8002583502303</v>
       </c>
       <c r="H17" t="n">
-        <v>175.8002583502302</v>
+        <v>175.8002583502303</v>
       </c>
       <c r="I17" t="n">
-        <v>175.8002583502302</v>
+        <v>175.8002583502303</v>
       </c>
       <c r="J17" t="n">
-        <v>175.8002583502302</v>
+        <v>175.8002583502303</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>105.2617974733692</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -28600,7 +28600,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>105.2617974733708</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>88.69060486432404</v>
       </c>
       <c r="S17" t="n">
-        <v>175.8002583502302</v>
+        <v>175.8002583502303</v>
       </c>
       <c r="T17" t="n">
-        <v>175.8002583502302</v>
+        <v>175.8002583502303</v>
       </c>
       <c r="U17" t="n">
-        <v>175.8002583502302</v>
+        <v>175.8002583502303</v>
       </c>
       <c r="V17" t="n">
-        <v>175.8002583502302</v>
+        <v>175.8002583502303</v>
       </c>
       <c r="W17" t="n">
-        <v>175.8002583502302</v>
+        <v>175.8002583502303</v>
       </c>
       <c r="X17" t="n">
-        <v>175.8002583502302</v>
+        <v>175.8002583502303</v>
       </c>
       <c r="Y17" t="n">
-        <v>175.8002583502302</v>
+        <v>175.8002583502303</v>
       </c>
     </row>
     <row r="18">
@@ -28658,7 +28658,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>98.85281891431895</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -28688,13 +28688,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>55.55565810742743</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>154.4084770217443</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -28719,7 +28719,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>175.8002583502302</v>
+        <v>175.8002583502303</v>
       </c>
       <c r="C19" t="n">
         <v>167.9198098429365</v>
@@ -28770,25 +28770,25 @@
         <v>147.692221740033</v>
       </c>
       <c r="S19" t="n">
-        <v>135.0338879992357</v>
+        <v>135.0338879992352</v>
       </c>
       <c r="T19" t="n">
-        <v>175.8002583502302</v>
+        <v>175.8002583502303</v>
       </c>
       <c r="U19" t="n">
-        <v>175.8002583502302</v>
+        <v>175.8002583502303</v>
       </c>
       <c r="V19" t="n">
-        <v>175.8002583502302</v>
+        <v>175.8002583502303</v>
       </c>
       <c r="W19" t="n">
-        <v>175.8002583502302</v>
+        <v>175.8002583502303</v>
       </c>
       <c r="X19" t="n">
-        <v>175.8002583502302</v>
+        <v>175.8002583502303</v>
       </c>
       <c r="Y19" t="n">
-        <v>175.8002583502302</v>
+        <v>175.8002583502303</v>
       </c>
     </row>
     <row r="20">
@@ -28798,31 +28798,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>175.8002583502302</v>
+        <v>175.8002583502303</v>
       </c>
       <c r="C20" t="n">
-        <v>175.8002583502302</v>
+        <v>175.8002583502303</v>
       </c>
       <c r="D20" t="n">
-        <v>175.8002583502302</v>
+        <v>175.8002583502303</v>
       </c>
       <c r="E20" t="n">
-        <v>175.8002583502302</v>
+        <v>175.8002583502303</v>
       </c>
       <c r="F20" t="n">
-        <v>175.8002583502302</v>
+        <v>175.8002583502303</v>
       </c>
       <c r="G20" t="n">
-        <v>175.8002583502302</v>
+        <v>175.8002583502303</v>
       </c>
       <c r="H20" t="n">
-        <v>175.8002583502302</v>
+        <v>175.8002583502303</v>
       </c>
       <c r="I20" t="n">
-        <v>175.8002583502302</v>
+        <v>175.8002583502303</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>175.8002583502303</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -28831,7 +28831,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>105.2617974733711</v>
+        <v>105.2617974733692</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -28843,31 +28843,31 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>175.8002583502302</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>88.69060486432404</v>
       </c>
       <c r="S20" t="n">
-        <v>175.8002583502302</v>
+        <v>175.8002583502303</v>
       </c>
       <c r="T20" t="n">
-        <v>175.8002583502302</v>
+        <v>175.8002583502303</v>
       </c>
       <c r="U20" t="n">
-        <v>175.8002583502302</v>
+        <v>175.8002583502303</v>
       </c>
       <c r="V20" t="n">
-        <v>175.8002583502302</v>
+        <v>175.8002583502303</v>
       </c>
       <c r="W20" t="n">
-        <v>175.8002583502302</v>
+        <v>175.8002583502303</v>
       </c>
       <c r="X20" t="n">
-        <v>175.8002583502302</v>
+        <v>175.8002583502303</v>
       </c>
       <c r="Y20" t="n">
-        <v>175.8002583502302</v>
+        <v>175.8002583502303</v>
       </c>
     </row>
     <row r="21">
@@ -28898,7 +28898,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>67.39308974070319</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28925,7 +28925,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>58.63574390140148</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -28940,7 +28940,7 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>95.7727331203431</v>
+        <v>87.01538728104279</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -28956,7 +28956,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>175.8002583502302</v>
+        <v>175.8002583502303</v>
       </c>
       <c r="C22" t="n">
         <v>167.9198098429365</v>
@@ -28980,7 +28980,7 @@
         <v>142.5373983489465</v>
       </c>
       <c r="J22" t="n">
-        <v>18.16458286365621</v>
+        <v>58.93095321465074</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29007,25 +29007,25 @@
         <v>147.692221740033</v>
       </c>
       <c r="S22" t="n">
-        <v>175.8002583502302</v>
+        <v>135.0338879992352</v>
       </c>
       <c r="T22" t="n">
-        <v>175.8002583502302</v>
+        <v>175.8002583502303</v>
       </c>
       <c r="U22" t="n">
-        <v>175.8002583502302</v>
+        <v>175.8002583502303</v>
       </c>
       <c r="V22" t="n">
-        <v>175.8002583502302</v>
+        <v>175.8002583502303</v>
       </c>
       <c r="W22" t="n">
-        <v>175.8002583502302</v>
+        <v>175.8002583502303</v>
       </c>
       <c r="X22" t="n">
-        <v>175.8002583502302</v>
+        <v>175.8002583502303</v>
       </c>
       <c r="Y22" t="n">
-        <v>175.8002583502302</v>
+        <v>175.8002583502303</v>
       </c>
     </row>
     <row r="23">
@@ -29035,31 +29035,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>175.8002583502302</v>
+        <v>175.8002583502303</v>
       </c>
       <c r="C23" t="n">
-        <v>175.8002583502302</v>
+        <v>175.8002583502303</v>
       </c>
       <c r="D23" t="n">
-        <v>175.8002583502302</v>
+        <v>175.8002583502303</v>
       </c>
       <c r="E23" t="n">
-        <v>175.8002583502302</v>
+        <v>175.8002583502303</v>
       </c>
       <c r="F23" t="n">
-        <v>175.8002583502302</v>
+        <v>175.8002583502303</v>
       </c>
       <c r="G23" t="n">
-        <v>175.8002583502302</v>
+        <v>175.8002583502303</v>
       </c>
       <c r="H23" t="n">
-        <v>175.8002583502302</v>
+        <v>175.8002583502303</v>
       </c>
       <c r="I23" t="n">
         <v>170.4499458168474</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>23.50245652084784</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -29068,13 +29068,13 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>110.6121100067539</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>175.8002583502302</v>
+        <v>175.8002583502303</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -29083,28 +29083,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>88.69060486432404</v>
+        <v>175.8002583502303</v>
       </c>
       <c r="S23" t="n">
-        <v>175.8002583502302</v>
+        <v>175.8002583502303</v>
       </c>
       <c r="T23" t="n">
-        <v>175.8002583502302</v>
+        <v>175.8002583502303</v>
       </c>
       <c r="U23" t="n">
-        <v>175.8002583502302</v>
+        <v>175.8002583502303</v>
       </c>
       <c r="V23" t="n">
-        <v>175.8002583502302</v>
+        <v>175.8002583502303</v>
       </c>
       <c r="W23" t="n">
-        <v>175.8002583502302</v>
+        <v>175.8002583502303</v>
       </c>
       <c r="X23" t="n">
-        <v>175.8002583502302</v>
+        <v>175.8002583502303</v>
       </c>
       <c r="Y23" t="n">
-        <v>175.8002583502302</v>
+        <v>175.8002583502303</v>
       </c>
     </row>
     <row r="24">
@@ -29135,7 +29135,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>67.39308974070319</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29162,7 +29162,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>58.63574390140148</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -29171,10 +29171,10 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>95.77273312034303</v>
       </c>
       <c r="V24" t="n">
-        <v>87.01538728104128</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -29193,7 +29193,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>175.8002583502302</v>
+        <v>175.8002583502303</v>
       </c>
       <c r="C25" t="n">
         <v>167.9198098429365</v>
@@ -29244,25 +29244,25 @@
         <v>147.692221740033</v>
       </c>
       <c r="S25" t="n">
-        <v>175.8002583502302</v>
+        <v>135.0338879992352</v>
       </c>
       <c r="T25" t="n">
-        <v>175.8002583502302</v>
+        <v>175.8002583502303</v>
       </c>
       <c r="U25" t="n">
-        <v>175.8002583502302</v>
+        <v>175.8002583502303</v>
       </c>
       <c r="V25" t="n">
-        <v>175.8002583502302</v>
+        <v>175.8002583502303</v>
       </c>
       <c r="W25" t="n">
-        <v>135.0338879992357</v>
+        <v>175.8002583502303</v>
       </c>
       <c r="X25" t="n">
-        <v>175.8002583502302</v>
+        <v>175.8002583502303</v>
       </c>
       <c r="Y25" t="n">
-        <v>175.8002583502302</v>
+        <v>175.8002583502303</v>
       </c>
     </row>
     <row r="26">
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>113.0938436868137</v>
+        <v>113.0938436868136</v>
       </c>
       <c r="C26" t="n">
-        <v>113.0938436868137</v>
+        <v>113.0938436868136</v>
       </c>
       <c r="D26" t="n">
-        <v>113.0938436868137</v>
+        <v>113.0938436868136</v>
       </c>
       <c r="E26" t="n">
-        <v>113.0938436868137</v>
+        <v>113.0938436868136</v>
       </c>
       <c r="F26" t="n">
-        <v>113.0938436868137</v>
+        <v>113.0938436868136</v>
       </c>
       <c r="G26" t="n">
-        <v>113.0938436868137</v>
+        <v>113.0938436868136</v>
       </c>
       <c r="H26" t="n">
-        <v>113.0938436868137</v>
+        <v>113.0938436868136</v>
       </c>
       <c r="I26" t="n">
-        <v>113.0938436868137</v>
+        <v>113.0938436868136</v>
       </c>
       <c r="J26" t="n">
-        <v>113.0938436868137</v>
+        <v>113.0938436868136</v>
       </c>
       <c r="K26" t="n">
-        <v>113.0938436868137</v>
+        <v>113.0938436868136</v>
       </c>
       <c r="L26" t="n">
-        <v>113.0938436868137</v>
+        <v>113.0938436868136</v>
       </c>
       <c r="M26" t="n">
-        <v>113.0938436868137</v>
+        <v>113.0938436868136</v>
       </c>
       <c r="N26" t="n">
-        <v>113.0938436868137</v>
+        <v>113.0938436868136</v>
       </c>
       <c r="O26" t="n">
-        <v>84.74884982988152</v>
+        <v>113.0938436868136</v>
       </c>
       <c r="P26" t="n">
-        <v>113.0938436868137</v>
+        <v>113.0938436868136</v>
       </c>
       <c r="Q26" t="n">
-        <v>113.0938436868137</v>
+        <v>109.1520886523738</v>
       </c>
       <c r="R26" t="n">
-        <v>113.0938436868137</v>
+        <v>88.69060486432404</v>
       </c>
       <c r="S26" t="n">
-        <v>113.0938436868137</v>
+        <v>113.0938436868136</v>
       </c>
       <c r="T26" t="n">
-        <v>113.0938436868137</v>
+        <v>113.0938436868136</v>
       </c>
       <c r="U26" t="n">
-        <v>113.0938436868137</v>
+        <v>113.0938436868136</v>
       </c>
       <c r="V26" t="n">
-        <v>113.0938436868137</v>
+        <v>113.0938436868136</v>
       </c>
       <c r="W26" t="n">
-        <v>113.0938436868137</v>
+        <v>113.0938436868136</v>
       </c>
       <c r="X26" t="n">
-        <v>113.0938436868137</v>
+        <v>113.0938436868136</v>
       </c>
       <c r="Y26" t="n">
-        <v>113.0938436868137</v>
+        <v>113.0938436868136</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>113.0938436868137</v>
+        <v>113.0938436868136</v>
       </c>
       <c r="C28" t="n">
-        <v>113.0938436868137</v>
+        <v>113.0938436868136</v>
       </c>
       <c r="D28" t="n">
-        <v>113.0938436868137</v>
+        <v>113.0938436868136</v>
       </c>
       <c r="E28" t="n">
-        <v>113.0938436868137</v>
+        <v>113.0938436868136</v>
       </c>
       <c r="F28" t="n">
-        <v>113.0938436868137</v>
+        <v>113.0938436868136</v>
       </c>
       <c r="G28" t="n">
-        <v>113.0938436868137</v>
+        <v>113.0938436868136</v>
       </c>
       <c r="H28" t="n">
-        <v>113.0938436868137</v>
+        <v>113.0938436868136</v>
       </c>
       <c r="I28" t="n">
-        <v>113.0938436868137</v>
+        <v>113.0938436868136</v>
       </c>
       <c r="J28" t="n">
-        <v>113.0938436868137</v>
+        <v>113.0938436868136</v>
       </c>
       <c r="K28" t="n">
-        <v>113.0938436868137</v>
+        <v>113.0938436868136</v>
       </c>
       <c r="L28" t="n">
-        <v>113.0938436868137</v>
+        <v>113.0938436868136</v>
       </c>
       <c r="M28" t="n">
-        <v>113.0938436868137</v>
+        <v>113.0938436868136</v>
       </c>
       <c r="N28" t="n">
-        <v>113.0938436868137</v>
+        <v>113.0938436868136</v>
       </c>
       <c r="O28" t="n">
-        <v>113.0938436868137</v>
+        <v>113.0938436868136</v>
       </c>
       <c r="P28" t="n">
-        <v>113.0938436868137</v>
+        <v>113.0938436868136</v>
       </c>
       <c r="Q28" t="n">
-        <v>113.0938436868137</v>
+        <v>113.0938436868136</v>
       </c>
       <c r="R28" t="n">
-        <v>113.0938436868137</v>
+        <v>113.0938436868136</v>
       </c>
       <c r="S28" t="n">
-        <v>113.0938436868137</v>
+        <v>113.0938436868136</v>
       </c>
       <c r="T28" t="n">
-        <v>113.0938436868137</v>
+        <v>113.0938436868136</v>
       </c>
       <c r="U28" t="n">
-        <v>113.0938436868137</v>
+        <v>113.0938436868136</v>
       </c>
       <c r="V28" t="n">
-        <v>113.0938436868137</v>
+        <v>113.0938436868136</v>
       </c>
       <c r="W28" t="n">
-        <v>113.0938436868137</v>
+        <v>113.0938436868136</v>
       </c>
       <c r="X28" t="n">
-        <v>113.0938436868137</v>
+        <v>113.0938436868136</v>
       </c>
       <c r="Y28" t="n">
-        <v>113.0938436868137</v>
+        <v>113.0938436868136</v>
       </c>
     </row>
     <row r="29">
@@ -29539,7 +29539,7 @@
         <v>113.0938436868137</v>
       </c>
       <c r="L29" t="n">
-        <v>113.0938436868137</v>
+        <v>84.748849829883</v>
       </c>
       <c r="M29" t="n">
         <v>113.0938436868137</v>
@@ -29548,7 +29548,7 @@
         <v>113.0938436868137</v>
       </c>
       <c r="O29" t="n">
-        <v>84.74884982988004</v>
+        <v>113.0938436868137</v>
       </c>
       <c r="P29" t="n">
         <v>113.0938436868137</v>
@@ -29773,28 +29773,28 @@
         <v>145.1961790132745</v>
       </c>
       <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
         <v>145.1961790132745</v>
       </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
       <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>112.0451242940572</v>
+      </c>
+      <c r="P32" t="n">
         <v>145.1961790132745</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>145.1961790132745</v>
-      </c>
-      <c r="P32" t="n">
-        <v>23.35451942973404</v>
       </c>
       <c r="Q32" t="n">
         <v>145.1961790132745</v>
       </c>
       <c r="R32" t="n">
-        <v>88.69060486432404</v>
+        <v>145.1961790132745</v>
       </c>
       <c r="S32" t="n">
         <v>145.1961790132745</v>
@@ -29928,13 +29928,13 @@
         <v>142.5373983489465</v>
       </c>
       <c r="J34" t="n">
-        <v>58.93095321465074</v>
+        <v>93.00487186889305</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>145.1961790132745</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -29943,13 +29943,13 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>141.7407788677247</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
         <v>145.1961790132745</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>37.52931879979314</v>
       </c>
       <c r="R34" t="n">
         <v>145.1961790132745</v>
@@ -30007,13 +30007,13 @@
         <v>165.1496723798884</v>
       </c>
       <c r="J35" t="n">
-        <v>113.6566181505643</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>165.1496723798884</v>
+        <v>37.19755063500071</v>
       </c>
       <c r="M35" t="n">
         <v>165.1496723798884</v>
@@ -30022,7 +30022,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -30031,7 +30031,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>88.69060486432404</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="S35" t="n">
         <v>165.1496723798884</v>
@@ -30074,7 +30074,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -30113,7 +30113,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>-7.958078640513122e-13</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -30150,7 +30150,7 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E37" t="n">
-        <v>152.6044663253606</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F37" t="n">
         <v>150.9558484244806</v>
@@ -30168,7 +30168,7 @@
         <v>58.93095321465074</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>50.28251996071465</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -30186,10 +30186,10 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.23884589158584</v>
+        <v>37.52931879979314</v>
       </c>
       <c r="R37" t="n">
-        <v>165.1496723798884</v>
+        <v>147.692221740033</v>
       </c>
       <c r="S37" t="n">
         <v>165.1496723798884</v>
@@ -30220,34 +30220,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>165.1496723798882</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="C38" t="n">
-        <v>165.1496723798882</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="D38" t="n">
-        <v>165.1496723798882</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="E38" t="n">
-        <v>165.1496723798882</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="F38" t="n">
-        <v>165.1496723798882</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="G38" t="n">
-        <v>165.1496723798882</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="H38" t="n">
-        <v>165.1496723798882</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="I38" t="n">
-        <v>165.1496723798882</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -30256,40 +30256,40 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>165.1496723798882</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>113.6566181505654</v>
+        <v>113.6566181505653</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>165.1496723798882</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="R38" t="n">
         <v>88.69060486432404</v>
       </c>
       <c r="S38" t="n">
-        <v>165.1496723798882</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="T38" t="n">
-        <v>165.1496723798882</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="U38" t="n">
-        <v>165.1496723798882</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="V38" t="n">
-        <v>165.1496723798882</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="W38" t="n">
-        <v>165.1496723798882</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="X38" t="n">
-        <v>165.1496723798882</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="Y38" t="n">
-        <v>165.1496723798882</v>
+        <v>165.1496723798884</v>
       </c>
     </row>
     <row r="39">
@@ -30320,7 +30320,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>-1.06581410364015e-12</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -30350,7 +30350,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>-7.958078640513122e-13</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -30378,10 +30378,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>165.1496723798882</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="C40" t="n">
-        <v>165.1496723798882</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="D40" t="n">
         <v>151.5411742405149</v>
@@ -30393,7 +30393,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G40" t="n">
-        <v>165.1496723798882</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="H40" t="n">
         <v>157.7128075045815</v>
@@ -30405,7 +30405,7 @@
         <v>58.93095321465074</v>
       </c>
       <c r="K40" t="n">
-        <v>32.82506932086051</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -30414,7 +30414,7 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>50.28251996071464</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -30423,31 +30423,31 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>37.52931879979315</v>
+        <v>37.52931879979314</v>
       </c>
       <c r="R40" t="n">
-        <v>165.1496723798882</v>
+        <v>147.692221740033</v>
       </c>
       <c r="S40" t="n">
-        <v>165.1496723798882</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="T40" t="n">
-        <v>165.1496723798882</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="U40" t="n">
-        <v>165.1496723798882</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="V40" t="n">
-        <v>165.1496723798882</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="W40" t="n">
-        <v>165.1496723798882</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="X40" t="n">
-        <v>165.1496723798882</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="Y40" t="n">
-        <v>165.1496723798882</v>
+        <v>165.1496723798884</v>
       </c>
     </row>
     <row r="41">
@@ -30481,23 +30481,23 @@
         <v>165.1496723798884</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>37.1975506350003</v>
       </c>
       <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
         <v>165.1496723798884</v>
       </c>
-      <c r="L41" t="n">
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
         <v>165.1496723798884</v>
       </c>
-      <c r="M41" t="n">
-        <v>113.6566181505648</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
@@ -30505,7 +30505,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>88.69060486432404</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="S41" t="n">
         <v>165.1496723798884</v>
@@ -30554,7 +30554,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>-1.06581410364015e-12</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -30627,7 +30627,7 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F43" t="n">
-        <v>165.1496723798884</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G43" t="n">
         <v>165.1496723798884</v>
@@ -30642,13 +30642,13 @@
         <v>58.93095321465074</v>
       </c>
       <c r="K43" t="n">
-        <v>18.63124536545124</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>50.28251996071467</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -30660,10 +30660,10 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>37.52931879979315</v>
+        <v>37.52931879979314</v>
       </c>
       <c r="R43" t="n">
-        <v>165.1496723798884</v>
+        <v>147.692221740033</v>
       </c>
       <c r="S43" t="n">
         <v>165.1496723798884</v>
@@ -30694,76 +30694,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>165.1496723798884</v>
+        <v>165.1496723798883</v>
       </c>
       <c r="C44" t="n">
-        <v>165.1496723798884</v>
+        <v>165.1496723798883</v>
       </c>
       <c r="D44" t="n">
-        <v>165.1496723798884</v>
+        <v>165.1496723798883</v>
       </c>
       <c r="E44" t="n">
-        <v>165.1496723798884</v>
+        <v>165.1496723798883</v>
       </c>
       <c r="F44" t="n">
-        <v>165.1496723798884</v>
+        <v>165.1496723798883</v>
       </c>
       <c r="G44" t="n">
-        <v>165.1496723798884</v>
+        <v>165.1496723798883</v>
       </c>
       <c r="H44" t="n">
-        <v>165.1496723798884</v>
+        <v>165.1496723798883</v>
       </c>
       <c r="I44" t="n">
-        <v>165.1496723798884</v>
+        <v>165.1496723798883</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>37.19755063500087</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>165.1496723798883</v>
       </c>
       <c r="L44" t="n">
-        <v>165.1496723798884</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>165.1496723798884</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>113.6566181505646</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>165.1496723798883</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>88.69060486432404</v>
+        <v>165.1496723798883</v>
       </c>
       <c r="S44" t="n">
-        <v>165.1496723798884</v>
+        <v>165.1496723798883</v>
       </c>
       <c r="T44" t="n">
-        <v>165.1496723798884</v>
+        <v>165.1496723798883</v>
       </c>
       <c r="U44" t="n">
-        <v>165.1496723798884</v>
+        <v>165.1496723798883</v>
       </c>
       <c r="V44" t="n">
-        <v>165.1496723798884</v>
+        <v>165.1496723798883</v>
       </c>
       <c r="W44" t="n">
-        <v>165.1496723798884</v>
+        <v>165.1496723798883</v>
       </c>
       <c r="X44" t="n">
-        <v>165.1496723798884</v>
+        <v>165.1496723798883</v>
       </c>
       <c r="Y44" t="n">
-        <v>165.1496723798884</v>
+        <v>165.1496723798883</v>
       </c>
     </row>
     <row r="45">
@@ -30821,7 +30821,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>-8.881784197001252e-13</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -30852,10 +30852,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>165.1496723798884</v>
+        <v>165.1496723798883</v>
       </c>
       <c r="C46" t="n">
-        <v>165.1496723798884</v>
+        <v>165.1496723798883</v>
       </c>
       <c r="D46" t="n">
         <v>151.5411742405149</v>
@@ -30867,7 +30867,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G46" t="n">
-        <v>165.1496723798884</v>
+        <v>165.1496723798883</v>
       </c>
       <c r="H46" t="n">
         <v>157.7128075045815</v>
@@ -30879,7 +30879,7 @@
         <v>58.93095321465074</v>
       </c>
       <c r="K46" t="n">
-        <v>32.82506932085902</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -30894,34 +30894,34 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>50.28251996071491</v>
       </c>
       <c r="Q46" t="n">
         <v>37.52931879979315</v>
       </c>
       <c r="R46" t="n">
-        <v>165.1496723798884</v>
+        <v>147.692221740033</v>
       </c>
       <c r="S46" t="n">
-        <v>165.1496723798884</v>
+        <v>165.1496723798883</v>
       </c>
       <c r="T46" t="n">
-        <v>165.1496723798884</v>
+        <v>165.1496723798883</v>
       </c>
       <c r="U46" t="n">
-        <v>165.1496723798884</v>
+        <v>165.1496723798883</v>
       </c>
       <c r="V46" t="n">
-        <v>165.1496723798884</v>
+        <v>165.1496723798883</v>
       </c>
       <c r="W46" t="n">
-        <v>165.1496723798884</v>
+        <v>165.1496723798883</v>
       </c>
       <c r="X46" t="n">
-        <v>165.1496723798884</v>
+        <v>165.1496723798883</v>
       </c>
       <c r="Y46" t="n">
-        <v>165.1496723798884</v>
+        <v>165.1496723798883</v>
       </c>
     </row>
   </sheetData>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0165769012760414</v>
+        <v>0.01657690127604155</v>
       </c>
       <c r="H38" t="n">
-        <v>0.1697681901932591</v>
+        <v>0.1697681901932606</v>
       </c>
       <c r="I38" t="n">
-        <v>0.6390809864445868</v>
+        <v>0.6390809864445925</v>
       </c>
       <c r="J38" t="n">
-        <v>1.40694377467742</v>
+        <v>1.406943774677433</v>
       </c>
       <c r="K38" t="n">
-        <v>2.108644005692253</v>
+        <v>2.108644005692272</v>
       </c>
       <c r="L38" t="n">
-        <v>2.615959348118906</v>
+        <v>2.615959348118929</v>
       </c>
       <c r="M38" t="n">
-        <v>2.910758816186707</v>
+        <v>2.910758816186733</v>
       </c>
       <c r="N38" t="n">
-        <v>2.95785793693726</v>
+        <v>2.957857936937287</v>
       </c>
       <c r="O38" t="n">
-        <v>2.793021374873623</v>
+        <v>2.793021374873648</v>
       </c>
       <c r="P38" t="n">
-        <v>2.383779124621351</v>
+        <v>2.383779124621372</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.790118847673117</v>
+        <v>1.790118847673133</v>
       </c>
       <c r="R38" t="n">
-        <v>1.041298774781137</v>
+        <v>1.041298774781146</v>
       </c>
       <c r="S38" t="n">
-        <v>0.3777461378277938</v>
+        <v>0.3777461378277973</v>
       </c>
       <c r="T38" t="n">
-        <v>0.07256538533587127</v>
+        <v>0.07256538533587194</v>
       </c>
       <c r="U38" t="n">
-        <v>0.001326152102083312</v>
+        <v>0.001326152102083324</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.008869424111987632</v>
+        <v>0.008869424111987712</v>
       </c>
       <c r="H39" t="n">
-        <v>0.08565996444998582</v>
+        <v>0.08565996444998659</v>
       </c>
       <c r="I39" t="n">
-        <v>0.3053727161364163</v>
+        <v>0.305372716136419</v>
       </c>
       <c r="J39" t="n">
-        <v>0.8379660736680947</v>
+        <v>0.8379660736681023</v>
       </c>
       <c r="K39" t="n">
-        <v>1.432217489171266</v>
+        <v>1.432217489171279</v>
       </c>
       <c r="L39" t="n">
-        <v>1.925793160806788</v>
+        <v>1.925793160806806</v>
       </c>
       <c r="M39" t="n">
-        <v>2.247309784866339</v>
+        <v>2.247309784866359</v>
       </c>
       <c r="N39" t="n">
-        <v>2.306789387792783</v>
+        <v>2.306789387792804</v>
       </c>
       <c r="O39" t="n">
-        <v>2.110261621942952</v>
+        <v>2.110261621942971</v>
       </c>
       <c r="P39" t="n">
-        <v>1.693670995560165</v>
+        <v>1.69367099556018</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.132174207698632</v>
+        <v>1.132174207698642</v>
       </c>
       <c r="R39" t="n">
-        <v>0.5506823146021796</v>
+        <v>0.5506823146021846</v>
       </c>
       <c r="S39" t="n">
-        <v>0.1647456627818754</v>
+        <v>0.1647456627818769</v>
       </c>
       <c r="T39" t="n">
-        <v>0.03575000332858171</v>
+        <v>0.03575000332858203</v>
       </c>
       <c r="U39" t="n">
-        <v>0.0005835147442097128</v>
+        <v>0.0005835147442097181</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.007435827232224314</v>
+        <v>0.007435827232224381</v>
       </c>
       <c r="H40" t="n">
-        <v>0.06611126393741258</v>
+        <v>0.06611126393741319</v>
       </c>
       <c r="I40" t="n">
-        <v>0.2236156044018004</v>
+        <v>0.2236156044018024</v>
       </c>
       <c r="J40" t="n">
-        <v>0.5257129853182589</v>
+        <v>0.5257129853182637</v>
       </c>
       <c r="K40" t="n">
-        <v>0.8639079275256974</v>
+        <v>0.8639079275257052</v>
       </c>
       <c r="L40" t="n">
-        <v>1.105504714143604</v>
+        <v>1.105504714143614</v>
       </c>
       <c r="M40" t="n">
-        <v>1.165599717865853</v>
+        <v>1.165599717865863</v>
       </c>
       <c r="N40" t="n">
-        <v>1.137884361818472</v>
+        <v>1.137884361818483</v>
       </c>
       <c r="O40" t="n">
-        <v>1.051020380060215</v>
+        <v>1.051020380060225</v>
       </c>
       <c r="P40" t="n">
-        <v>0.8993295045228386</v>
+        <v>0.8993295045228467</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.6226491330547106</v>
+        <v>0.6226491330547163</v>
       </c>
       <c r="R40" t="n">
-        <v>0.3343418317325586</v>
+        <v>0.3343418317325617</v>
       </c>
       <c r="S40" t="n">
-        <v>0.1295861891288546</v>
+        <v>0.1295861891288558</v>
       </c>
       <c r="T40" t="n">
-        <v>0.03177126181041297</v>
+        <v>0.03177126181041326</v>
       </c>
       <c r="U40" t="n">
-        <v>0.0004055905763031449</v>
+        <v>0.0004055905763031485</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.01657690127604141</v>
+        <v>0.01657690127604155</v>
       </c>
       <c r="H41" t="n">
-        <v>0.1697681901932591</v>
+        <v>0.1697681901932606</v>
       </c>
       <c r="I41" t="n">
-        <v>0.6390809864445869</v>
+        <v>0.6390809864445925</v>
       </c>
       <c r="J41" t="n">
-        <v>1.40694377467742</v>
+        <v>1.406943774677433</v>
       </c>
       <c r="K41" t="n">
-        <v>2.108644005692254</v>
+        <v>2.108644005692272</v>
       </c>
       <c r="L41" t="n">
-        <v>2.615959348118906</v>
+        <v>2.615959348118929</v>
       </c>
       <c r="M41" t="n">
-        <v>2.910758816186708</v>
+        <v>2.910758816186733</v>
       </c>
       <c r="N41" t="n">
-        <v>2.95785793693726</v>
+        <v>2.957857936937287</v>
       </c>
       <c r="O41" t="n">
-        <v>2.793021374873624</v>
+        <v>2.793021374873648</v>
       </c>
       <c r="P41" t="n">
-        <v>2.383779124621351</v>
+        <v>2.383779124621372</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.790118847673118</v>
+        <v>1.790118847673133</v>
       </c>
       <c r="R41" t="n">
-        <v>1.041298774781137</v>
+        <v>1.041298774781146</v>
       </c>
       <c r="S41" t="n">
-        <v>0.3777461378277939</v>
+        <v>0.3777461378277973</v>
       </c>
       <c r="T41" t="n">
-        <v>0.07256538533587129</v>
+        <v>0.07256538533587194</v>
       </c>
       <c r="U41" t="n">
-        <v>0.001326152102083312</v>
+        <v>0.001326152102083324</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.008869424111987633</v>
+        <v>0.008869424111987712</v>
       </c>
       <c r="H42" t="n">
-        <v>0.08565996444998583</v>
+        <v>0.08565996444998659</v>
       </c>
       <c r="I42" t="n">
-        <v>0.3053727161364164</v>
+        <v>0.305372716136419</v>
       </c>
       <c r="J42" t="n">
-        <v>0.8379660736680948</v>
+        <v>0.8379660736681023</v>
       </c>
       <c r="K42" t="n">
-        <v>1.432217489171266</v>
+        <v>1.432217489171279</v>
       </c>
       <c r="L42" t="n">
-        <v>1.925793160806789</v>
+        <v>1.925793160806806</v>
       </c>
       <c r="M42" t="n">
-        <v>2.24730978486634</v>
+        <v>2.247309784866359</v>
       </c>
       <c r="N42" t="n">
-        <v>2.306789387792783</v>
+        <v>2.306789387792804</v>
       </c>
       <c r="O42" t="n">
-        <v>2.110261621942952</v>
+        <v>2.110261621942971</v>
       </c>
       <c r="P42" t="n">
-        <v>1.693670995560165</v>
+        <v>1.69367099556018</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.132174207698632</v>
+        <v>1.132174207698642</v>
       </c>
       <c r="R42" t="n">
-        <v>0.5506823146021798</v>
+        <v>0.5506823146021846</v>
       </c>
       <c r="S42" t="n">
-        <v>0.1647456627818754</v>
+        <v>0.1647456627818769</v>
       </c>
       <c r="T42" t="n">
-        <v>0.03575000332858172</v>
+        <v>0.03575000332858203</v>
       </c>
       <c r="U42" t="n">
-        <v>0.0005835147442097129</v>
+        <v>0.0005835147442097181</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.007435827232224316</v>
+        <v>0.007435827232224381</v>
       </c>
       <c r="H43" t="n">
-        <v>0.0661112639374126</v>
+        <v>0.06611126393741319</v>
       </c>
       <c r="I43" t="n">
-        <v>0.2236156044018004</v>
+        <v>0.2236156044018024</v>
       </c>
       <c r="J43" t="n">
-        <v>0.5257129853182591</v>
+        <v>0.5257129853182637</v>
       </c>
       <c r="K43" t="n">
-        <v>0.8639079275256976</v>
+        <v>0.8639079275257052</v>
       </c>
       <c r="L43" t="n">
-        <v>1.105504714143604</v>
+        <v>1.105504714143614</v>
       </c>
       <c r="M43" t="n">
-        <v>1.165599717865853</v>
+        <v>1.165599717865863</v>
       </c>
       <c r="N43" t="n">
-        <v>1.137884361818473</v>
+        <v>1.137884361818483</v>
       </c>
       <c r="O43" t="n">
-        <v>1.051020380060216</v>
+        <v>1.051020380060225</v>
       </c>
       <c r="P43" t="n">
-        <v>0.8993295045228387</v>
+        <v>0.8993295045228467</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.6226491330547107</v>
+        <v>0.6226491330547163</v>
       </c>
       <c r="R43" t="n">
-        <v>0.3343418317325587</v>
+        <v>0.3343418317325617</v>
       </c>
       <c r="S43" t="n">
-        <v>0.1295861891288546</v>
+        <v>0.1295861891288558</v>
       </c>
       <c r="T43" t="n">
-        <v>0.03177126181041297</v>
+        <v>0.03177126181041326</v>
       </c>
       <c r="U43" t="n">
-        <v>0.000405590576303145</v>
+        <v>0.0004055905763031485</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,46 +34357,46 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.01657690127604141</v>
+        <v>0.0165769012760414</v>
       </c>
       <c r="H44" t="n">
         <v>0.1697681901932591</v>
       </c>
       <c r="I44" t="n">
-        <v>0.6390809864445869</v>
+        <v>0.6390809864445868</v>
       </c>
       <c r="J44" t="n">
         <v>1.40694377467742</v>
       </c>
       <c r="K44" t="n">
-        <v>2.108644005692254</v>
+        <v>2.108644005692253</v>
       </c>
       <c r="L44" t="n">
         <v>2.615959348118906</v>
       </c>
       <c r="M44" t="n">
-        <v>2.910758816186708</v>
+        <v>2.910758816186707</v>
       </c>
       <c r="N44" t="n">
         <v>2.95785793693726</v>
       </c>
       <c r="O44" t="n">
-        <v>2.793021374873624</v>
+        <v>2.793021374873623</v>
       </c>
       <c r="P44" t="n">
         <v>2.383779124621351</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.790118847673118</v>
+        <v>1.790118847673117</v>
       </c>
       <c r="R44" t="n">
         <v>1.041298774781137</v>
       </c>
       <c r="S44" t="n">
-        <v>0.3777461378277939</v>
+        <v>0.3777461378277938</v>
       </c>
       <c r="T44" t="n">
-        <v>0.07256538533587129</v>
+        <v>0.07256538533587127</v>
       </c>
       <c r="U44" t="n">
         <v>0.001326152102083312</v>
@@ -34436,25 +34436,25 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.008869424111987633</v>
+        <v>0.008869424111987632</v>
       </c>
       <c r="H45" t="n">
-        <v>0.08565996444998583</v>
+        <v>0.08565996444998582</v>
       </c>
       <c r="I45" t="n">
-        <v>0.3053727161364164</v>
+        <v>0.3053727161364163</v>
       </c>
       <c r="J45" t="n">
-        <v>0.8379660736680948</v>
+        <v>0.8379660736680947</v>
       </c>
       <c r="K45" t="n">
         <v>1.432217489171266</v>
       </c>
       <c r="L45" t="n">
-        <v>1.925793160806789</v>
+        <v>1.925793160806788</v>
       </c>
       <c r="M45" t="n">
-        <v>2.24730978486634</v>
+        <v>2.247309784866339</v>
       </c>
       <c r="N45" t="n">
         <v>2.306789387792783</v>
@@ -34469,16 +34469,16 @@
         <v>1.132174207698632</v>
       </c>
       <c r="R45" t="n">
-        <v>0.5506823146021798</v>
+        <v>0.5506823146021796</v>
       </c>
       <c r="S45" t="n">
         <v>0.1647456627818754</v>
       </c>
       <c r="T45" t="n">
-        <v>0.03575000332858172</v>
+        <v>0.03575000332858171</v>
       </c>
       <c r="U45" t="n">
-        <v>0.0005835147442097129</v>
+        <v>0.0005835147442097128</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,19 +34515,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.007435827232224316</v>
+        <v>0.007435827232224314</v>
       </c>
       <c r="H46" t="n">
-        <v>0.0661112639374126</v>
+        <v>0.06611126393741258</v>
       </c>
       <c r="I46" t="n">
         <v>0.2236156044018004</v>
       </c>
       <c r="J46" t="n">
-        <v>0.5257129853182591</v>
+        <v>0.5257129853182589</v>
       </c>
       <c r="K46" t="n">
-        <v>0.8639079275256976</v>
+        <v>0.8639079275256974</v>
       </c>
       <c r="L46" t="n">
         <v>1.105504714143604</v>
@@ -34536,19 +34536,19 @@
         <v>1.165599717865853</v>
       </c>
       <c r="N46" t="n">
-        <v>1.137884361818473</v>
+        <v>1.137884361818472</v>
       </c>
       <c r="O46" t="n">
-        <v>1.051020380060216</v>
+        <v>1.051020380060215</v>
       </c>
       <c r="P46" t="n">
-        <v>0.8993295045228387</v>
+        <v>0.8993295045228386</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.6226491330547107</v>
+        <v>0.6226491330547106</v>
       </c>
       <c r="R46" t="n">
-        <v>0.3343418317325587</v>
+        <v>0.3343418317325586</v>
       </c>
       <c r="S46" t="n">
         <v>0.1295861891288546</v>
@@ -34557,7 +34557,7 @@
         <v>0.03177126181041297</v>
       </c>
       <c r="U46" t="n">
-        <v>0.000405590576303145</v>
+        <v>0.0004055905763031449</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,16 +34696,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>72.72580229576329</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>91.0924524045067</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L2" t="n">
         <v>351.3993667524709</v>
       </c>
       <c r="M2" t="n">
-        <v>397.2112790435232</v>
+        <v>318.463501375322</v>
       </c>
       <c r="N2" t="n">
         <v>382.1528875633492</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -34784,10 +34784,10 @@
         <v>369.5170153233491</v>
       </c>
       <c r="M3" t="n">
-        <v>150.4124273801663</v>
+        <v>370.6404842677399</v>
       </c>
       <c r="N3" t="n">
-        <v>487.0483940802146</v>
+        <v>487.0483940802137</v>
       </c>
       <c r="O3" t="n">
         <v>396.1615664486372</v>
@@ -34796,7 +34796,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.3652826117113</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34936,7 +34936,7 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K5" t="n">
-        <v>242.5660323684674</v>
+        <v>91.09245240450311</v>
       </c>
       <c r="L5" t="n">
         <v>351.3993667524709</v>
@@ -34945,7 +34945,7 @@
         <v>397.2112790435232</v>
       </c>
       <c r="N5" t="n">
-        <v>230.6793075993884</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O5" t="n">
         <v>308.0854388614484</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>231.8086389496855</v>
@@ -35021,13 +35021,13 @@
         <v>369.5170153233491</v>
       </c>
       <c r="M6" t="n">
-        <v>474.1306374908294</v>
+        <v>138.8318453180543</v>
       </c>
       <c r="N6" t="n">
-        <v>487.0483940802146</v>
+        <v>487.0483940802137</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>396.1615664486372</v>
       </c>
       <c r="P6" t="n">
         <v>305.147393207775</v>
@@ -35249,13 +35249,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>231.8086389496855</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>212.9515651312839</v>
       </c>
       <c r="M9" t="n">
         <v>489.93268031336</v>
@@ -35264,7 +35264,7 @@
         <v>516.4299455789112</v>
       </c>
       <c r="O9" t="n">
-        <v>316.4417183543708</v>
+        <v>396.1615664486372</v>
       </c>
       <c r="P9" t="n">
         <v>305.147393207775</v>
@@ -35413,25 +35413,25 @@
         <v>244.6746763741597</v>
       </c>
       <c r="L11" t="n">
-        <v>414.240007083947</v>
+        <v>354.0153261005898</v>
       </c>
       <c r="M11" t="n">
-        <v>400.1220378597099</v>
+        <v>513.2158815465236</v>
       </c>
       <c r="N11" t="n">
-        <v>385.1107455002865</v>
+        <v>420.9321876611514</v>
       </c>
       <c r="O11" t="n">
-        <v>423.9723039231358</v>
+        <v>310.8784602363221</v>
       </c>
       <c r="P11" t="n">
-        <v>232.8452906963923</v>
+        <v>345.939134383206</v>
       </c>
       <c r="Q11" t="n">
-        <v>210.2700773693727</v>
+        <v>97.17623368255899</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>24.40323882248965</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,10 +35489,10 @@
         <v>61.70074034953289</v>
       </c>
       <c r="K12" t="n">
-        <v>233.2408564388568</v>
+        <v>75.69726188549784</v>
       </c>
       <c r="L12" t="n">
-        <v>213.8992139307987</v>
+        <v>371.4428084841559</v>
       </c>
       <c r="M12" t="n">
         <v>492.1799900982264</v>
@@ -35644,10 +35644,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>187.2265897572544</v>
+        <v>74.13274607044072</v>
       </c>
       <c r="K14" t="n">
-        <v>244.6746763741597</v>
+        <v>357.7685200609734</v>
       </c>
       <c r="L14" t="n">
         <v>354.0153261005898</v>
@@ -35656,19 +35656,19 @@
         <v>400.1220378597099</v>
       </c>
       <c r="N14" t="n">
-        <v>445.3354264836432</v>
+        <v>385.1107455002865</v>
       </c>
       <c r="O14" t="n">
-        <v>423.9723039231358</v>
+        <v>310.8784602363221</v>
       </c>
       <c r="P14" t="n">
-        <v>232.8452906963923</v>
+        <v>268.6667328572575</v>
       </c>
       <c r="Q14" t="n">
-        <v>97.17623368255899</v>
+        <v>210.2700773693727</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>24.40323882248965</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35735,7 +35735,7 @@
         <v>492.1799900982264</v>
       </c>
       <c r="N15" t="n">
-        <v>518.736734966704</v>
+        <v>361.193140413345</v>
       </c>
       <c r="O15" t="n">
         <v>398.2718280705802</v>
@@ -35744,7 +35744,7 @@
         <v>306.8410642033352</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.953862266052727</v>
+        <v>160.49745681941</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>54.16289047216294</v>
+        <v>54.16289047216295</v>
       </c>
       <c r="K16" t="n">
         <v>147.9013755988277</v>
@@ -35823,7 +35823,7 @@
         <v>177.5977022096575</v>
       </c>
       <c r="Q16" t="n">
-        <v>75.56452488702054</v>
+        <v>75.56452488702055</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,7 +35878,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>5.350312533382872</v>
+        <v>5.350312533382929</v>
       </c>
       <c r="J17" t="n">
         <v>249.933004420671</v>
@@ -35887,7 +35887,7 @@
         <v>244.6746763741597</v>
       </c>
       <c r="L17" t="n">
-        <v>354.0153261005898</v>
+        <v>459.277123573959</v>
       </c>
       <c r="M17" t="n">
         <v>400.1220378597099</v>
@@ -35896,7 +35896,7 @@
         <v>385.1107455002865</v>
       </c>
       <c r="O17" t="n">
-        <v>416.1402577096929</v>
+        <v>310.8784602363221</v>
       </c>
       <c r="P17" t="n">
         <v>232.8452906963923</v>
@@ -35963,7 +35963,7 @@
         <v>61.70074034953289</v>
       </c>
       <c r="K18" t="n">
-        <v>75.69726188549964</v>
+        <v>233.2408564388568</v>
       </c>
       <c r="L18" t="n">
         <v>371.4428084841559</v>
@@ -35981,7 +35981,7 @@
         <v>306.8410642033352</v>
       </c>
       <c r="Q18" t="n">
-        <v>160.49745681941</v>
+        <v>2.953862266050889</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36115,10 +36115,10 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>5.350312533382872</v>
+        <v>5.350312533382929</v>
       </c>
       <c r="J20" t="n">
-        <v>74.13274607044072</v>
+        <v>249.933004420671</v>
       </c>
       <c r="K20" t="n">
         <v>244.6746763741597</v>
@@ -36127,7 +36127,7 @@
         <v>354.0153261005898</v>
       </c>
       <c r="M20" t="n">
-        <v>505.383835333081</v>
+        <v>505.3838353330791</v>
       </c>
       <c r="N20" t="n">
         <v>385.1107455002865</v>
@@ -36139,7 +36139,7 @@
         <v>232.8452906963923</v>
       </c>
       <c r="Q20" t="n">
-        <v>272.9764920327892</v>
+        <v>97.17623368255899</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,10 +36197,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>61.70074034953289</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>233.2408564388568</v>
+        <v>137.3980022350307</v>
       </c>
       <c r="L21" t="n">
         <v>371.4428084841559</v>
@@ -36212,7 +36212,7 @@
         <v>518.736734966704</v>
       </c>
       <c r="O21" t="n">
-        <v>240.728233517223</v>
+        <v>398.2718280705802</v>
       </c>
       <c r="P21" t="n">
         <v>306.8410642033352</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>74.13274607044072</v>
+        <v>97.63520259128856</v>
       </c>
       <c r="K23" t="n">
         <v>244.6746763741597</v>
@@ -36364,7 +36364,7 @@
         <v>354.0153261005898</v>
       </c>
       <c r="M23" t="n">
-        <v>510.7341478664638</v>
+        <v>400.1220378597099</v>
       </c>
       <c r="N23" t="n">
         <v>385.1107455002865</v>
@@ -36379,7 +36379,7 @@
         <v>97.17623368255899</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>87.10965348590624</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,13 +36434,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>61.70074034953289</v>
       </c>
       <c r="K24" t="n">
-        <v>233.2408564388568</v>
+        <v>75.69726188549964</v>
       </c>
       <c r="L24" t="n">
-        <v>275.5999542803316</v>
+        <v>371.4428084841559</v>
       </c>
       <c r="M24" t="n">
         <v>492.1799900982264</v>
@@ -36604,19 +36604,19 @@
         <v>513.2158815465236</v>
       </c>
       <c r="N26" t="n">
-        <v>498.2045891871002</v>
+        <v>498.2045891871001</v>
       </c>
       <c r="O26" t="n">
-        <v>395.6273100662036</v>
+        <v>423.9723039231358</v>
       </c>
       <c r="P26" t="n">
-        <v>345.939134383206</v>
+        <v>345.9391343832059</v>
       </c>
       <c r="Q26" t="n">
-        <v>210.2700773693727</v>
+        <v>206.3283223349328</v>
       </c>
       <c r="R26" t="n">
-        <v>24.40323882248963</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36683,7 +36683,7 @@
         <v>492.1799900982264</v>
       </c>
       <c r="N27" t="n">
-        <v>518.7367349667034</v>
+        <v>518.7367349667031</v>
       </c>
       <c r="O27" t="n">
         <v>398.2718280705802</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>54.16289047216294</v>
+        <v>54.16289047216291</v>
       </c>
       <c r="K28" t="n">
         <v>147.9013755988277</v>
@@ -36759,7 +36759,7 @@
         <v>215.8226609264719</v>
       </c>
       <c r="M28" t="n">
-        <v>233.4448031295298</v>
+        <v>233.4448031295297</v>
       </c>
       <c r="N28" t="n">
         <v>233.8502550684305</v>
@@ -36771,7 +36771,7 @@
         <v>177.5977022096575</v>
       </c>
       <c r="Q28" t="n">
-        <v>75.56452488702053</v>
+        <v>75.5645248870205</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36835,7 +36835,7 @@
         <v>357.7685200609735</v>
       </c>
       <c r="L29" t="n">
-        <v>467.1091697874037</v>
+        <v>438.764175930473</v>
       </c>
       <c r="M29" t="n">
         <v>513.2158815465237</v>
@@ -36844,7 +36844,7 @@
         <v>498.2045891871003</v>
       </c>
       <c r="O29" t="n">
-        <v>395.6273100662023</v>
+        <v>423.9723039231359</v>
       </c>
       <c r="P29" t="n">
         <v>345.9391343832061</v>
@@ -36853,7 +36853,7 @@
         <v>210.2700773693728</v>
       </c>
       <c r="R29" t="n">
-        <v>24.40323882248969</v>
+        <v>24.40323882248967</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,7 +36911,7 @@
         <v>61.70074034953294</v>
       </c>
       <c r="K30" t="n">
-        <v>233.2408564388552</v>
+        <v>233.2408564388569</v>
       </c>
       <c r="L30" t="n">
         <v>371.442808484156</v>
@@ -36920,7 +36920,7 @@
         <v>492.1799900982265</v>
       </c>
       <c r="N30" t="n">
-        <v>518.7367349667041</v>
+        <v>518.7367349667024</v>
       </c>
       <c r="O30" t="n">
         <v>398.2718280705803</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>54.16289047216296</v>
+        <v>54.16289047216295</v>
       </c>
       <c r="K31" t="n">
         <v>147.9013755988277</v>
@@ -37008,7 +37008,7 @@
         <v>177.5977022096575</v>
       </c>
       <c r="Q31" t="n">
-        <v>75.56452488702057</v>
+        <v>75.56452488702055</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>219.3289250837152</v>
+        <v>219.3289250837153</v>
       </c>
       <c r="K32" t="n">
-        <v>389.8708553874342</v>
+        <v>244.6746763741597</v>
       </c>
       <c r="L32" t="n">
-        <v>354.0153261005898</v>
+        <v>499.2115051138643</v>
       </c>
       <c r="M32" t="n">
-        <v>545.3182168729844</v>
+        <v>400.1220378597099</v>
       </c>
       <c r="N32" t="n">
         <v>385.1107455002865</v>
       </c>
       <c r="O32" t="n">
-        <v>456.0746392495965</v>
+        <v>422.9235845303793</v>
       </c>
       <c r="P32" t="n">
-        <v>256.1998101261264</v>
+        <v>378.0414697096668</v>
       </c>
       <c r="Q32" t="n">
         <v>242.3724126958335</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>56.50557414895049</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>61.70074034953289</v>
+        <v>61.70074034953227</v>
       </c>
       <c r="K33" t="n">
         <v>233.2408564388568</v>
@@ -37157,7 +37157,7 @@
         <v>492.1799900982264</v>
       </c>
       <c r="N33" t="n">
-        <v>518.7367349667034</v>
+        <v>518.736734966704</v>
       </c>
       <c r="O33" t="n">
         <v>398.2718280705802</v>
@@ -37224,13 +37224,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>34.07391865424231</v>
       </c>
       <c r="K34" t="n">
         <v>34.807531912014</v>
       </c>
       <c r="L34" t="n">
-        <v>102.7288172396583</v>
+        <v>247.9249962529328</v>
       </c>
       <c r="M34" t="n">
         <v>120.3509594427161</v>
@@ -37239,13 +37239,13 @@
         <v>120.7564113816168</v>
       </c>
       <c r="O34" t="n">
-        <v>242.2500280313099</v>
+        <v>100.5092491635852</v>
       </c>
       <c r="P34" t="n">
-        <v>209.7000375361183</v>
+        <v>64.50385852284386</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>107.6668602134814</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,13 +37303,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>187.789364221005</v>
+        <v>74.13274607044072</v>
       </c>
       <c r="K35" t="n">
         <v>244.6746763741597</v>
       </c>
       <c r="L35" t="n">
-        <v>519.1649984804783</v>
+        <v>391.2128767355906</v>
       </c>
       <c r="M35" t="n">
         <v>565.2717102395983</v>
@@ -37318,7 +37318,7 @@
         <v>385.1107455002865</v>
       </c>
       <c r="O35" t="n">
-        <v>310.8784602363221</v>
+        <v>476.0281326162104</v>
       </c>
       <c r="P35" t="n">
         <v>232.8452906963923</v>
@@ -37327,7 +37327,7 @@
         <v>97.17623368255899</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>76.45906751556431</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37446,7 +37446,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>2.115542229066294</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -37464,7 +37464,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>34.807531912014</v>
+        <v>85.09005187272865</v>
       </c>
       <c r="L37" t="n">
         <v>102.7288172396583</v>
@@ -37482,10 +37482,10 @@
         <v>64.50385852284386</v>
       </c>
       <c r="Q37" t="n">
-        <v>30.70952709179269</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>17.45745063985538</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37540,10 +37540,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>74.1327460704407</v>
+        <v>74.13274607044072</v>
       </c>
       <c r="K38" t="n">
-        <v>244.6746763741597</v>
+        <v>409.8243487540481</v>
       </c>
       <c r="L38" t="n">
         <v>354.0153261005898</v>
@@ -37552,7 +37552,7 @@
         <v>400.1220378597099</v>
       </c>
       <c r="N38" t="n">
-        <v>550.2604178801747</v>
+        <v>385.1107455002865</v>
       </c>
       <c r="O38" t="n">
         <v>424.5350783868874</v>
@@ -37561,7 +37561,7 @@
         <v>232.8452906963923</v>
       </c>
       <c r="Q38" t="n">
-        <v>262.3259060624472</v>
+        <v>262.3259060624474</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>61.70074034953289</v>
+        <v>61.7007403495331</v>
       </c>
       <c r="K39" t="n">
         <v>233.2408564388568</v>
@@ -37701,7 +37701,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>67.63260123287451</v>
+        <v>34.807531912014</v>
       </c>
       <c r="L40" t="n">
         <v>102.7288172396583</v>
@@ -37710,19 +37710,19 @@
         <v>120.3509594427161</v>
       </c>
       <c r="N40" t="n">
-        <v>120.7564113816168</v>
+        <v>171.0389313423315</v>
       </c>
       <c r="O40" t="n">
-        <v>100.5092491635851</v>
+        <v>100.5092491635852</v>
       </c>
       <c r="P40" t="n">
-        <v>64.50385852284384</v>
+        <v>64.50385852284386</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>17.45745063985524</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>74.1327460704407</v>
+        <v>111.330296705441</v>
       </c>
       <c r="K41" t="n">
-        <v>409.8243487540481</v>
+        <v>244.6746763741597</v>
       </c>
       <c r="L41" t="n">
-        <v>519.1649984804783</v>
+        <v>354.0153261005898</v>
       </c>
       <c r="M41" t="n">
-        <v>513.7786560102747</v>
+        <v>565.2717102395983</v>
       </c>
       <c r="N41" t="n">
         <v>385.1107455002865</v>
       </c>
       <c r="O41" t="n">
-        <v>310.878460236322</v>
+        <v>476.0281326162104</v>
       </c>
       <c r="P41" t="n">
         <v>232.8452906963923</v>
       </c>
       <c r="Q41" t="n">
-        <v>97.17623368255897</v>
+        <v>97.17623368255899</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>76.45906751556431</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37871,13 +37871,13 @@
         <v>518.736734966704</v>
       </c>
       <c r="O42" t="n">
-        <v>398.2718280705802</v>
+        <v>398.2718280705804</v>
       </c>
       <c r="P42" t="n">
         <v>306.8410642033352</v>
       </c>
       <c r="Q42" t="n">
-        <v>160.4974568194099</v>
+        <v>160.49745681941</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37923,7 +37923,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>14.19382395540774</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -37938,28 +37938,28 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>53.43877727746523</v>
+        <v>34.807531912014</v>
       </c>
       <c r="L43" t="n">
         <v>102.7288172396583</v>
       </c>
       <c r="M43" t="n">
-        <v>120.3509594427161</v>
+        <v>170.6334794034308</v>
       </c>
       <c r="N43" t="n">
         <v>120.7564113816168</v>
       </c>
       <c r="O43" t="n">
-        <v>100.5092491635851</v>
+        <v>100.5092491635852</v>
       </c>
       <c r="P43" t="n">
-        <v>64.50385852284384</v>
+        <v>64.50385852284386</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>17.45745063985538</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>74.1327460704407</v>
+        <v>111.3302967054416</v>
       </c>
       <c r="K44" t="n">
-        <v>244.6746763741597</v>
+        <v>409.824348754048</v>
       </c>
       <c r="L44" t="n">
-        <v>519.1649984804783</v>
+        <v>354.0153261005898</v>
       </c>
       <c r="M44" t="n">
-        <v>565.2717102395982</v>
+        <v>400.1220378597099</v>
       </c>
       <c r="N44" t="n">
-        <v>498.7673636508511</v>
+        <v>385.1107455002865</v>
       </c>
       <c r="O44" t="n">
         <v>310.878460236322</v>
       </c>
       <c r="P44" t="n">
-        <v>232.8452906963923</v>
+        <v>397.9949630762806</v>
       </c>
       <c r="Q44" t="n">
         <v>97.17623368255897</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>76.45906751556429</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38175,7 +38175,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>67.63260123287301</v>
+        <v>34.80753191201399</v>
       </c>
       <c r="L46" t="n">
         <v>102.7288172396583</v>
@@ -38190,13 +38190,13 @@
         <v>100.5092491635851</v>
       </c>
       <c r="P46" t="n">
-        <v>64.50385852284384</v>
+        <v>114.7863784835587</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>17.45745063985538</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
